--- a/data/Infectados Covid Chile.xlsx
+++ b/data/Infectados Covid Chile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8568" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8568" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos" sheetId="4" r:id="rId1"/>
@@ -2162,11 +2162,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AL18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF19" sqref="AF19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM13" sqref="AM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2177,7 +2177,7 @@
     <col min="4" max="24" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -2274,8 +2274,26 @@
       <c r="AF1" s="2">
         <v>43921</v>
       </c>
+      <c r="AG1" s="2">
+        <v>43922</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>43923</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>43924</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>43925</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>43926</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>43927</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2372,8 +2390,26 @@
       <c r="AF2">
         <v>6</v>
       </c>
+      <c r="AG2">
+        <v>6</v>
+      </c>
+      <c r="AH2">
+        <v>7</v>
+      </c>
+      <c r="AI2">
+        <v>12</v>
+      </c>
+      <c r="AJ2">
+        <v>12</v>
+      </c>
+      <c r="AK2">
+        <v>28</v>
+      </c>
+      <c r="AL2">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2470,8 +2506,26 @@
       <c r="AF3">
         <v>10</v>
       </c>
+      <c r="AG3">
+        <v>10</v>
+      </c>
+      <c r="AH3">
+        <v>12</v>
+      </c>
+      <c r="AI3">
+        <v>13</v>
+      </c>
+      <c r="AJ3">
+        <v>17</v>
+      </c>
+      <c r="AK3">
+        <v>20</v>
+      </c>
+      <c r="AL3">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2568,8 +2622,26 @@
       <c r="AF4">
         <v>35</v>
       </c>
+      <c r="AG4">
+        <v>39</v>
+      </c>
+      <c r="AH4">
+        <v>47</v>
+      </c>
+      <c r="AI4">
+        <v>54</v>
+      </c>
+      <c r="AJ4">
+        <v>55</v>
+      </c>
+      <c r="AK4">
+        <v>60</v>
+      </c>
+      <c r="AL4">
+        <v>68</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2666,8 +2738,26 @@
       <c r="AF5">
         <v>2</v>
       </c>
+      <c r="AG5">
+        <v>3</v>
+      </c>
+      <c r="AH5">
+        <v>3</v>
+      </c>
+      <c r="AI5">
+        <v>5</v>
+      </c>
+      <c r="AJ5">
+        <v>5</v>
+      </c>
+      <c r="AK5">
+        <v>5</v>
+      </c>
+      <c r="AL5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2764,8 +2854,26 @@
       <c r="AF6">
         <v>28</v>
       </c>
+      <c r="AG6">
+        <v>30</v>
+      </c>
+      <c r="AH6">
+        <v>34</v>
+      </c>
+      <c r="AI6">
+        <v>35</v>
+      </c>
+      <c r="AJ6">
+        <v>44</v>
+      </c>
+      <c r="AK6">
+        <v>50</v>
+      </c>
+      <c r="AL6">
+        <v>51</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2862,8 +2970,26 @@
       <c r="AF7">
         <v>115</v>
       </c>
+      <c r="AG7">
+        <v>136</v>
+      </c>
+      <c r="AH7">
+        <v>156</v>
+      </c>
+      <c r="AI7">
+        <v>176</v>
+      </c>
+      <c r="AJ7">
+        <v>185</v>
+      </c>
+      <c r="AK7">
+        <v>191</v>
+      </c>
+      <c r="AL7">
+        <v>198</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2960,8 +3086,26 @@
       <c r="AF8">
         <v>1420</v>
       </c>
+      <c r="AG8">
+        <v>1521</v>
+      </c>
+      <c r="AH8">
+        <v>1636</v>
+      </c>
+      <c r="AI8">
+        <v>1742</v>
+      </c>
+      <c r="AJ8">
+        <v>1957</v>
+      </c>
+      <c r="AK8">
+        <v>2102</v>
+      </c>
+      <c r="AL8">
+        <v>2244</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3058,8 +3202,26 @@
       <c r="AF9">
         <v>23</v>
       </c>
+      <c r="AG9">
+        <v>26</v>
+      </c>
+      <c r="AH9">
+        <v>32</v>
+      </c>
+      <c r="AI9">
+        <v>33</v>
+      </c>
+      <c r="AJ9">
+        <v>38</v>
+      </c>
+      <c r="AK9">
+        <v>41</v>
+      </c>
+      <c r="AL9">
+        <v>42</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3156,8 +3318,26 @@
       <c r="AF10">
         <v>62</v>
       </c>
+      <c r="AG10">
+        <v>71</v>
+      </c>
+      <c r="AH10">
+        <v>82</v>
+      </c>
+      <c r="AI10">
+        <v>89</v>
+      </c>
+      <c r="AJ10">
+        <v>97</v>
+      </c>
+      <c r="AK10">
+        <v>103</v>
+      </c>
+      <c r="AL10">
+        <v>108</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3254,8 +3434,26 @@
       <c r="AF11">
         <v>245</v>
       </c>
+      <c r="AG11">
+        <v>259</v>
+      </c>
+      <c r="AH11">
+        <v>341</v>
+      </c>
+      <c r="AI11">
+        <v>370</v>
+      </c>
+      <c r="AJ11">
+        <v>401</v>
+      </c>
+      <c r="AK11">
+        <v>425</v>
+      </c>
+      <c r="AL11">
+        <v>474</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3352,8 +3550,26 @@
       <c r="AF12">
         <v>216</v>
       </c>
+      <c r="AG12">
+        <v>240</v>
+      </c>
+      <c r="AH12">
+        <v>275</v>
+      </c>
+      <c r="AI12">
+        <v>302</v>
+      </c>
+      <c r="AJ12">
+        <v>347</v>
+      </c>
+      <c r="AK12">
+        <v>365</v>
+      </c>
+      <c r="AL12">
+        <v>383</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3450,8 +3666,26 @@
       <c r="AF13">
         <v>302</v>
       </c>
+      <c r="AG13">
+        <v>343</v>
+      </c>
+      <c r="AH13">
+        <v>389</v>
+      </c>
+      <c r="AI13">
+        <v>432</v>
+      </c>
+      <c r="AJ13">
+        <v>477</v>
+      </c>
+      <c r="AK13">
+        <v>509</v>
+      </c>
+      <c r="AL13">
+        <v>562</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3548,8 +3782,26 @@
       <c r="AF14">
         <v>58</v>
       </c>
+      <c r="AG14">
+        <v>64</v>
+      </c>
+      <c r="AH14">
+        <v>68</v>
+      </c>
+      <c r="AI14">
+        <v>78</v>
+      </c>
+      <c r="AJ14">
+        <v>89</v>
+      </c>
+      <c r="AK14">
+        <v>99</v>
+      </c>
+      <c r="AL14">
+        <v>104</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3646,8 +3898,26 @@
       <c r="AF15">
         <v>151</v>
       </c>
+      <c r="AG15">
+        <v>181</v>
+      </c>
+      <c r="AH15">
+        <v>203</v>
+      </c>
+      <c r="AI15">
+        <v>234</v>
+      </c>
+      <c r="AJ15">
+        <v>259</v>
+      </c>
+      <c r="AK15">
+        <v>276</v>
+      </c>
+      <c r="AL15">
+        <v>286</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3744,8 +4014,26 @@
       <c r="AF16">
         <v>2</v>
       </c>
+      <c r="AG16">
+        <v>3</v>
+      </c>
+      <c r="AH16">
+        <v>5</v>
+      </c>
+      <c r="AI16">
+        <v>6</v>
+      </c>
+      <c r="AJ16">
+        <v>6</v>
+      </c>
+      <c r="AK16">
+        <v>7</v>
+      </c>
+      <c r="AL16">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3842,8 +4130,26 @@
       <c r="AF17">
         <v>63</v>
       </c>
+      <c r="AG17">
+        <v>99</v>
+      </c>
+      <c r="AH17">
+        <v>114</v>
+      </c>
+      <c r="AI17">
+        <v>156</v>
+      </c>
+      <c r="AJ17">
+        <v>172</v>
+      </c>
+      <c r="AK17">
+        <v>190</v>
+      </c>
+      <c r="AL17">
+        <v>221</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
@@ -3957,12 +4263,36 @@
         <v>2139</v>
       </c>
       <c r="AE18">
-        <f t="shared" ref="AE18:AF18" si="3">SUM(AE2:AE17)</f>
+        <f t="shared" ref="AE18:AL18" si="3">SUM(AE2:AE17)</f>
         <v>2449</v>
       </c>
       <c r="AF18">
         <f t="shared" si="3"/>
         <v>2738</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="3"/>
+        <v>3031</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="3"/>
+        <v>3404</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="3"/>
+        <v>3737</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="3"/>
+        <v>4161</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="3"/>
+        <v>4471</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="3"/>
+        <v>4815</v>
       </c>
     </row>
   </sheetData>
@@ -5995,7 +6325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+    <sheetView topLeftCell="AA1" workbookViewId="0">
       <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>

--- a/data/Infectados Covid Chile.xlsx
+++ b/data/Infectados Covid Chile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8568" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8568" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos" sheetId="4" r:id="rId1"/>
@@ -2164,7 +2164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="AH1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AM13" sqref="AM13"/>
     </sheetView>
@@ -4302,10 +4302,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF16"/>
+  <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11"/>
+      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4313,7 +4313,7 @@
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -4410,8 +4410,26 @@
       <c r="AF1" s="2">
         <v>43921</v>
       </c>
+      <c r="AG1" s="2">
+        <v>43922</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>43923</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>43924</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>43925</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>43926</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>43927</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4537,8 +4555,32 @@
         <f>Hoja1!AF2</f>
         <v>6</v>
       </c>
+      <c r="AG2">
+        <f>Hoja1!AG2</f>
+        <v>6</v>
+      </c>
+      <c r="AH2">
+        <f>Hoja1!AH2</f>
+        <v>7</v>
+      </c>
+      <c r="AI2">
+        <f>Hoja1!AI2</f>
+        <v>12</v>
+      </c>
+      <c r="AJ2">
+        <f>Hoja1!AJ2</f>
+        <v>12</v>
+      </c>
+      <c r="AK2">
+        <f>Hoja1!AK2</f>
+        <v>28</v>
+      </c>
+      <c r="AL2">
+        <f>Hoja1!AL2</f>
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4664,8 +4706,32 @@
         <f>Hoja1!AF3</f>
         <v>10</v>
       </c>
+      <c r="AG3">
+        <f>Hoja1!AG3</f>
+        <v>10</v>
+      </c>
+      <c r="AH3">
+        <f>Hoja1!AH3</f>
+        <v>12</v>
+      </c>
+      <c r="AI3">
+        <f>Hoja1!AI3</f>
+        <v>13</v>
+      </c>
+      <c r="AJ3">
+        <f>Hoja1!AJ3</f>
+        <v>17</v>
+      </c>
+      <c r="AK3">
+        <f>Hoja1!AK3</f>
+        <v>20</v>
+      </c>
+      <c r="AL3">
+        <f>Hoja1!AL3</f>
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4791,8 +4857,32 @@
         <f>Hoja1!AF4</f>
         <v>35</v>
       </c>
+      <c r="AG4">
+        <f>Hoja1!AG4</f>
+        <v>39</v>
+      </c>
+      <c r="AH4">
+        <f>Hoja1!AH4</f>
+        <v>47</v>
+      </c>
+      <c r="AI4">
+        <f>Hoja1!AI4</f>
+        <v>54</v>
+      </c>
+      <c r="AJ4">
+        <f>Hoja1!AJ4</f>
+        <v>55</v>
+      </c>
+      <c r="AK4">
+        <f>Hoja1!AK4</f>
+        <v>60</v>
+      </c>
+      <c r="AL4">
+        <f>Hoja1!AL4</f>
+        <v>68</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4918,8 +5008,32 @@
         <f>Hoja1!AF5</f>
         <v>2</v>
       </c>
+      <c r="AG5">
+        <f>Hoja1!AG5</f>
+        <v>3</v>
+      </c>
+      <c r="AH5">
+        <f>Hoja1!AH5</f>
+        <v>3</v>
+      </c>
+      <c r="AI5">
+        <f>Hoja1!AI5</f>
+        <v>5</v>
+      </c>
+      <c r="AJ5">
+        <f>Hoja1!AJ5</f>
+        <v>5</v>
+      </c>
+      <c r="AK5">
+        <f>Hoja1!AK5</f>
+        <v>5</v>
+      </c>
+      <c r="AL5">
+        <f>Hoja1!AL5</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5045,8 +5159,32 @@
         <f>Hoja1!AF6</f>
         <v>28</v>
       </c>
+      <c r="AG6">
+        <f>Hoja1!AG6</f>
+        <v>30</v>
+      </c>
+      <c r="AH6">
+        <f>Hoja1!AH6</f>
+        <v>34</v>
+      </c>
+      <c r="AI6">
+        <f>Hoja1!AI6</f>
+        <v>35</v>
+      </c>
+      <c r="AJ6">
+        <f>Hoja1!AJ6</f>
+        <v>44</v>
+      </c>
+      <c r="AK6">
+        <f>Hoja1!AK6</f>
+        <v>50</v>
+      </c>
+      <c r="AL6">
+        <f>Hoja1!AL6</f>
+        <v>51</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5172,8 +5310,32 @@
         <f>Hoja1!AF7</f>
         <v>115</v>
       </c>
+      <c r="AG7">
+        <f>Hoja1!AG7</f>
+        <v>136</v>
+      </c>
+      <c r="AH7">
+        <f>Hoja1!AH7</f>
+        <v>156</v>
+      </c>
+      <c r="AI7">
+        <f>Hoja1!AI7</f>
+        <v>176</v>
+      </c>
+      <c r="AJ7">
+        <f>Hoja1!AJ7</f>
+        <v>185</v>
+      </c>
+      <c r="AK7">
+        <f>Hoja1!AK7</f>
+        <v>191</v>
+      </c>
+      <c r="AL7">
+        <f>Hoja1!AL7</f>
+        <v>198</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5299,8 +5461,32 @@
         <f>Hoja1!AF8</f>
         <v>1420</v>
       </c>
+      <c r="AG8">
+        <f>Hoja1!AG8</f>
+        <v>1521</v>
+      </c>
+      <c r="AH8">
+        <f>Hoja1!AH8</f>
+        <v>1636</v>
+      </c>
+      <c r="AI8">
+        <f>Hoja1!AI8</f>
+        <v>1742</v>
+      </c>
+      <c r="AJ8">
+        <f>Hoja1!AJ8</f>
+        <v>1957</v>
+      </c>
+      <c r="AK8">
+        <f>Hoja1!AK8</f>
+        <v>2102</v>
+      </c>
+      <c r="AL8">
+        <f>Hoja1!AL8</f>
+        <v>2244</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5426,8 +5612,32 @@
         <f>Hoja1!AF9</f>
         <v>23</v>
       </c>
+      <c r="AG9">
+        <f>Hoja1!AG9</f>
+        <v>26</v>
+      </c>
+      <c r="AH9">
+        <f>Hoja1!AH9</f>
+        <v>32</v>
+      </c>
+      <c r="AI9">
+        <f>Hoja1!AI9</f>
+        <v>33</v>
+      </c>
+      <c r="AJ9">
+        <f>Hoja1!AJ9</f>
+        <v>38</v>
+      </c>
+      <c r="AK9">
+        <f>Hoja1!AK9</f>
+        <v>41</v>
+      </c>
+      <c r="AL9">
+        <f>Hoja1!AL9</f>
+        <v>42</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5553,8 +5763,32 @@
         <f>Hoja1!AF10</f>
         <v>62</v>
       </c>
+      <c r="AG10">
+        <f>Hoja1!AG10</f>
+        <v>71</v>
+      </c>
+      <c r="AH10">
+        <f>Hoja1!AH10</f>
+        <v>82</v>
+      </c>
+      <c r="AI10">
+        <f>Hoja1!AI10</f>
+        <v>89</v>
+      </c>
+      <c r="AJ10">
+        <f>Hoja1!AJ10</f>
+        <v>97</v>
+      </c>
+      <c r="AK10">
+        <f>Hoja1!AK10</f>
+        <v>103</v>
+      </c>
+      <c r="AL10">
+        <f>Hoja1!AL10</f>
+        <v>108</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5680,8 +5914,32 @@
         <f>SUM(Hoja1!AF11:AF12)</f>
         <v>461</v>
       </c>
+      <c r="AG11">
+        <f>SUM(Hoja1!AG11:AG12)</f>
+        <v>499</v>
+      </c>
+      <c r="AH11">
+        <f>SUM(Hoja1!AH11:AH12)</f>
+        <v>616</v>
+      </c>
+      <c r="AI11">
+        <f>SUM(Hoja1!AI11:AI12)</f>
+        <v>672</v>
+      </c>
+      <c r="AJ11">
+        <f>SUM(Hoja1!AJ11:AJ12)</f>
+        <v>748</v>
+      </c>
+      <c r="AK11">
+        <f>SUM(Hoja1!AK11:AK12)</f>
+        <v>790</v>
+      </c>
+      <c r="AL11">
+        <f>SUM(Hoja1!AL11:AL12)</f>
+        <v>857</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5807,8 +6065,32 @@
         <f>Hoja1!AF13</f>
         <v>302</v>
       </c>
+      <c r="AG12">
+        <f>Hoja1!AG13</f>
+        <v>343</v>
+      </c>
+      <c r="AH12">
+        <f>Hoja1!AH13</f>
+        <v>389</v>
+      </c>
+      <c r="AI12">
+        <f>Hoja1!AI13</f>
+        <v>432</v>
+      </c>
+      <c r="AJ12">
+        <f>Hoja1!AJ13</f>
+        <v>477</v>
+      </c>
+      <c r="AK12">
+        <f>Hoja1!AK13</f>
+        <v>509</v>
+      </c>
+      <c r="AL12">
+        <f>Hoja1!AL13</f>
+        <v>562</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5934,8 +6216,32 @@
         <f>Hoja1!AF14</f>
         <v>58</v>
       </c>
+      <c r="AG13">
+        <f>Hoja1!AG14</f>
+        <v>64</v>
+      </c>
+      <c r="AH13">
+        <f>Hoja1!AH14</f>
+        <v>68</v>
+      </c>
+      <c r="AI13">
+        <f>Hoja1!AI14</f>
+        <v>78</v>
+      </c>
+      <c r="AJ13">
+        <f>Hoja1!AJ14</f>
+        <v>89</v>
+      </c>
+      <c r="AK13">
+        <f>Hoja1!AK14</f>
+        <v>99</v>
+      </c>
+      <c r="AL13">
+        <f>Hoja1!AL14</f>
+        <v>104</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -6061,8 +6367,32 @@
         <f>Hoja1!AF15</f>
         <v>151</v>
       </c>
+      <c r="AG14">
+        <f>Hoja1!AG15</f>
+        <v>181</v>
+      </c>
+      <c r="AH14">
+        <f>Hoja1!AH15</f>
+        <v>203</v>
+      </c>
+      <c r="AI14">
+        <f>Hoja1!AI15</f>
+        <v>234</v>
+      </c>
+      <c r="AJ14">
+        <f>Hoja1!AJ15</f>
+        <v>259</v>
+      </c>
+      <c r="AK14">
+        <f>Hoja1!AK15</f>
+        <v>276</v>
+      </c>
+      <c r="AL14">
+        <f>Hoja1!AL15</f>
+        <v>286</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6188,8 +6518,32 @@
         <f>Hoja1!AF16</f>
         <v>2</v>
       </c>
+      <c r="AG15">
+        <f>Hoja1!AG16</f>
+        <v>3</v>
+      </c>
+      <c r="AH15">
+        <f>Hoja1!AH16</f>
+        <v>5</v>
+      </c>
+      <c r="AI15">
+        <f>Hoja1!AI16</f>
+        <v>6</v>
+      </c>
+      <c r="AJ15">
+        <f>Hoja1!AJ16</f>
+        <v>6</v>
+      </c>
+      <c r="AK15">
+        <f>Hoja1!AK16</f>
+        <v>7</v>
+      </c>
+      <c r="AL15">
+        <f>Hoja1!AL16</f>
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -6314,6 +6668,30 @@
       <c r="AF16">
         <f>Hoja1!AF17</f>
         <v>63</v>
+      </c>
+      <c r="AG16">
+        <f>Hoja1!AG17</f>
+        <v>99</v>
+      </c>
+      <c r="AH16">
+        <f>Hoja1!AH17</f>
+        <v>114</v>
+      </c>
+      <c r="AI16">
+        <f>Hoja1!AI17</f>
+        <v>156</v>
+      </c>
+      <c r="AJ16">
+        <f>Hoja1!AJ17</f>
+        <v>172</v>
+      </c>
+      <c r="AK16">
+        <f>Hoja1!AK17</f>
+        <v>190</v>
+      </c>
+      <c r="AL16">
+        <f>Hoja1!AL17</f>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6323,10 +6701,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF17"/>
+  <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AM7" sqref="AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6334,7 +6712,7 @@
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>Hoja1!A1</f>
         <v>region_title</v>
@@ -6463,8 +6841,32 @@
         <f>Hoja1!AF1</f>
         <v>43921</v>
       </c>
+      <c r="AG1" s="2">
+        <f>Hoja1!AG1</f>
+        <v>43922</v>
+      </c>
+      <c r="AH1" s="2">
+        <f>Hoja1!AH1</f>
+        <v>43923</v>
+      </c>
+      <c r="AI1" s="2">
+        <f>Hoja1!AI1</f>
+        <v>43924</v>
+      </c>
+      <c r="AJ1" s="2">
+        <f>Hoja1!AJ1</f>
+        <v>43925</v>
+      </c>
+      <c r="AK1" s="2">
+        <f>Hoja1!AK1</f>
+        <v>43926</v>
+      </c>
+      <c r="AL1" s="2">
+        <f>Hoja1!AL1</f>
+        <v>43927</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>Hoja1!A2</f>
         <v>Arica y Parinacota</v>
@@ -6593,8 +6995,32 @@
         <f>Hoja1!AF2</f>
         <v>6</v>
       </c>
+      <c r="AG2">
+        <f>Hoja1!AG2</f>
+        <v>6</v>
+      </c>
+      <c r="AH2">
+        <f>Hoja1!AH2</f>
+        <v>7</v>
+      </c>
+      <c r="AI2">
+        <f>Hoja1!AI2</f>
+        <v>12</v>
+      </c>
+      <c r="AJ2">
+        <f>Hoja1!AJ2</f>
+        <v>12</v>
+      </c>
+      <c r="AK2">
+        <f>Hoja1!AK2</f>
+        <v>28</v>
+      </c>
+      <c r="AL2">
+        <f>Hoja1!AL2</f>
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>Hoja1!A3</f>
         <v>Tarapacá</v>
@@ -6723,8 +7149,32 @@
         <f>Hoja1!AF3</f>
         <v>10</v>
       </c>
+      <c r="AG3">
+        <f>Hoja1!AG3</f>
+        <v>10</v>
+      </c>
+      <c r="AH3">
+        <f>Hoja1!AH3</f>
+        <v>12</v>
+      </c>
+      <c r="AI3">
+        <f>Hoja1!AI3</f>
+        <v>13</v>
+      </c>
+      <c r="AJ3">
+        <f>Hoja1!AJ3</f>
+        <v>17</v>
+      </c>
+      <c r="AK3">
+        <f>Hoja1!AK3</f>
+        <v>20</v>
+      </c>
+      <c r="AL3">
+        <f>Hoja1!AL3</f>
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>Hoja1!A4</f>
         <v>Antofagasta</v>
@@ -6853,8 +7303,32 @@
         <f>Hoja1!AF4</f>
         <v>35</v>
       </c>
+      <c r="AG4">
+        <f>Hoja1!AG4</f>
+        <v>39</v>
+      </c>
+      <c r="AH4">
+        <f>Hoja1!AH4</f>
+        <v>47</v>
+      </c>
+      <c r="AI4">
+        <f>Hoja1!AI4</f>
+        <v>54</v>
+      </c>
+      <c r="AJ4">
+        <f>Hoja1!AJ4</f>
+        <v>55</v>
+      </c>
+      <c r="AK4">
+        <f>Hoja1!AK4</f>
+        <v>60</v>
+      </c>
+      <c r="AL4">
+        <f>Hoja1!AL4</f>
+        <v>68</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>Hoja1!A5</f>
         <v>Atacama</v>
@@ -6983,8 +7457,32 @@
         <f>Hoja1!AF5</f>
         <v>2</v>
       </c>
+      <c r="AG5">
+        <f>Hoja1!AG5</f>
+        <v>3</v>
+      </c>
+      <c r="AH5">
+        <f>Hoja1!AH5</f>
+        <v>3</v>
+      </c>
+      <c r="AI5">
+        <f>Hoja1!AI5</f>
+        <v>5</v>
+      </c>
+      <c r="AJ5">
+        <f>Hoja1!AJ5</f>
+        <v>5</v>
+      </c>
+      <c r="AK5">
+        <f>Hoja1!AK5</f>
+        <v>5</v>
+      </c>
+      <c r="AL5">
+        <f>Hoja1!AL5</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>Hoja1!A6</f>
         <v>Coquimbo</v>
@@ -7113,8 +7611,32 @@
         <f>Hoja1!AF6</f>
         <v>28</v>
       </c>
+      <c r="AG6">
+        <f>Hoja1!AG6</f>
+        <v>30</v>
+      </c>
+      <c r="AH6">
+        <f>Hoja1!AH6</f>
+        <v>34</v>
+      </c>
+      <c r="AI6">
+        <f>Hoja1!AI6</f>
+        <v>35</v>
+      </c>
+      <c r="AJ6">
+        <f>Hoja1!AJ6</f>
+        <v>44</v>
+      </c>
+      <c r="AK6">
+        <f>Hoja1!AK6</f>
+        <v>50</v>
+      </c>
+      <c r="AL6">
+        <f>Hoja1!AL6</f>
+        <v>51</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>Hoja1!A7</f>
         <v>Valparaíso</v>
@@ -7243,8 +7765,32 @@
         <f>Hoja1!AF7</f>
         <v>115</v>
       </c>
+      <c r="AG7">
+        <f>Hoja1!AG7</f>
+        <v>136</v>
+      </c>
+      <c r="AH7">
+        <f>Hoja1!AH7</f>
+        <v>156</v>
+      </c>
+      <c r="AI7">
+        <f>Hoja1!AI7</f>
+        <v>176</v>
+      </c>
+      <c r="AJ7">
+        <f>Hoja1!AJ7</f>
+        <v>185</v>
+      </c>
+      <c r="AK7">
+        <f>Hoja1!AK7</f>
+        <v>191</v>
+      </c>
+      <c r="AL7">
+        <f>Hoja1!AL7</f>
+        <v>198</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>Hoja1!A8</f>
         <v>Metropolitana</v>
@@ -7373,8 +7919,32 @@
         <f>Hoja1!AF8</f>
         <v>1420</v>
       </c>
+      <c r="AG8">
+        <f>Hoja1!AG8</f>
+        <v>1521</v>
+      </c>
+      <c r="AH8">
+        <f>Hoja1!AH8</f>
+        <v>1636</v>
+      </c>
+      <c r="AI8">
+        <f>Hoja1!AI8</f>
+        <v>1742</v>
+      </c>
+      <c r="AJ8">
+        <f>Hoja1!AJ8</f>
+        <v>1957</v>
+      </c>
+      <c r="AK8">
+        <f>Hoja1!AK8</f>
+        <v>2102</v>
+      </c>
+      <c r="AL8">
+        <f>Hoja1!AL8</f>
+        <v>2244</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>Hoja1!A9</f>
         <v>O'Higgins</v>
@@ -7503,8 +8073,32 @@
         <f>Hoja1!AF9</f>
         <v>23</v>
       </c>
+      <c r="AG9">
+        <f>Hoja1!AG9</f>
+        <v>26</v>
+      </c>
+      <c r="AH9">
+        <f>Hoja1!AH9</f>
+        <v>32</v>
+      </c>
+      <c r="AI9">
+        <f>Hoja1!AI9</f>
+        <v>33</v>
+      </c>
+      <c r="AJ9">
+        <f>Hoja1!AJ9</f>
+        <v>38</v>
+      </c>
+      <c r="AK9">
+        <f>Hoja1!AK9</f>
+        <v>41</v>
+      </c>
+      <c r="AL9">
+        <f>Hoja1!AL9</f>
+        <v>42</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>Hoja1!A10</f>
         <v>Maule</v>
@@ -7633,8 +8227,32 @@
         <f>Hoja1!AF10</f>
         <v>62</v>
       </c>
+      <c r="AG10">
+        <f>Hoja1!AG10</f>
+        <v>71</v>
+      </c>
+      <c r="AH10">
+        <f>Hoja1!AH10</f>
+        <v>82</v>
+      </c>
+      <c r="AI10">
+        <f>Hoja1!AI10</f>
+        <v>89</v>
+      </c>
+      <c r="AJ10">
+        <f>Hoja1!AJ10</f>
+        <v>97</v>
+      </c>
+      <c r="AK10">
+        <f>Hoja1!AK10</f>
+        <v>103</v>
+      </c>
+      <c r="AL10">
+        <f>Hoja1!AL10</f>
+        <v>108</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>Hoja1!A11</f>
         <v>Ñuble</v>
@@ -7763,8 +8381,32 @@
         <f>Hoja1!AF11</f>
         <v>245</v>
       </c>
+      <c r="AG11">
+        <f>Hoja1!AG11</f>
+        <v>259</v>
+      </c>
+      <c r="AH11">
+        <f>Hoja1!AH11</f>
+        <v>341</v>
+      </c>
+      <c r="AI11">
+        <f>Hoja1!AI11</f>
+        <v>370</v>
+      </c>
+      <c r="AJ11">
+        <f>Hoja1!AJ11</f>
+        <v>401</v>
+      </c>
+      <c r="AK11">
+        <f>Hoja1!AK11</f>
+        <v>425</v>
+      </c>
+      <c r="AL11">
+        <f>Hoja1!AL11</f>
+        <v>474</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>Hoja1!A12</f>
         <v>Biobío</v>
@@ -7893,8 +8535,32 @@
         <f>Hoja1!AF12</f>
         <v>216</v>
       </c>
+      <c r="AG12">
+        <f>Hoja1!AG12</f>
+        <v>240</v>
+      </c>
+      <c r="AH12">
+        <f>Hoja1!AH12</f>
+        <v>275</v>
+      </c>
+      <c r="AI12">
+        <f>Hoja1!AI12</f>
+        <v>302</v>
+      </c>
+      <c r="AJ12">
+        <f>Hoja1!AJ12</f>
+        <v>347</v>
+      </c>
+      <c r="AK12">
+        <f>Hoja1!AK12</f>
+        <v>365</v>
+      </c>
+      <c r="AL12">
+        <f>Hoja1!AL12</f>
+        <v>383</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>Hoja1!A13</f>
         <v>Araucanía</v>
@@ -8023,8 +8689,32 @@
         <f>Hoja1!AF13</f>
         <v>302</v>
       </c>
+      <c r="AG13">
+        <f>Hoja1!AG13</f>
+        <v>343</v>
+      </c>
+      <c r="AH13">
+        <f>Hoja1!AH13</f>
+        <v>389</v>
+      </c>
+      <c r="AI13">
+        <f>Hoja1!AI13</f>
+        <v>432</v>
+      </c>
+      <c r="AJ13">
+        <f>Hoja1!AJ13</f>
+        <v>477</v>
+      </c>
+      <c r="AK13">
+        <f>Hoja1!AK13</f>
+        <v>509</v>
+      </c>
+      <c r="AL13">
+        <f>Hoja1!AL13</f>
+        <v>562</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>Hoja1!A14</f>
         <v>Los Ríos</v>
@@ -8153,8 +8843,32 @@
         <f>Hoja1!AF14</f>
         <v>58</v>
       </c>
+      <c r="AG14">
+        <f>Hoja1!AG14</f>
+        <v>64</v>
+      </c>
+      <c r="AH14">
+        <f>Hoja1!AH14</f>
+        <v>68</v>
+      </c>
+      <c r="AI14">
+        <f>Hoja1!AI14</f>
+        <v>78</v>
+      </c>
+      <c r="AJ14">
+        <f>Hoja1!AJ14</f>
+        <v>89</v>
+      </c>
+      <c r="AK14">
+        <f>Hoja1!AK14</f>
+        <v>99</v>
+      </c>
+      <c r="AL14">
+        <f>Hoja1!AL14</f>
+        <v>104</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>Hoja1!A15</f>
         <v>Los Lagos</v>
@@ -8283,8 +8997,32 @@
         <f>Hoja1!AF15</f>
         <v>151</v>
       </c>
+      <c r="AG15">
+        <f>Hoja1!AG15</f>
+        <v>181</v>
+      </c>
+      <c r="AH15">
+        <f>Hoja1!AH15</f>
+        <v>203</v>
+      </c>
+      <c r="AI15">
+        <f>Hoja1!AI15</f>
+        <v>234</v>
+      </c>
+      <c r="AJ15">
+        <f>Hoja1!AJ15</f>
+        <v>259</v>
+      </c>
+      <c r="AK15">
+        <f>Hoja1!AK15</f>
+        <v>276</v>
+      </c>
+      <c r="AL15">
+        <f>Hoja1!AL15</f>
+        <v>286</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>Hoja1!A16</f>
         <v>Aysén</v>
@@ -8413,8 +9151,32 @@
         <f>Hoja1!AF16</f>
         <v>2</v>
       </c>
+      <c r="AG16">
+        <f>Hoja1!AG16</f>
+        <v>3</v>
+      </c>
+      <c r="AH16">
+        <f>Hoja1!AH16</f>
+        <v>5</v>
+      </c>
+      <c r="AI16">
+        <f>Hoja1!AI16</f>
+        <v>6</v>
+      </c>
+      <c r="AJ16">
+        <f>Hoja1!AJ16</f>
+        <v>6</v>
+      </c>
+      <c r="AK16">
+        <f>Hoja1!AK16</f>
+        <v>7</v>
+      </c>
+      <c r="AL16">
+        <f>Hoja1!AL16</f>
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>Hoja1!A17</f>
         <v>Magallanes</v>
@@ -8542,6 +9304,30 @@
       <c r="AF17">
         <f>Hoja1!AF17</f>
         <v>63</v>
+      </c>
+      <c r="AG17">
+        <f>Hoja1!AG17</f>
+        <v>99</v>
+      </c>
+      <c r="AH17">
+        <f>Hoja1!AH17</f>
+        <v>114</v>
+      </c>
+      <c r="AI17">
+        <f>Hoja1!AI17</f>
+        <v>156</v>
+      </c>
+      <c r="AJ17">
+        <f>Hoja1!AJ17</f>
+        <v>172</v>
+      </c>
+      <c r="AK17">
+        <f>Hoja1!AK17</f>
+        <v>190</v>
+      </c>
+      <c r="AL17">
+        <f>Hoja1!AL17</f>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/data/Infectados Covid Chile.xlsx
+++ b/data/Infectados Covid Chile.xlsx
@@ -2162,11 +2162,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:BN18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM13" sqref="AM13"/>
+      <pane xSplit="2" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BN22" sqref="BN22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2177,7 +2177,7 @@
     <col min="4" max="24" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -2292,8 +2292,92 @@
       <c r="AL1" s="2">
         <v>43927</v>
       </c>
+      <c r="AM1" s="2">
+        <v>43928</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>43929</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>43930</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>43931</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>43932</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>43933</v>
+      </c>
+      <c r="AS1" s="2">
+        <v>43934</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>43935</v>
+      </c>
+      <c r="AU1" s="2">
+        <v>43936</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>43937</v>
+      </c>
+      <c r="AW1" s="2">
+        <v>43938</v>
+      </c>
+      <c r="AX1" s="2">
+        <v>43939</v>
+      </c>
+      <c r="AY1" s="2">
+        <v>43940</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>43941</v>
+      </c>
+      <c r="BA1" s="2">
+        <v>43942</v>
+      </c>
+      <c r="BB1" s="2">
+        <v>43943</v>
+      </c>
+      <c r="BC1" s="2">
+        <v>43944</v>
+      </c>
+      <c r="BD1" s="2">
+        <v>43945</v>
+      </c>
+      <c r="BE1" s="2">
+        <v>43946</v>
+      </c>
+      <c r="BF1" s="2">
+        <v>43947</v>
+      </c>
+      <c r="BG1" s="2">
+        <v>43948</v>
+      </c>
+      <c r="BH1" s="2">
+        <v>43949</v>
+      </c>
+      <c r="BI1" s="2">
+        <v>43950</v>
+      </c>
+      <c r="BJ1" s="2">
+        <v>43951</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>43952</v>
+      </c>
+      <c r="BL1" s="2">
+        <v>43953</v>
+      </c>
+      <c r="BM1" s="2">
+        <v>43954</v>
+      </c>
+      <c r="BN1" s="2">
+        <v>43955</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2408,8 +2492,92 @@
       <c r="AL2">
         <v>41</v>
       </c>
+      <c r="AM2">
+        <v>53</v>
+      </c>
+      <c r="AN2">
+        <v>63</v>
+      </c>
+      <c r="AO2">
+        <v>75</v>
+      </c>
+      <c r="AP2">
+        <v>87</v>
+      </c>
+      <c r="AQ2">
+        <v>107</v>
+      </c>
+      <c r="AR2">
+        <v>115</v>
+      </c>
+      <c r="AS2">
+        <v>115</v>
+      </c>
+      <c r="AT2">
+        <v>120</v>
+      </c>
+      <c r="AU2">
+        <v>124</v>
+      </c>
+      <c r="AV2">
+        <v>129</v>
+      </c>
+      <c r="AW2">
+        <v>134</v>
+      </c>
+      <c r="AX2">
+        <v>142</v>
+      </c>
+      <c r="AY2">
+        <v>145</v>
+      </c>
+      <c r="AZ2">
+        <v>161</v>
+      </c>
+      <c r="BA2">
+        <v>170</v>
+      </c>
+      <c r="BB2">
+        <v>180</v>
+      </c>
+      <c r="BC2">
+        <v>210</v>
+      </c>
+      <c r="BD2">
+        <v>239</v>
+      </c>
+      <c r="BE2">
+        <v>245</v>
+      </c>
+      <c r="BF2">
+        <v>252</v>
+      </c>
+      <c r="BG2">
+        <v>265</v>
+      </c>
+      <c r="BH2">
+        <v>268</v>
+      </c>
+      <c r="BI2">
+        <v>272</v>
+      </c>
+      <c r="BJ2">
+        <v>279</v>
+      </c>
+      <c r="BK2">
+        <v>297</v>
+      </c>
+      <c r="BL2">
+        <v>307</v>
+      </c>
+      <c r="BM2">
+        <v>308</v>
+      </c>
+      <c r="BN2">
+        <v>308</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2524,8 +2692,92 @@
       <c r="AL3">
         <v>21</v>
       </c>
+      <c r="AM3">
+        <v>23</v>
+      </c>
+      <c r="AN3">
+        <v>26</v>
+      </c>
+      <c r="AO3">
+        <v>29</v>
+      </c>
+      <c r="AP3">
+        <v>35</v>
+      </c>
+      <c r="AQ3">
+        <v>38</v>
+      </c>
+      <c r="AR3">
+        <v>46</v>
+      </c>
+      <c r="AS3">
+        <v>52</v>
+      </c>
+      <c r="AT3">
+        <v>62</v>
+      </c>
+      <c r="AU3">
+        <v>62</v>
+      </c>
+      <c r="AV3">
+        <v>66</v>
+      </c>
+      <c r="AW3">
+        <v>73</v>
+      </c>
+      <c r="AX3">
+        <v>81</v>
+      </c>
+      <c r="AY3">
+        <v>90</v>
+      </c>
+      <c r="AZ3">
+        <v>93</v>
+      </c>
+      <c r="BA3">
+        <v>104</v>
+      </c>
+      <c r="BB3">
+        <v>114</v>
+      </c>
+      <c r="BC3">
+        <v>128</v>
+      </c>
+      <c r="BD3">
+        <v>134</v>
+      </c>
+      <c r="BE3">
+        <v>143</v>
+      </c>
+      <c r="BF3">
+        <v>156</v>
+      </c>
+      <c r="BG3">
+        <v>164</v>
+      </c>
+      <c r="BH3">
+        <v>169</v>
+      </c>
+      <c r="BI3">
+        <v>183</v>
+      </c>
+      <c r="BJ3">
+        <v>198</v>
+      </c>
+      <c r="BK3">
+        <v>200</v>
+      </c>
+      <c r="BL3">
+        <v>212</v>
+      </c>
+      <c r="BM3">
+        <v>272</v>
+      </c>
+      <c r="BN3">
+        <v>295</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2640,8 +2892,92 @@
       <c r="AL4">
         <v>68</v>
       </c>
+      <c r="AM4">
+        <v>69</v>
+      </c>
+      <c r="AN4">
+        <v>77</v>
+      </c>
+      <c r="AO4">
+        <v>92</v>
+      </c>
+      <c r="AP4">
+        <v>110</v>
+      </c>
+      <c r="AQ4">
+        <v>117</v>
+      </c>
+      <c r="AR4">
+        <v>138</v>
+      </c>
+      <c r="AS4">
+        <v>149</v>
+      </c>
+      <c r="AT4">
+        <v>155</v>
+      </c>
+      <c r="AU4">
+        <v>176</v>
+      </c>
+      <c r="AV4">
+        <v>192</v>
+      </c>
+      <c r="AW4">
+        <v>211</v>
+      </c>
+      <c r="AX4">
+        <v>226</v>
+      </c>
+      <c r="AY4">
+        <v>249</v>
+      </c>
+      <c r="AZ4">
+        <v>263</v>
+      </c>
+      <c r="BA4">
+        <v>291</v>
+      </c>
+      <c r="BB4">
+        <v>326</v>
+      </c>
+      <c r="BC4">
+        <v>340</v>
+      </c>
+      <c r="BD4">
+        <v>366</v>
+      </c>
+      <c r="BE4">
+        <v>391</v>
+      </c>
+      <c r="BF4">
+        <v>443</v>
+      </c>
+      <c r="BG4">
+        <v>457</v>
+      </c>
+      <c r="BH4">
+        <v>481</v>
+      </c>
+      <c r="BI4">
+        <v>514</v>
+      </c>
+      <c r="BJ4">
+        <v>546</v>
+      </c>
+      <c r="BK4">
+        <v>589</v>
+      </c>
+      <c r="BL4">
+        <v>679</v>
+      </c>
+      <c r="BM4">
+        <v>740</v>
+      </c>
+      <c r="BN4">
+        <v>760</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2756,8 +3092,92 @@
       <c r="AL5">
         <v>5</v>
       </c>
+      <c r="AM5">
+        <v>6</v>
+      </c>
+      <c r="AN5">
+        <v>8</v>
+      </c>
+      <c r="AO5">
+        <v>10</v>
+      </c>
+      <c r="AP5">
+        <v>13</v>
+      </c>
+      <c r="AQ5">
+        <v>13</v>
+      </c>
+      <c r="AR5">
+        <v>13</v>
+      </c>
+      <c r="AS5">
+        <v>13</v>
+      </c>
+      <c r="AT5">
+        <v>13</v>
+      </c>
+      <c r="AU5">
+        <v>13</v>
+      </c>
+      <c r="AV5">
+        <v>13</v>
+      </c>
+      <c r="AW5">
+        <v>13</v>
+      </c>
+      <c r="AX5">
+        <v>13</v>
+      </c>
+      <c r="AY5">
+        <v>13</v>
+      </c>
+      <c r="AZ5">
+        <v>13</v>
+      </c>
+      <c r="BA5">
+        <v>13</v>
+      </c>
+      <c r="BB5">
+        <v>13</v>
+      </c>
+      <c r="BC5">
+        <v>18</v>
+      </c>
+      <c r="BD5">
+        <v>21</v>
+      </c>
+      <c r="BE5">
+        <v>24</v>
+      </c>
+      <c r="BF5">
+        <v>29</v>
+      </c>
+      <c r="BG5">
+        <v>35</v>
+      </c>
+      <c r="BH5">
+        <v>35</v>
+      </c>
+      <c r="BI5">
+        <v>42</v>
+      </c>
+      <c r="BJ5">
+        <v>43</v>
+      </c>
+      <c r="BK5">
+        <v>43</v>
+      </c>
+      <c r="BL5">
+        <v>59</v>
+      </c>
+      <c r="BM5">
+        <v>67</v>
+      </c>
+      <c r="BN5">
+        <v>70</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2872,8 +3292,92 @@
       <c r="AL6">
         <v>51</v>
       </c>
+      <c r="AM6">
+        <v>52</v>
+      </c>
+      <c r="AN6">
+        <v>56</v>
+      </c>
+      <c r="AO6">
+        <v>61</v>
+      </c>
+      <c r="AP6">
+        <v>61</v>
+      </c>
+      <c r="AQ6">
+        <v>64</v>
+      </c>
+      <c r="AR6">
+        <v>66</v>
+      </c>
+      <c r="AS6">
+        <v>66</v>
+      </c>
+      <c r="AT6">
+        <v>66</v>
+      </c>
+      <c r="AU6">
+        <v>66</v>
+      </c>
+      <c r="AV6">
+        <v>68</v>
+      </c>
+      <c r="AW6">
+        <v>68</v>
+      </c>
+      <c r="AX6">
+        <v>68</v>
+      </c>
+      <c r="AY6">
+        <v>68</v>
+      </c>
+      <c r="AZ6">
+        <v>69</v>
+      </c>
+      <c r="BA6">
+        <v>69</v>
+      </c>
+      <c r="BB6">
+        <v>70</v>
+      </c>
+      <c r="BC6">
+        <v>70</v>
+      </c>
+      <c r="BD6">
+        <v>72</v>
+      </c>
+      <c r="BE6">
+        <v>73</v>
+      </c>
+      <c r="BF6">
+        <v>73</v>
+      </c>
+      <c r="BG6">
+        <v>74</v>
+      </c>
+      <c r="BH6">
+        <v>74</v>
+      </c>
+      <c r="BI6">
+        <v>76</v>
+      </c>
+      <c r="BJ6">
+        <v>76</v>
+      </c>
+      <c r="BK6">
+        <v>77</v>
+      </c>
+      <c r="BL6">
+        <v>78</v>
+      </c>
+      <c r="BM6">
+        <v>88</v>
+      </c>
+      <c r="BN6">
+        <v>91</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2988,8 +3492,92 @@
       <c r="AL7">
         <v>198</v>
       </c>
+      <c r="AM7">
+        <v>214</v>
+      </c>
+      <c r="AN7">
+        <v>225</v>
+      </c>
+      <c r="AO7">
+        <v>230</v>
+      </c>
+      <c r="AP7">
+        <v>241</v>
+      </c>
+      <c r="AQ7">
+        <v>248</v>
+      </c>
+      <c r="AR7">
+        <v>254</v>
+      </c>
+      <c r="AS7">
+        <v>273</v>
+      </c>
+      <c r="AT7">
+        <v>285</v>
+      </c>
+      <c r="AU7">
+        <v>299</v>
+      </c>
+      <c r="AV7">
+        <v>330</v>
+      </c>
+      <c r="AW7">
+        <v>345</v>
+      </c>
+      <c r="AX7">
+        <v>359</v>
+      </c>
+      <c r="AY7">
+        <v>381</v>
+      </c>
+      <c r="AZ7">
+        <v>388</v>
+      </c>
+      <c r="BA7">
+        <v>403</v>
+      </c>
+      <c r="BB7">
+        <v>421</v>
+      </c>
+      <c r="BC7">
+        <v>429</v>
+      </c>
+      <c r="BD7">
+        <v>436</v>
+      </c>
+      <c r="BE7">
+        <v>454</v>
+      </c>
+      <c r="BF7">
+        <v>460</v>
+      </c>
+      <c r="BG7">
+        <v>485</v>
+      </c>
+      <c r="BH7">
+        <v>493</v>
+      </c>
+      <c r="BI7">
+        <v>526</v>
+      </c>
+      <c r="BJ7">
+        <v>559</v>
+      </c>
+      <c r="BK7">
+        <v>568</v>
+      </c>
+      <c r="BL7">
+        <v>614</v>
+      </c>
+      <c r="BM7">
+        <v>638</v>
+      </c>
+      <c r="BN7">
+        <v>656</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3104,8 +3692,92 @@
       <c r="AL8">
         <v>2244</v>
       </c>
+      <c r="AM8">
+        <v>2350</v>
+      </c>
+      <c r="AN8">
+        <v>2548</v>
+      </c>
+      <c r="AO8">
+        <v>2832</v>
+      </c>
+      <c r="AP8">
+        <v>3193</v>
+      </c>
+      <c r="AQ8">
+        <v>3448</v>
+      </c>
+      <c r="AR8">
+        <v>3599</v>
+      </c>
+      <c r="AS8">
+        <v>3803</v>
+      </c>
+      <c r="AT8">
+        <v>4086</v>
+      </c>
+      <c r="AU8">
+        <v>4334</v>
+      </c>
+      <c r="AV8">
+        <v>4682</v>
+      </c>
+      <c r="AW8">
+        <v>4915</v>
+      </c>
+      <c r="AX8">
+        <v>5192</v>
+      </c>
+      <c r="AY8">
+        <v>5381</v>
+      </c>
+      <c r="AZ8">
+        <v>5643</v>
+      </c>
+      <c r="BA8">
+        <v>5788</v>
+      </c>
+      <c r="BB8">
+        <v>6083</v>
+      </c>
+      <c r="BC8">
+        <v>6434</v>
+      </c>
+      <c r="BD8">
+        <v>6761</v>
+      </c>
+      <c r="BE8">
+        <v>7165</v>
+      </c>
+      <c r="BF8">
+        <v>7496</v>
+      </c>
+      <c r="BG8">
+        <v>7858</v>
+      </c>
+      <c r="BH8">
+        <v>8300</v>
+      </c>
+      <c r="BI8">
+        <v>8889</v>
+      </c>
+      <c r="BJ8">
+        <v>9625</v>
+      </c>
+      <c r="BK8">
+        <v>10516</v>
+      </c>
+      <c r="BL8">
+        <v>11661</v>
+      </c>
+      <c r="BM8">
+        <v>12656</v>
+      </c>
+      <c r="BN8">
+        <v>13528</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3220,8 +3892,92 @@
       <c r="AL9">
         <v>42</v>
       </c>
+      <c r="AM9">
+        <v>42</v>
+      </c>
+      <c r="AN9">
+        <v>43</v>
+      </c>
+      <c r="AO9">
+        <v>44</v>
+      </c>
+      <c r="AP9">
+        <v>44</v>
+      </c>
+      <c r="AQ9">
+        <v>45</v>
+      </c>
+      <c r="AR9">
+        <v>46</v>
+      </c>
+      <c r="AS9">
+        <v>48</v>
+      </c>
+      <c r="AT9">
+        <v>53</v>
+      </c>
+      <c r="AU9">
+        <v>54</v>
+      </c>
+      <c r="AV9">
+        <v>54</v>
+      </c>
+      <c r="AW9">
+        <v>55</v>
+      </c>
+      <c r="AX9">
+        <v>55</v>
+      </c>
+      <c r="AY9">
+        <v>55</v>
+      </c>
+      <c r="AZ9">
+        <v>56</v>
+      </c>
+      <c r="BA9">
+        <v>57</v>
+      </c>
+      <c r="BB9">
+        <v>59</v>
+      </c>
+      <c r="BC9">
+        <v>76</v>
+      </c>
+      <c r="BD9">
+        <v>81</v>
+      </c>
+      <c r="BE9">
+        <v>85</v>
+      </c>
+      <c r="BF9">
+        <v>92</v>
+      </c>
+      <c r="BG9">
+        <v>94</v>
+      </c>
+      <c r="BH9">
+        <v>97</v>
+      </c>
+      <c r="BI9">
+        <v>104</v>
+      </c>
+      <c r="BJ9">
+        <v>108</v>
+      </c>
+      <c r="BK9">
+        <v>109</v>
+      </c>
+      <c r="BL9">
+        <v>120</v>
+      </c>
+      <c r="BM9">
+        <v>125</v>
+      </c>
+      <c r="BN9">
+        <v>131</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3336,8 +4092,92 @@
       <c r="AL10">
         <v>108</v>
       </c>
+      <c r="AM10">
+        <v>108</v>
+      </c>
+      <c r="AN10">
+        <v>119</v>
+      </c>
+      <c r="AO10">
+        <v>128</v>
+      </c>
+      <c r="AP10">
+        <v>131</v>
+      </c>
+      <c r="AQ10">
+        <v>134</v>
+      </c>
+      <c r="AR10">
+        <v>138</v>
+      </c>
+      <c r="AS10">
+        <v>141</v>
+      </c>
+      <c r="AT10">
+        <v>142</v>
+      </c>
+      <c r="AU10">
+        <v>152</v>
+      </c>
+      <c r="AV10">
+        <v>167</v>
+      </c>
+      <c r="AW10">
+        <v>223</v>
+      </c>
+      <c r="AX10">
+        <v>276</v>
+      </c>
+      <c r="AY10">
+        <v>302</v>
+      </c>
+      <c r="AZ10">
+        <v>304</v>
+      </c>
+      <c r="BA10">
+        <v>316</v>
+      </c>
+      <c r="BB10">
+        <v>328</v>
+      </c>
+      <c r="BC10">
+        <v>333</v>
+      </c>
+      <c r="BD10">
+        <v>349</v>
+      </c>
+      <c r="BE10">
+        <v>350</v>
+      </c>
+      <c r="BF10">
+        <v>354</v>
+      </c>
+      <c r="BG10">
+        <v>363</v>
+      </c>
+      <c r="BH10">
+        <v>384</v>
+      </c>
+      <c r="BI10">
+        <v>392</v>
+      </c>
+      <c r="BJ10">
+        <v>393</v>
+      </c>
+      <c r="BK10">
+        <v>394</v>
+      </c>
+      <c r="BL10">
+        <v>396</v>
+      </c>
+      <c r="BM10">
+        <v>397</v>
+      </c>
+      <c r="BN10">
+        <v>399</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3452,8 +4292,92 @@
       <c r="AL11">
         <v>474</v>
       </c>
+      <c r="AM11">
+        <v>522</v>
+      </c>
+      <c r="AN11">
+        <v>561</v>
+      </c>
+      <c r="AO11">
+        <v>571</v>
+      </c>
+      <c r="AP11">
+        <v>589</v>
+      </c>
+      <c r="AQ11">
+        <v>606</v>
+      </c>
+      <c r="AR11">
+        <v>613</v>
+      </c>
+      <c r="AS11">
+        <v>618</v>
+      </c>
+      <c r="AT11">
+        <v>622</v>
+      </c>
+      <c r="AU11">
+        <v>634</v>
+      </c>
+      <c r="AV11">
+        <v>639</v>
+      </c>
+      <c r="AW11">
+        <v>656</v>
+      </c>
+      <c r="AX11">
+        <v>667</v>
+      </c>
+      <c r="AY11">
+        <v>678</v>
+      </c>
+      <c r="AZ11">
+        <v>687</v>
+      </c>
+      <c r="BA11">
+        <v>694</v>
+      </c>
+      <c r="BB11">
+        <v>703</v>
+      </c>
+      <c r="BC11">
+        <v>708</v>
+      </c>
+      <c r="BD11">
+        <v>715</v>
+      </c>
+      <c r="BE11">
+        <v>725</v>
+      </c>
+      <c r="BF11">
+        <v>731</v>
+      </c>
+      <c r="BG11">
+        <v>741</v>
+      </c>
+      <c r="BH11">
+        <v>747</v>
+      </c>
+      <c r="BI11">
+        <v>761</v>
+      </c>
+      <c r="BJ11">
+        <v>768</v>
+      </c>
+      <c r="BK11">
+        <v>768</v>
+      </c>
+      <c r="BL11">
+        <v>776</v>
+      </c>
+      <c r="BM11">
+        <v>786</v>
+      </c>
+      <c r="BN11">
+        <v>787</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3568,8 +4492,92 @@
       <c r="AL12">
         <v>383</v>
       </c>
+      <c r="AM12">
+        <v>410</v>
+      </c>
+      <c r="AN12">
+        <v>439</v>
+      </c>
+      <c r="AO12">
+        <v>460</v>
+      </c>
+      <c r="AP12">
+        <v>474</v>
+      </c>
+      <c r="AQ12">
+        <v>490</v>
+      </c>
+      <c r="AR12">
+        <v>500</v>
+      </c>
+      <c r="AS12">
+        <v>512</v>
+      </c>
+      <c r="AT12">
+        <v>528</v>
+      </c>
+      <c r="AU12">
+        <v>542</v>
+      </c>
+      <c r="AV12">
+        <v>559</v>
+      </c>
+      <c r="AW12">
+        <v>578</v>
+      </c>
+      <c r="AX12">
+        <v>606</v>
+      </c>
+      <c r="AY12">
+        <v>616</v>
+      </c>
+      <c r="AZ12">
+        <v>626</v>
+      </c>
+      <c r="BA12">
+        <v>636</v>
+      </c>
+      <c r="BB12">
+        <v>658</v>
+      </c>
+      <c r="BC12">
+        <v>675</v>
+      </c>
+      <c r="BD12">
+        <v>683</v>
+      </c>
+      <c r="BE12">
+        <v>696</v>
+      </c>
+      <c r="BF12">
+        <v>703</v>
+      </c>
+      <c r="BG12">
+        <v>706</v>
+      </c>
+      <c r="BH12">
+        <v>709</v>
+      </c>
+      <c r="BI12">
+        <v>719</v>
+      </c>
+      <c r="BJ12">
+        <v>727</v>
+      </c>
+      <c r="BK12">
+        <v>729</v>
+      </c>
+      <c r="BL12">
+        <v>751</v>
+      </c>
+      <c r="BM12">
+        <v>759</v>
+      </c>
+      <c r="BN12">
+        <v>762</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3684,8 +4692,92 @@
       <c r="AL13">
         <v>562</v>
       </c>
+      <c r="AM13">
+        <v>612</v>
+      </c>
+      <c r="AN13">
+        <v>669</v>
+      </c>
+      <c r="AO13">
+        <v>689</v>
+      </c>
+      <c r="AP13">
+        <v>712</v>
+      </c>
+      <c r="AQ13">
+        <v>739</v>
+      </c>
+      <c r="AR13">
+        <v>775</v>
+      </c>
+      <c r="AS13">
+        <v>795</v>
+      </c>
+      <c r="AT13">
+        <v>816</v>
+      </c>
+      <c r="AU13">
+        <v>826</v>
+      </c>
+      <c r="AV13">
+        <v>882</v>
+      </c>
+      <c r="AW13">
+        <v>907</v>
+      </c>
+      <c r="AX13">
+        <v>944</v>
+      </c>
+      <c r="AY13">
+        <v>972</v>
+      </c>
+      <c r="AZ13">
+        <v>1045</v>
+      </c>
+      <c r="BA13">
+        <v>1092</v>
+      </c>
+      <c r="BB13">
+        <v>1113</v>
+      </c>
+      <c r="BC13">
+        <v>1142</v>
+      </c>
+      <c r="BD13">
+        <v>1184</v>
+      </c>
+      <c r="BE13">
+        <v>1203</v>
+      </c>
+      <c r="BF13">
+        <v>1216</v>
+      </c>
+      <c r="BG13">
+        <v>1236</v>
+      </c>
+      <c r="BH13">
+        <v>1251</v>
+      </c>
+      <c r="BI13">
+        <v>1273</v>
+      </c>
+      <c r="BJ13">
+        <v>1293</v>
+      </c>
+      <c r="BK13">
+        <v>1295</v>
+      </c>
+      <c r="BL13">
+        <v>1314</v>
+      </c>
+      <c r="BM13">
+        <v>1328</v>
+      </c>
+      <c r="BN13">
+        <v>1331</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3800,8 +4892,92 @@
       <c r="AL14">
         <v>104</v>
       </c>
+      <c r="AM14">
+        <v>109</v>
+      </c>
+      <c r="AN14">
+        <v>114</v>
+      </c>
+      <c r="AO14">
+        <v>118</v>
+      </c>
+      <c r="AP14">
+        <v>124</v>
+      </c>
+      <c r="AQ14">
+        <v>130</v>
+      </c>
+      <c r="AR14">
+        <v>135</v>
+      </c>
+      <c r="AS14">
+        <v>138</v>
+      </c>
+      <c r="AT14">
+        <v>148</v>
+      </c>
+      <c r="AU14">
+        <v>150</v>
+      </c>
+      <c r="AV14">
+        <v>153</v>
+      </c>
+      <c r="AW14">
+        <v>154</v>
+      </c>
+      <c r="AX14">
+        <v>156</v>
+      </c>
+      <c r="AY14">
+        <v>157</v>
+      </c>
+      <c r="AZ14">
+        <v>162</v>
+      </c>
+      <c r="BA14">
+        <v>167</v>
+      </c>
+      <c r="BB14">
+        <v>171</v>
+      </c>
+      <c r="BC14">
+        <v>173</v>
+      </c>
+      <c r="BD14">
+        <v>174</v>
+      </c>
+      <c r="BE14">
+        <v>177</v>
+      </c>
+      <c r="BF14">
+        <v>178</v>
+      </c>
+      <c r="BG14">
+        <v>180</v>
+      </c>
+      <c r="BH14">
+        <v>180</v>
+      </c>
+      <c r="BI14">
+        <v>182</v>
+      </c>
+      <c r="BJ14">
+        <v>189</v>
+      </c>
+      <c r="BK14">
+        <v>189</v>
+      </c>
+      <c r="BL14">
+        <v>196</v>
+      </c>
+      <c r="BM14">
+        <v>198</v>
+      </c>
+      <c r="BN14">
+        <v>199</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3916,8 +5092,92 @@
       <c r="AL15">
         <v>286</v>
       </c>
+      <c r="AM15">
+        <v>299</v>
+      </c>
+      <c r="AN15">
+        <v>325</v>
+      </c>
+      <c r="AO15">
+        <v>340</v>
+      </c>
+      <c r="AP15">
+        <v>349</v>
+      </c>
+      <c r="AQ15">
+        <v>364</v>
+      </c>
+      <c r="AR15">
+        <v>372</v>
+      </c>
+      <c r="AS15">
+        <v>380</v>
+      </c>
+      <c r="AT15">
+        <v>385</v>
+      </c>
+      <c r="AU15">
+        <v>390</v>
+      </c>
+      <c r="AV15">
+        <v>399</v>
+      </c>
+      <c r="AW15">
+        <v>412</v>
+      </c>
+      <c r="AX15">
+        <v>416</v>
+      </c>
+      <c r="AY15">
+        <v>421</v>
+      </c>
+      <c r="AZ15">
+        <v>424</v>
+      </c>
+      <c r="BA15">
+        <v>432</v>
+      </c>
+      <c r="BB15">
+        <v>445</v>
+      </c>
+      <c r="BC15">
+        <v>454</v>
+      </c>
+      <c r="BD15">
+        <v>460</v>
+      </c>
+      <c r="BE15">
+        <v>465</v>
+      </c>
+      <c r="BF15">
+        <v>473</v>
+      </c>
+      <c r="BG15">
+        <v>477</v>
+      </c>
+      <c r="BH15">
+        <v>477</v>
+      </c>
+      <c r="BI15">
+        <v>481</v>
+      </c>
+      <c r="BJ15">
+        <v>487</v>
+      </c>
+      <c r="BK15">
+        <v>501</v>
+      </c>
+      <c r="BL15">
+        <v>513</v>
+      </c>
+      <c r="BM15">
+        <v>517</v>
+      </c>
+      <c r="BN15">
+        <v>524</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4032,8 +5292,92 @@
       <c r="AL16">
         <v>7</v>
       </c>
+      <c r="AM16">
+        <v>7</v>
+      </c>
+      <c r="AN16">
+        <v>7</v>
+      </c>
+      <c r="AO16">
+        <v>7</v>
+      </c>
+      <c r="AP16">
+        <v>7</v>
+      </c>
+      <c r="AQ16">
+        <v>7</v>
+      </c>
+      <c r="AR16">
+        <v>7</v>
+      </c>
+      <c r="AS16">
+        <v>7</v>
+      </c>
+      <c r="AT16">
+        <v>7</v>
+      </c>
+      <c r="AU16">
+        <v>7</v>
+      </c>
+      <c r="AV16">
+        <v>7</v>
+      </c>
+      <c r="AW16">
+        <v>7</v>
+      </c>
+      <c r="AX16">
+        <v>7</v>
+      </c>
+      <c r="AY16">
+        <v>7</v>
+      </c>
+      <c r="AZ16">
+        <v>7</v>
+      </c>
+      <c r="BA16">
+        <v>7</v>
+      </c>
+      <c r="BB16">
+        <v>7</v>
+      </c>
+      <c r="BC16">
+        <v>7</v>
+      </c>
+      <c r="BD16">
+        <v>7</v>
+      </c>
+      <c r="BE16">
+        <v>7</v>
+      </c>
+      <c r="BF16">
+        <v>7</v>
+      </c>
+      <c r="BG16">
+        <v>7</v>
+      </c>
+      <c r="BH16">
+        <v>7</v>
+      </c>
+      <c r="BI16">
+        <v>7</v>
+      </c>
+      <c r="BJ16">
+        <v>7</v>
+      </c>
+      <c r="BK16">
+        <v>7</v>
+      </c>
+      <c r="BL16">
+        <v>7</v>
+      </c>
+      <c r="BM16">
+        <v>7</v>
+      </c>
+      <c r="BN16">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4148,8 +5492,92 @@
       <c r="AL17">
         <v>221</v>
       </c>
+      <c r="AM17">
+        <v>240</v>
+      </c>
+      <c r="AN17">
+        <v>266</v>
+      </c>
+      <c r="AO17">
+        <v>286</v>
+      </c>
+      <c r="AP17">
+        <v>331</v>
+      </c>
+      <c r="AQ17">
+        <v>377</v>
+      </c>
+      <c r="AR17">
+        <v>396</v>
+      </c>
+      <c r="AS17">
+        <v>415</v>
+      </c>
+      <c r="AT17">
+        <v>429</v>
+      </c>
+      <c r="AU17">
+        <v>444</v>
+      </c>
+      <c r="AV17">
+        <v>467</v>
+      </c>
+      <c r="AW17">
+        <v>501</v>
+      </c>
+      <c r="AX17">
+        <v>522</v>
+      </c>
+      <c r="AY17">
+        <v>553</v>
+      </c>
+      <c r="AZ17">
+        <v>566</v>
+      </c>
+      <c r="BA17">
+        <v>593</v>
+      </c>
+      <c r="BB17">
+        <v>605</v>
+      </c>
+      <c r="BC17">
+        <v>615</v>
+      </c>
+      <c r="BD17">
+        <v>624</v>
+      </c>
+      <c r="BE17">
+        <v>655</v>
+      </c>
+      <c r="BF17">
+        <v>668</v>
+      </c>
+      <c r="BG17">
+        <v>671</v>
+      </c>
+      <c r="BH17">
+        <v>693</v>
+      </c>
+      <c r="BI17">
+        <v>714</v>
+      </c>
+      <c r="BJ17">
+        <v>725</v>
+      </c>
+      <c r="BK17">
+        <v>726</v>
+      </c>
+      <c r="BL17">
+        <v>752</v>
+      </c>
+      <c r="BM17">
+        <v>777</v>
+      </c>
+      <c r="BN17">
+        <v>795</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
@@ -4263,7 +5691,7 @@
         <v>2139</v>
       </c>
       <c r="AE18">
-        <f t="shared" ref="AE18:AL18" si="3">SUM(AE2:AE17)</f>
+        <f t="shared" ref="AE18:BN18" si="3">SUM(AE2:AE17)</f>
         <v>2449</v>
       </c>
       <c r="AF18">
@@ -4293,6 +5721,118 @@
       <c r="AL18">
         <f t="shared" si="3"/>
         <v>4815</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="3"/>
+        <v>5116</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="3"/>
+        <v>5546</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="3"/>
+        <v>5972</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="3"/>
+        <v>6501</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="3"/>
+        <v>6927</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="3"/>
+        <v>7213</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="3"/>
+        <v>7525</v>
+      </c>
+      <c r="AT18">
+        <f t="shared" si="3"/>
+        <v>7917</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="3"/>
+        <v>8273</v>
+      </c>
+      <c r="AV18">
+        <f t="shared" si="3"/>
+        <v>8807</v>
+      </c>
+      <c r="AW18">
+        <f t="shared" si="3"/>
+        <v>9252</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="3"/>
+        <v>9730</v>
+      </c>
+      <c r="AY18">
+        <f t="shared" si="3"/>
+        <v>10088</v>
+      </c>
+      <c r="AZ18">
+        <f t="shared" si="3"/>
+        <v>10507</v>
+      </c>
+      <c r="BA18">
+        <f t="shared" si="3"/>
+        <v>10832</v>
+      </c>
+      <c r="BB18">
+        <f t="shared" si="3"/>
+        <v>11296</v>
+      </c>
+      <c r="BC18">
+        <f t="shared" si="3"/>
+        <v>11812</v>
+      </c>
+      <c r="BD18">
+        <f t="shared" si="3"/>
+        <v>12306</v>
+      </c>
+      <c r="BE18">
+        <f t="shared" si="3"/>
+        <v>12858</v>
+      </c>
+      <c r="BF18">
+        <f t="shared" si="3"/>
+        <v>13331</v>
+      </c>
+      <c r="BG18">
+        <f t="shared" si="3"/>
+        <v>13813</v>
+      </c>
+      <c r="BH18">
+        <f t="shared" si="3"/>
+        <v>14365</v>
+      </c>
+      <c r="BI18">
+        <f t="shared" si="3"/>
+        <v>15135</v>
+      </c>
+      <c r="BJ18">
+        <f t="shared" si="3"/>
+        <v>16023</v>
+      </c>
+      <c r="BK18">
+        <f t="shared" si="3"/>
+        <v>17008</v>
+      </c>
+      <c r="BL18">
+        <f t="shared" si="3"/>
+        <v>18435</v>
+      </c>
+      <c r="BM18">
+        <f t="shared" si="3"/>
+        <v>19663</v>
+      </c>
+      <c r="BN18">
+        <f t="shared" si="3"/>
+        <v>20643</v>
       </c>
     </row>
   </sheetData>
@@ -4302,10 +5842,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL16"/>
+  <dimension ref="A1:BO16"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
+    <sheetView topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BP14" sqref="BP14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4313,7 +5853,7 @@
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -4428,8 +5968,93 @@
       <c r="AL1" s="2">
         <v>43927</v>
       </c>
+      <c r="AM1" s="2">
+        <v>43928</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>43929</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>43930</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>43931</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>43932</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>43933</v>
+      </c>
+      <c r="AS1" s="2">
+        <v>43934</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>43935</v>
+      </c>
+      <c r="AU1" s="2">
+        <v>43936</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>43937</v>
+      </c>
+      <c r="AW1" s="2">
+        <v>43938</v>
+      </c>
+      <c r="AX1" s="2">
+        <v>43939</v>
+      </c>
+      <c r="AY1" s="2">
+        <v>43940</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>43941</v>
+      </c>
+      <c r="BA1" s="2">
+        <v>43942</v>
+      </c>
+      <c r="BB1" s="2">
+        <v>43943</v>
+      </c>
+      <c r="BC1" s="2">
+        <v>43944</v>
+      </c>
+      <c r="BD1" s="2">
+        <v>43945</v>
+      </c>
+      <c r="BE1" s="2">
+        <v>43946</v>
+      </c>
+      <c r="BF1" s="2">
+        <v>43947</v>
+      </c>
+      <c r="BG1" s="2">
+        <v>43948</v>
+      </c>
+      <c r="BH1" s="2">
+        <v>43949</v>
+      </c>
+      <c r="BI1" s="2">
+        <v>43950</v>
+      </c>
+      <c r="BJ1" s="2">
+        <v>43951</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>43952</v>
+      </c>
+      <c r="BL1" s="2">
+        <v>43953</v>
+      </c>
+      <c r="BM1" s="2">
+        <v>43954</v>
+      </c>
+      <c r="BN1" s="2">
+        <v>43955</v>
+      </c>
+      <c r="BO1" s="2"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4579,8 +6204,120 @@
         <f>Hoja1!AL2</f>
         <v>41</v>
       </c>
+      <c r="AM2">
+        <f>Hoja1!AM2</f>
+        <v>53</v>
+      </c>
+      <c r="AN2">
+        <f>Hoja1!AN2</f>
+        <v>63</v>
+      </c>
+      <c r="AO2">
+        <f>Hoja1!AO2</f>
+        <v>75</v>
+      </c>
+      <c r="AP2">
+        <f>Hoja1!AP2</f>
+        <v>87</v>
+      </c>
+      <c r="AQ2">
+        <f>Hoja1!AQ2</f>
+        <v>107</v>
+      </c>
+      <c r="AR2">
+        <f>Hoja1!AR2</f>
+        <v>115</v>
+      </c>
+      <c r="AS2">
+        <f>Hoja1!AS2</f>
+        <v>115</v>
+      </c>
+      <c r="AT2">
+        <f>Hoja1!AT2</f>
+        <v>120</v>
+      </c>
+      <c r="AU2">
+        <f>Hoja1!AU2</f>
+        <v>124</v>
+      </c>
+      <c r="AV2">
+        <f>Hoja1!AV2</f>
+        <v>129</v>
+      </c>
+      <c r="AW2">
+        <f>Hoja1!AW2</f>
+        <v>134</v>
+      </c>
+      <c r="AX2">
+        <f>Hoja1!AX2</f>
+        <v>142</v>
+      </c>
+      <c r="AY2">
+        <f>Hoja1!AY2</f>
+        <v>145</v>
+      </c>
+      <c r="AZ2">
+        <f>Hoja1!AZ2</f>
+        <v>161</v>
+      </c>
+      <c r="BA2">
+        <f>Hoja1!BA2</f>
+        <v>170</v>
+      </c>
+      <c r="BB2">
+        <f>Hoja1!BB2</f>
+        <v>180</v>
+      </c>
+      <c r="BC2">
+        <f>Hoja1!BC2</f>
+        <v>210</v>
+      </c>
+      <c r="BD2">
+        <f>Hoja1!BD2</f>
+        <v>239</v>
+      </c>
+      <c r="BE2">
+        <f>Hoja1!BE2</f>
+        <v>245</v>
+      </c>
+      <c r="BF2">
+        <f>Hoja1!BF2</f>
+        <v>252</v>
+      </c>
+      <c r="BG2">
+        <f>Hoja1!BG2</f>
+        <v>265</v>
+      </c>
+      <c r="BH2">
+        <f>Hoja1!BH2</f>
+        <v>268</v>
+      </c>
+      <c r="BI2">
+        <f>Hoja1!BI2</f>
+        <v>272</v>
+      </c>
+      <c r="BJ2">
+        <f>Hoja1!BJ2</f>
+        <v>279</v>
+      </c>
+      <c r="BK2">
+        <f>Hoja1!BK2</f>
+        <v>297</v>
+      </c>
+      <c r="BL2">
+        <f>Hoja1!BL2</f>
+        <v>307</v>
+      </c>
+      <c r="BM2">
+        <f>Hoja1!BM2</f>
+        <v>308</v>
+      </c>
+      <c r="BN2">
+        <f>Hoja1!BN2</f>
+        <v>308</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4730,8 +6467,120 @@
         <f>Hoja1!AL3</f>
         <v>21</v>
       </c>
+      <c r="AM3">
+        <f>Hoja1!AM3</f>
+        <v>23</v>
+      </c>
+      <c r="AN3">
+        <f>Hoja1!AN3</f>
+        <v>26</v>
+      </c>
+      <c r="AO3">
+        <f>Hoja1!AO3</f>
+        <v>29</v>
+      </c>
+      <c r="AP3">
+        <f>Hoja1!AP3</f>
+        <v>35</v>
+      </c>
+      <c r="AQ3">
+        <f>Hoja1!AQ3</f>
+        <v>38</v>
+      </c>
+      <c r="AR3">
+        <f>Hoja1!AR3</f>
+        <v>46</v>
+      </c>
+      <c r="AS3">
+        <f>Hoja1!AS3</f>
+        <v>52</v>
+      </c>
+      <c r="AT3">
+        <f>Hoja1!AT3</f>
+        <v>62</v>
+      </c>
+      <c r="AU3">
+        <f>Hoja1!AU3</f>
+        <v>62</v>
+      </c>
+      <c r="AV3">
+        <f>Hoja1!AV3</f>
+        <v>66</v>
+      </c>
+      <c r="AW3">
+        <f>Hoja1!AW3</f>
+        <v>73</v>
+      </c>
+      <c r="AX3">
+        <f>Hoja1!AX3</f>
+        <v>81</v>
+      </c>
+      <c r="AY3">
+        <f>Hoja1!AY3</f>
+        <v>90</v>
+      </c>
+      <c r="AZ3">
+        <f>Hoja1!AZ3</f>
+        <v>93</v>
+      </c>
+      <c r="BA3">
+        <f>Hoja1!BA3</f>
+        <v>104</v>
+      </c>
+      <c r="BB3">
+        <f>Hoja1!BB3</f>
+        <v>114</v>
+      </c>
+      <c r="BC3">
+        <f>Hoja1!BC3</f>
+        <v>128</v>
+      </c>
+      <c r="BD3">
+        <f>Hoja1!BD3</f>
+        <v>134</v>
+      </c>
+      <c r="BE3">
+        <f>Hoja1!BE3</f>
+        <v>143</v>
+      </c>
+      <c r="BF3">
+        <f>Hoja1!BF3</f>
+        <v>156</v>
+      </c>
+      <c r="BG3">
+        <f>Hoja1!BG3</f>
+        <v>164</v>
+      </c>
+      <c r="BH3">
+        <f>Hoja1!BH3</f>
+        <v>169</v>
+      </c>
+      <c r="BI3">
+        <f>Hoja1!BI3</f>
+        <v>183</v>
+      </c>
+      <c r="BJ3">
+        <f>Hoja1!BJ3</f>
+        <v>198</v>
+      </c>
+      <c r="BK3">
+        <f>Hoja1!BK3</f>
+        <v>200</v>
+      </c>
+      <c r="BL3">
+        <f>Hoja1!BL3</f>
+        <v>212</v>
+      </c>
+      <c r="BM3">
+        <f>Hoja1!BM3</f>
+        <v>272</v>
+      </c>
+      <c r="BN3">
+        <f>Hoja1!BN3</f>
+        <v>295</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4881,8 +6730,120 @@
         <f>Hoja1!AL4</f>
         <v>68</v>
       </c>
+      <c r="AM4">
+        <f>Hoja1!AM4</f>
+        <v>69</v>
+      </c>
+      <c r="AN4">
+        <f>Hoja1!AN4</f>
+        <v>77</v>
+      </c>
+      <c r="AO4">
+        <f>Hoja1!AO4</f>
+        <v>92</v>
+      </c>
+      <c r="AP4">
+        <f>Hoja1!AP4</f>
+        <v>110</v>
+      </c>
+      <c r="AQ4">
+        <f>Hoja1!AQ4</f>
+        <v>117</v>
+      </c>
+      <c r="AR4">
+        <f>Hoja1!AR4</f>
+        <v>138</v>
+      </c>
+      <c r="AS4">
+        <f>Hoja1!AS4</f>
+        <v>149</v>
+      </c>
+      <c r="AT4">
+        <f>Hoja1!AT4</f>
+        <v>155</v>
+      </c>
+      <c r="AU4">
+        <f>Hoja1!AU4</f>
+        <v>176</v>
+      </c>
+      <c r="AV4">
+        <f>Hoja1!AV4</f>
+        <v>192</v>
+      </c>
+      <c r="AW4">
+        <f>Hoja1!AW4</f>
+        <v>211</v>
+      </c>
+      <c r="AX4">
+        <f>Hoja1!AX4</f>
+        <v>226</v>
+      </c>
+      <c r="AY4">
+        <f>Hoja1!AY4</f>
+        <v>249</v>
+      </c>
+      <c r="AZ4">
+        <f>Hoja1!AZ4</f>
+        <v>263</v>
+      </c>
+      <c r="BA4">
+        <f>Hoja1!BA4</f>
+        <v>291</v>
+      </c>
+      <c r="BB4">
+        <f>Hoja1!BB4</f>
+        <v>326</v>
+      </c>
+      <c r="BC4">
+        <f>Hoja1!BC4</f>
+        <v>340</v>
+      </c>
+      <c r="BD4">
+        <f>Hoja1!BD4</f>
+        <v>366</v>
+      </c>
+      <c r="BE4">
+        <f>Hoja1!BE4</f>
+        <v>391</v>
+      </c>
+      <c r="BF4">
+        <f>Hoja1!BF4</f>
+        <v>443</v>
+      </c>
+      <c r="BG4">
+        <f>Hoja1!BG4</f>
+        <v>457</v>
+      </c>
+      <c r="BH4">
+        <f>Hoja1!BH4</f>
+        <v>481</v>
+      </c>
+      <c r="BI4">
+        <f>Hoja1!BI4</f>
+        <v>514</v>
+      </c>
+      <c r="BJ4">
+        <f>Hoja1!BJ4</f>
+        <v>546</v>
+      </c>
+      <c r="BK4">
+        <f>Hoja1!BK4</f>
+        <v>589</v>
+      </c>
+      <c r="BL4">
+        <f>Hoja1!BL4</f>
+        <v>679</v>
+      </c>
+      <c r="BM4">
+        <f>Hoja1!BM4</f>
+        <v>740</v>
+      </c>
+      <c r="BN4">
+        <f>Hoja1!BN4</f>
+        <v>760</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5032,8 +6993,120 @@
         <f>Hoja1!AL5</f>
         <v>5</v>
       </c>
+      <c r="AM5">
+        <f>Hoja1!AM5</f>
+        <v>6</v>
+      </c>
+      <c r="AN5">
+        <f>Hoja1!AN5</f>
+        <v>8</v>
+      </c>
+      <c r="AO5">
+        <f>Hoja1!AO5</f>
+        <v>10</v>
+      </c>
+      <c r="AP5">
+        <f>Hoja1!AP5</f>
+        <v>13</v>
+      </c>
+      <c r="AQ5">
+        <f>Hoja1!AQ5</f>
+        <v>13</v>
+      </c>
+      <c r="AR5">
+        <f>Hoja1!AR5</f>
+        <v>13</v>
+      </c>
+      <c r="AS5">
+        <f>Hoja1!AS5</f>
+        <v>13</v>
+      </c>
+      <c r="AT5">
+        <f>Hoja1!AT5</f>
+        <v>13</v>
+      </c>
+      <c r="AU5">
+        <f>Hoja1!AU5</f>
+        <v>13</v>
+      </c>
+      <c r="AV5">
+        <f>Hoja1!AV5</f>
+        <v>13</v>
+      </c>
+      <c r="AW5">
+        <f>Hoja1!AW5</f>
+        <v>13</v>
+      </c>
+      <c r="AX5">
+        <f>Hoja1!AX5</f>
+        <v>13</v>
+      </c>
+      <c r="AY5">
+        <f>Hoja1!AY5</f>
+        <v>13</v>
+      </c>
+      <c r="AZ5">
+        <f>Hoja1!AZ5</f>
+        <v>13</v>
+      </c>
+      <c r="BA5">
+        <f>Hoja1!BA5</f>
+        <v>13</v>
+      </c>
+      <c r="BB5">
+        <f>Hoja1!BB5</f>
+        <v>13</v>
+      </c>
+      <c r="BC5">
+        <f>Hoja1!BC5</f>
+        <v>18</v>
+      </c>
+      <c r="BD5">
+        <f>Hoja1!BD5</f>
+        <v>21</v>
+      </c>
+      <c r="BE5">
+        <f>Hoja1!BE5</f>
+        <v>24</v>
+      </c>
+      <c r="BF5">
+        <f>Hoja1!BF5</f>
+        <v>29</v>
+      </c>
+      <c r="BG5">
+        <f>Hoja1!BG5</f>
+        <v>35</v>
+      </c>
+      <c r="BH5">
+        <f>Hoja1!BH5</f>
+        <v>35</v>
+      </c>
+      <c r="BI5">
+        <f>Hoja1!BI5</f>
+        <v>42</v>
+      </c>
+      <c r="BJ5">
+        <f>Hoja1!BJ5</f>
+        <v>43</v>
+      </c>
+      <c r="BK5">
+        <f>Hoja1!BK5</f>
+        <v>43</v>
+      </c>
+      <c r="BL5">
+        <f>Hoja1!BL5</f>
+        <v>59</v>
+      </c>
+      <c r="BM5">
+        <f>Hoja1!BM5</f>
+        <v>67</v>
+      </c>
+      <c r="BN5">
+        <f>Hoja1!BN5</f>
+        <v>70</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5183,8 +7256,120 @@
         <f>Hoja1!AL6</f>
         <v>51</v>
       </c>
+      <c r="AM6">
+        <f>Hoja1!AM6</f>
+        <v>52</v>
+      </c>
+      <c r="AN6">
+        <f>Hoja1!AN6</f>
+        <v>56</v>
+      </c>
+      <c r="AO6">
+        <f>Hoja1!AO6</f>
+        <v>61</v>
+      </c>
+      <c r="AP6">
+        <f>Hoja1!AP6</f>
+        <v>61</v>
+      </c>
+      <c r="AQ6">
+        <f>Hoja1!AQ6</f>
+        <v>64</v>
+      </c>
+      <c r="AR6">
+        <f>Hoja1!AR6</f>
+        <v>66</v>
+      </c>
+      <c r="AS6">
+        <f>Hoja1!AS6</f>
+        <v>66</v>
+      </c>
+      <c r="AT6">
+        <f>Hoja1!AT6</f>
+        <v>66</v>
+      </c>
+      <c r="AU6">
+        <f>Hoja1!AU6</f>
+        <v>66</v>
+      </c>
+      <c r="AV6">
+        <f>Hoja1!AV6</f>
+        <v>68</v>
+      </c>
+      <c r="AW6">
+        <f>Hoja1!AW6</f>
+        <v>68</v>
+      </c>
+      <c r="AX6">
+        <f>Hoja1!AX6</f>
+        <v>68</v>
+      </c>
+      <c r="AY6">
+        <f>Hoja1!AY6</f>
+        <v>68</v>
+      </c>
+      <c r="AZ6">
+        <f>Hoja1!AZ6</f>
+        <v>69</v>
+      </c>
+      <c r="BA6">
+        <f>Hoja1!BA6</f>
+        <v>69</v>
+      </c>
+      <c r="BB6">
+        <f>Hoja1!BB6</f>
+        <v>70</v>
+      </c>
+      <c r="BC6">
+        <f>Hoja1!BC6</f>
+        <v>70</v>
+      </c>
+      <c r="BD6">
+        <f>Hoja1!BD6</f>
+        <v>72</v>
+      </c>
+      <c r="BE6">
+        <f>Hoja1!BE6</f>
+        <v>73</v>
+      </c>
+      <c r="BF6">
+        <f>Hoja1!BF6</f>
+        <v>73</v>
+      </c>
+      <c r="BG6">
+        <f>Hoja1!BG6</f>
+        <v>74</v>
+      </c>
+      <c r="BH6">
+        <f>Hoja1!BH6</f>
+        <v>74</v>
+      </c>
+      <c r="BI6">
+        <f>Hoja1!BI6</f>
+        <v>76</v>
+      </c>
+      <c r="BJ6">
+        <f>Hoja1!BJ6</f>
+        <v>76</v>
+      </c>
+      <c r="BK6">
+        <f>Hoja1!BK6</f>
+        <v>77</v>
+      </c>
+      <c r="BL6">
+        <f>Hoja1!BL6</f>
+        <v>78</v>
+      </c>
+      <c r="BM6">
+        <f>Hoja1!BM6</f>
+        <v>88</v>
+      </c>
+      <c r="BN6">
+        <f>Hoja1!BN6</f>
+        <v>91</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5334,8 +7519,120 @@
         <f>Hoja1!AL7</f>
         <v>198</v>
       </c>
+      <c r="AM7">
+        <f>Hoja1!AM7</f>
+        <v>214</v>
+      </c>
+      <c r="AN7">
+        <f>Hoja1!AN7</f>
+        <v>225</v>
+      </c>
+      <c r="AO7">
+        <f>Hoja1!AO7</f>
+        <v>230</v>
+      </c>
+      <c r="AP7">
+        <f>Hoja1!AP7</f>
+        <v>241</v>
+      </c>
+      <c r="AQ7">
+        <f>Hoja1!AQ7</f>
+        <v>248</v>
+      </c>
+      <c r="AR7">
+        <f>Hoja1!AR7</f>
+        <v>254</v>
+      </c>
+      <c r="AS7">
+        <f>Hoja1!AS7</f>
+        <v>273</v>
+      </c>
+      <c r="AT7">
+        <f>Hoja1!AT7</f>
+        <v>285</v>
+      </c>
+      <c r="AU7">
+        <f>Hoja1!AU7</f>
+        <v>299</v>
+      </c>
+      <c r="AV7">
+        <f>Hoja1!AV7</f>
+        <v>330</v>
+      </c>
+      <c r="AW7">
+        <f>Hoja1!AW7</f>
+        <v>345</v>
+      </c>
+      <c r="AX7">
+        <f>Hoja1!AX7</f>
+        <v>359</v>
+      </c>
+      <c r="AY7">
+        <f>Hoja1!AY7</f>
+        <v>381</v>
+      </c>
+      <c r="AZ7">
+        <f>Hoja1!AZ7</f>
+        <v>388</v>
+      </c>
+      <c r="BA7">
+        <f>Hoja1!BA7</f>
+        <v>403</v>
+      </c>
+      <c r="BB7">
+        <f>Hoja1!BB7</f>
+        <v>421</v>
+      </c>
+      <c r="BC7">
+        <f>Hoja1!BC7</f>
+        <v>429</v>
+      </c>
+      <c r="BD7">
+        <f>Hoja1!BD7</f>
+        <v>436</v>
+      </c>
+      <c r="BE7">
+        <f>Hoja1!BE7</f>
+        <v>454</v>
+      </c>
+      <c r="BF7">
+        <f>Hoja1!BF7</f>
+        <v>460</v>
+      </c>
+      <c r="BG7">
+        <f>Hoja1!BG7</f>
+        <v>485</v>
+      </c>
+      <c r="BH7">
+        <f>Hoja1!BH7</f>
+        <v>493</v>
+      </c>
+      <c r="BI7">
+        <f>Hoja1!BI7</f>
+        <v>526</v>
+      </c>
+      <c r="BJ7">
+        <f>Hoja1!BJ7</f>
+        <v>559</v>
+      </c>
+      <c r="BK7">
+        <f>Hoja1!BK7</f>
+        <v>568</v>
+      </c>
+      <c r="BL7">
+        <f>Hoja1!BL7</f>
+        <v>614</v>
+      </c>
+      <c r="BM7">
+        <f>Hoja1!BM7</f>
+        <v>638</v>
+      </c>
+      <c r="BN7">
+        <f>Hoja1!BN7</f>
+        <v>656</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5485,8 +7782,120 @@
         <f>Hoja1!AL8</f>
         <v>2244</v>
       </c>
+      <c r="AM8">
+        <f>Hoja1!AM8</f>
+        <v>2350</v>
+      </c>
+      <c r="AN8">
+        <f>Hoja1!AN8</f>
+        <v>2548</v>
+      </c>
+      <c r="AO8">
+        <f>Hoja1!AO8</f>
+        <v>2832</v>
+      </c>
+      <c r="AP8">
+        <f>Hoja1!AP8</f>
+        <v>3193</v>
+      </c>
+      <c r="AQ8">
+        <f>Hoja1!AQ8</f>
+        <v>3448</v>
+      </c>
+      <c r="AR8">
+        <f>Hoja1!AR8</f>
+        <v>3599</v>
+      </c>
+      <c r="AS8">
+        <f>Hoja1!AS8</f>
+        <v>3803</v>
+      </c>
+      <c r="AT8">
+        <f>Hoja1!AT8</f>
+        <v>4086</v>
+      </c>
+      <c r="AU8">
+        <f>Hoja1!AU8</f>
+        <v>4334</v>
+      </c>
+      <c r="AV8">
+        <f>Hoja1!AV8</f>
+        <v>4682</v>
+      </c>
+      <c r="AW8">
+        <f>Hoja1!AW8</f>
+        <v>4915</v>
+      </c>
+      <c r="AX8">
+        <f>Hoja1!AX8</f>
+        <v>5192</v>
+      </c>
+      <c r="AY8">
+        <f>Hoja1!AY8</f>
+        <v>5381</v>
+      </c>
+      <c r="AZ8">
+        <f>Hoja1!AZ8</f>
+        <v>5643</v>
+      </c>
+      <c r="BA8">
+        <f>Hoja1!BA8</f>
+        <v>5788</v>
+      </c>
+      <c r="BB8">
+        <f>Hoja1!BB8</f>
+        <v>6083</v>
+      </c>
+      <c r="BC8">
+        <f>Hoja1!BC8</f>
+        <v>6434</v>
+      </c>
+      <c r="BD8">
+        <f>Hoja1!BD8</f>
+        <v>6761</v>
+      </c>
+      <c r="BE8">
+        <f>Hoja1!BE8</f>
+        <v>7165</v>
+      </c>
+      <c r="BF8">
+        <f>Hoja1!BF8</f>
+        <v>7496</v>
+      </c>
+      <c r="BG8">
+        <f>Hoja1!BG8</f>
+        <v>7858</v>
+      </c>
+      <c r="BH8">
+        <f>Hoja1!BH8</f>
+        <v>8300</v>
+      </c>
+      <c r="BI8">
+        <f>Hoja1!BI8</f>
+        <v>8889</v>
+      </c>
+      <c r="BJ8">
+        <f>Hoja1!BJ8</f>
+        <v>9625</v>
+      </c>
+      <c r="BK8">
+        <f>Hoja1!BK8</f>
+        <v>10516</v>
+      </c>
+      <c r="BL8">
+        <f>Hoja1!BL8</f>
+        <v>11661</v>
+      </c>
+      <c r="BM8">
+        <f>Hoja1!BM8</f>
+        <v>12656</v>
+      </c>
+      <c r="BN8">
+        <f>Hoja1!BN8</f>
+        <v>13528</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5636,8 +8045,120 @@
         <f>Hoja1!AL9</f>
         <v>42</v>
       </c>
+      <c r="AM9">
+        <f>Hoja1!AM9</f>
+        <v>42</v>
+      </c>
+      <c r="AN9">
+        <f>Hoja1!AN9</f>
+        <v>43</v>
+      </c>
+      <c r="AO9">
+        <f>Hoja1!AO9</f>
+        <v>44</v>
+      </c>
+      <c r="AP9">
+        <f>Hoja1!AP9</f>
+        <v>44</v>
+      </c>
+      <c r="AQ9">
+        <f>Hoja1!AQ9</f>
+        <v>45</v>
+      </c>
+      <c r="AR9">
+        <f>Hoja1!AR9</f>
+        <v>46</v>
+      </c>
+      <c r="AS9">
+        <f>Hoja1!AS9</f>
+        <v>48</v>
+      </c>
+      <c r="AT9">
+        <f>Hoja1!AT9</f>
+        <v>53</v>
+      </c>
+      <c r="AU9">
+        <f>Hoja1!AU9</f>
+        <v>54</v>
+      </c>
+      <c r="AV9">
+        <f>Hoja1!AV9</f>
+        <v>54</v>
+      </c>
+      <c r="AW9">
+        <f>Hoja1!AW9</f>
+        <v>55</v>
+      </c>
+      <c r="AX9">
+        <f>Hoja1!AX9</f>
+        <v>55</v>
+      </c>
+      <c r="AY9">
+        <f>Hoja1!AY9</f>
+        <v>55</v>
+      </c>
+      <c r="AZ9">
+        <f>Hoja1!AZ9</f>
+        <v>56</v>
+      </c>
+      <c r="BA9">
+        <f>Hoja1!BA9</f>
+        <v>57</v>
+      </c>
+      <c r="BB9">
+        <f>Hoja1!BB9</f>
+        <v>59</v>
+      </c>
+      <c r="BC9">
+        <f>Hoja1!BC9</f>
+        <v>76</v>
+      </c>
+      <c r="BD9">
+        <f>Hoja1!BD9</f>
+        <v>81</v>
+      </c>
+      <c r="BE9">
+        <f>Hoja1!BE9</f>
+        <v>85</v>
+      </c>
+      <c r="BF9">
+        <f>Hoja1!BF9</f>
+        <v>92</v>
+      </c>
+      <c r="BG9">
+        <f>Hoja1!BG9</f>
+        <v>94</v>
+      </c>
+      <c r="BH9">
+        <f>Hoja1!BH9</f>
+        <v>97</v>
+      </c>
+      <c r="BI9">
+        <f>Hoja1!BI9</f>
+        <v>104</v>
+      </c>
+      <c r="BJ9">
+        <f>Hoja1!BJ9</f>
+        <v>108</v>
+      </c>
+      <c r="BK9">
+        <f>Hoja1!BK9</f>
+        <v>109</v>
+      </c>
+      <c r="BL9">
+        <f>Hoja1!BL9</f>
+        <v>120</v>
+      </c>
+      <c r="BM9">
+        <f>Hoja1!BM9</f>
+        <v>125</v>
+      </c>
+      <c r="BN9">
+        <f>Hoja1!BN9</f>
+        <v>131</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5787,8 +8308,120 @@
         <f>Hoja1!AL10</f>
         <v>108</v>
       </c>
+      <c r="AM10">
+        <f>Hoja1!AM10</f>
+        <v>108</v>
+      </c>
+      <c r="AN10">
+        <f>Hoja1!AN10</f>
+        <v>119</v>
+      </c>
+      <c r="AO10">
+        <f>Hoja1!AO10</f>
+        <v>128</v>
+      </c>
+      <c r="AP10">
+        <f>Hoja1!AP10</f>
+        <v>131</v>
+      </c>
+      <c r="AQ10">
+        <f>Hoja1!AQ10</f>
+        <v>134</v>
+      </c>
+      <c r="AR10">
+        <f>Hoja1!AR10</f>
+        <v>138</v>
+      </c>
+      <c r="AS10">
+        <f>Hoja1!AS10</f>
+        <v>141</v>
+      </c>
+      <c r="AT10">
+        <f>Hoja1!AT10</f>
+        <v>142</v>
+      </c>
+      <c r="AU10">
+        <f>Hoja1!AU10</f>
+        <v>152</v>
+      </c>
+      <c r="AV10">
+        <f>Hoja1!AV10</f>
+        <v>167</v>
+      </c>
+      <c r="AW10">
+        <f>Hoja1!AW10</f>
+        <v>223</v>
+      </c>
+      <c r="AX10">
+        <f>Hoja1!AX10</f>
+        <v>276</v>
+      </c>
+      <c r="AY10">
+        <f>Hoja1!AY10</f>
+        <v>302</v>
+      </c>
+      <c r="AZ10">
+        <f>Hoja1!AZ10</f>
+        <v>304</v>
+      </c>
+      <c r="BA10">
+        <f>Hoja1!BA10</f>
+        <v>316</v>
+      </c>
+      <c r="BB10">
+        <f>Hoja1!BB10</f>
+        <v>328</v>
+      </c>
+      <c r="BC10">
+        <f>Hoja1!BC10</f>
+        <v>333</v>
+      </c>
+      <c r="BD10">
+        <f>Hoja1!BD10</f>
+        <v>349</v>
+      </c>
+      <c r="BE10">
+        <f>Hoja1!BE10</f>
+        <v>350</v>
+      </c>
+      <c r="BF10">
+        <f>Hoja1!BF10</f>
+        <v>354</v>
+      </c>
+      <c r="BG10">
+        <f>Hoja1!BG10</f>
+        <v>363</v>
+      </c>
+      <c r="BH10">
+        <f>Hoja1!BH10</f>
+        <v>384</v>
+      </c>
+      <c r="BI10">
+        <f>Hoja1!BI10</f>
+        <v>392</v>
+      </c>
+      <c r="BJ10">
+        <f>Hoja1!BJ10</f>
+        <v>393</v>
+      </c>
+      <c r="BK10">
+        <f>Hoja1!BK10</f>
+        <v>394</v>
+      </c>
+      <c r="BL10">
+        <f>Hoja1!BL10</f>
+        <v>396</v>
+      </c>
+      <c r="BM10">
+        <f>Hoja1!BM10</f>
+        <v>397</v>
+      </c>
+      <c r="BN10">
+        <f>Hoja1!BN10</f>
+        <v>399</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5938,8 +8571,120 @@
         <f>SUM(Hoja1!AL11:AL12)</f>
         <v>857</v>
       </c>
+      <c r="AM11">
+        <f>SUM(Hoja1!AM11:AM12)</f>
+        <v>932</v>
+      </c>
+      <c r="AN11">
+        <f>SUM(Hoja1!AN11:AN12)</f>
+        <v>1000</v>
+      </c>
+      <c r="AO11">
+        <f>SUM(Hoja1!AO11:AO12)</f>
+        <v>1031</v>
+      </c>
+      <c r="AP11">
+        <f>SUM(Hoja1!AP11:AP12)</f>
+        <v>1063</v>
+      </c>
+      <c r="AQ11">
+        <f>SUM(Hoja1!AQ11:AQ12)</f>
+        <v>1096</v>
+      </c>
+      <c r="AR11">
+        <f>SUM(Hoja1!AR11:AR12)</f>
+        <v>1113</v>
+      </c>
+      <c r="AS11">
+        <f>SUM(Hoja1!AS11:AS12)</f>
+        <v>1130</v>
+      </c>
+      <c r="AT11">
+        <f>SUM(Hoja1!AT11:AT12)</f>
+        <v>1150</v>
+      </c>
+      <c r="AU11">
+        <f>SUM(Hoja1!AU11:AU12)</f>
+        <v>1176</v>
+      </c>
+      <c r="AV11">
+        <f>SUM(Hoja1!AV11:AV12)</f>
+        <v>1198</v>
+      </c>
+      <c r="AW11">
+        <f>SUM(Hoja1!AW11:AW12)</f>
+        <v>1234</v>
+      </c>
+      <c r="AX11">
+        <f>SUM(Hoja1!AX11:AX12)</f>
+        <v>1273</v>
+      </c>
+      <c r="AY11">
+        <f>SUM(Hoja1!AY11:AY12)</f>
+        <v>1294</v>
+      </c>
+      <c r="AZ11">
+        <f>SUM(Hoja1!AZ11:AZ12)</f>
+        <v>1313</v>
+      </c>
+      <c r="BA11">
+        <f>SUM(Hoja1!BA11:BA12)</f>
+        <v>1330</v>
+      </c>
+      <c r="BB11">
+        <f>SUM(Hoja1!BB11:BB12)</f>
+        <v>1361</v>
+      </c>
+      <c r="BC11">
+        <f>SUM(Hoja1!BC11:BC12)</f>
+        <v>1383</v>
+      </c>
+      <c r="BD11">
+        <f>SUM(Hoja1!BD11:BD12)</f>
+        <v>1398</v>
+      </c>
+      <c r="BE11">
+        <f>SUM(Hoja1!BE11:BE12)</f>
+        <v>1421</v>
+      </c>
+      <c r="BF11">
+        <f>SUM(Hoja1!BF11:BF12)</f>
+        <v>1434</v>
+      </c>
+      <c r="BG11">
+        <f>SUM(Hoja1!BG11:BG12)</f>
+        <v>1447</v>
+      </c>
+      <c r="BH11">
+        <f>SUM(Hoja1!BH11:BH12)</f>
+        <v>1456</v>
+      </c>
+      <c r="BI11">
+        <f>SUM(Hoja1!BI11:BI12)</f>
+        <v>1480</v>
+      </c>
+      <c r="BJ11">
+        <f>SUM(Hoja1!BJ11:BJ12)</f>
+        <v>1495</v>
+      </c>
+      <c r="BK11">
+        <f>SUM(Hoja1!BK11:BK12)</f>
+        <v>1497</v>
+      </c>
+      <c r="BL11">
+        <f>SUM(Hoja1!BL11:BL12)</f>
+        <v>1527</v>
+      </c>
+      <c r="BM11">
+        <f>SUM(Hoja1!BM11:BM12)</f>
+        <v>1545</v>
+      </c>
+      <c r="BN11">
+        <f>SUM(Hoja1!BN11:BN12)</f>
+        <v>1549</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6089,8 +8834,120 @@
         <f>Hoja1!AL13</f>
         <v>562</v>
       </c>
+      <c r="AM12">
+        <f>Hoja1!AM13</f>
+        <v>612</v>
+      </c>
+      <c r="AN12">
+        <f>Hoja1!AN13</f>
+        <v>669</v>
+      </c>
+      <c r="AO12">
+        <f>Hoja1!AO13</f>
+        <v>689</v>
+      </c>
+      <c r="AP12">
+        <f>Hoja1!AP13</f>
+        <v>712</v>
+      </c>
+      <c r="AQ12">
+        <f>Hoja1!AQ13</f>
+        <v>739</v>
+      </c>
+      <c r="AR12">
+        <f>Hoja1!AR13</f>
+        <v>775</v>
+      </c>
+      <c r="AS12">
+        <f>Hoja1!AS13</f>
+        <v>795</v>
+      </c>
+      <c r="AT12">
+        <f>Hoja1!AT13</f>
+        <v>816</v>
+      </c>
+      <c r="AU12">
+        <f>Hoja1!AU13</f>
+        <v>826</v>
+      </c>
+      <c r="AV12">
+        <f>Hoja1!AV13</f>
+        <v>882</v>
+      </c>
+      <c r="AW12">
+        <f>Hoja1!AW13</f>
+        <v>907</v>
+      </c>
+      <c r="AX12">
+        <f>Hoja1!AX13</f>
+        <v>944</v>
+      </c>
+      <c r="AY12">
+        <f>Hoja1!AY13</f>
+        <v>972</v>
+      </c>
+      <c r="AZ12">
+        <f>Hoja1!AZ13</f>
+        <v>1045</v>
+      </c>
+      <c r="BA12">
+        <f>Hoja1!BA13</f>
+        <v>1092</v>
+      </c>
+      <c r="BB12">
+        <f>Hoja1!BB13</f>
+        <v>1113</v>
+      </c>
+      <c r="BC12">
+        <f>Hoja1!BC13</f>
+        <v>1142</v>
+      </c>
+      <c r="BD12">
+        <f>Hoja1!BD13</f>
+        <v>1184</v>
+      </c>
+      <c r="BE12">
+        <f>Hoja1!BE13</f>
+        <v>1203</v>
+      </c>
+      <c r="BF12">
+        <f>Hoja1!BF13</f>
+        <v>1216</v>
+      </c>
+      <c r="BG12">
+        <f>Hoja1!BG13</f>
+        <v>1236</v>
+      </c>
+      <c r="BH12">
+        <f>Hoja1!BH13</f>
+        <v>1251</v>
+      </c>
+      <c r="BI12">
+        <f>Hoja1!BI13</f>
+        <v>1273</v>
+      </c>
+      <c r="BJ12">
+        <f>Hoja1!BJ13</f>
+        <v>1293</v>
+      </c>
+      <c r="BK12">
+        <f>Hoja1!BK13</f>
+        <v>1295</v>
+      </c>
+      <c r="BL12">
+        <f>Hoja1!BL13</f>
+        <v>1314</v>
+      </c>
+      <c r="BM12">
+        <f>Hoja1!BM13</f>
+        <v>1328</v>
+      </c>
+      <c r="BN12">
+        <f>Hoja1!BN13</f>
+        <v>1331</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -6240,8 +9097,120 @@
         <f>Hoja1!AL14</f>
         <v>104</v>
       </c>
+      <c r="AM13">
+        <f>Hoja1!AM14</f>
+        <v>109</v>
+      </c>
+      <c r="AN13">
+        <f>Hoja1!AN14</f>
+        <v>114</v>
+      </c>
+      <c r="AO13">
+        <f>Hoja1!AO14</f>
+        <v>118</v>
+      </c>
+      <c r="AP13">
+        <f>Hoja1!AP14</f>
+        <v>124</v>
+      </c>
+      <c r="AQ13">
+        <f>Hoja1!AQ14</f>
+        <v>130</v>
+      </c>
+      <c r="AR13">
+        <f>Hoja1!AR14</f>
+        <v>135</v>
+      </c>
+      <c r="AS13">
+        <f>Hoja1!AS14</f>
+        <v>138</v>
+      </c>
+      <c r="AT13">
+        <f>Hoja1!AT14</f>
+        <v>148</v>
+      </c>
+      <c r="AU13">
+        <f>Hoja1!AU14</f>
+        <v>150</v>
+      </c>
+      <c r="AV13">
+        <f>Hoja1!AV14</f>
+        <v>153</v>
+      </c>
+      <c r="AW13">
+        <f>Hoja1!AW14</f>
+        <v>154</v>
+      </c>
+      <c r="AX13">
+        <f>Hoja1!AX14</f>
+        <v>156</v>
+      </c>
+      <c r="AY13">
+        <f>Hoja1!AY14</f>
+        <v>157</v>
+      </c>
+      <c r="AZ13">
+        <f>Hoja1!AZ14</f>
+        <v>162</v>
+      </c>
+      <c r="BA13">
+        <f>Hoja1!BA14</f>
+        <v>167</v>
+      </c>
+      <c r="BB13">
+        <f>Hoja1!BB14</f>
+        <v>171</v>
+      </c>
+      <c r="BC13">
+        <f>Hoja1!BC14</f>
+        <v>173</v>
+      </c>
+      <c r="BD13">
+        <f>Hoja1!BD14</f>
+        <v>174</v>
+      </c>
+      <c r="BE13">
+        <f>Hoja1!BE14</f>
+        <v>177</v>
+      </c>
+      <c r="BF13">
+        <f>Hoja1!BF14</f>
+        <v>178</v>
+      </c>
+      <c r="BG13">
+        <f>Hoja1!BG14</f>
+        <v>180</v>
+      </c>
+      <c r="BH13">
+        <f>Hoja1!BH14</f>
+        <v>180</v>
+      </c>
+      <c r="BI13">
+        <f>Hoja1!BI14</f>
+        <v>182</v>
+      </c>
+      <c r="BJ13">
+        <f>Hoja1!BJ14</f>
+        <v>189</v>
+      </c>
+      <c r="BK13">
+        <f>Hoja1!BK14</f>
+        <v>189</v>
+      </c>
+      <c r="BL13">
+        <f>Hoja1!BL14</f>
+        <v>196</v>
+      </c>
+      <c r="BM13">
+        <f>Hoja1!BM14</f>
+        <v>198</v>
+      </c>
+      <c r="BN13">
+        <f>Hoja1!BN14</f>
+        <v>199</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -6391,8 +9360,120 @@
         <f>Hoja1!AL15</f>
         <v>286</v>
       </c>
+      <c r="AM14">
+        <f>Hoja1!AM15</f>
+        <v>299</v>
+      </c>
+      <c r="AN14">
+        <f>Hoja1!AN15</f>
+        <v>325</v>
+      </c>
+      <c r="AO14">
+        <f>Hoja1!AO15</f>
+        <v>340</v>
+      </c>
+      <c r="AP14">
+        <f>Hoja1!AP15</f>
+        <v>349</v>
+      </c>
+      <c r="AQ14">
+        <f>Hoja1!AQ15</f>
+        <v>364</v>
+      </c>
+      <c r="AR14">
+        <f>Hoja1!AR15</f>
+        <v>372</v>
+      </c>
+      <c r="AS14">
+        <f>Hoja1!AS15</f>
+        <v>380</v>
+      </c>
+      <c r="AT14">
+        <f>Hoja1!AT15</f>
+        <v>385</v>
+      </c>
+      <c r="AU14">
+        <f>Hoja1!AU15</f>
+        <v>390</v>
+      </c>
+      <c r="AV14">
+        <f>Hoja1!AV15</f>
+        <v>399</v>
+      </c>
+      <c r="AW14">
+        <f>Hoja1!AW15</f>
+        <v>412</v>
+      </c>
+      <c r="AX14">
+        <f>Hoja1!AX15</f>
+        <v>416</v>
+      </c>
+      <c r="AY14">
+        <f>Hoja1!AY15</f>
+        <v>421</v>
+      </c>
+      <c r="AZ14">
+        <f>Hoja1!AZ15</f>
+        <v>424</v>
+      </c>
+      <c r="BA14">
+        <f>Hoja1!BA15</f>
+        <v>432</v>
+      </c>
+      <c r="BB14">
+        <f>Hoja1!BB15</f>
+        <v>445</v>
+      </c>
+      <c r="BC14">
+        <f>Hoja1!BC15</f>
+        <v>454</v>
+      </c>
+      <c r="BD14">
+        <f>Hoja1!BD15</f>
+        <v>460</v>
+      </c>
+      <c r="BE14">
+        <f>Hoja1!BE15</f>
+        <v>465</v>
+      </c>
+      <c r="BF14">
+        <f>Hoja1!BF15</f>
+        <v>473</v>
+      </c>
+      <c r="BG14">
+        <f>Hoja1!BG15</f>
+        <v>477</v>
+      </c>
+      <c r="BH14">
+        <f>Hoja1!BH15</f>
+        <v>477</v>
+      </c>
+      <c r="BI14">
+        <f>Hoja1!BI15</f>
+        <v>481</v>
+      </c>
+      <c r="BJ14">
+        <f>Hoja1!BJ15</f>
+        <v>487</v>
+      </c>
+      <c r="BK14">
+        <f>Hoja1!BK15</f>
+        <v>501</v>
+      </c>
+      <c r="BL14">
+        <f>Hoja1!BL15</f>
+        <v>513</v>
+      </c>
+      <c r="BM14">
+        <f>Hoja1!BM15</f>
+        <v>517</v>
+      </c>
+      <c r="BN14">
+        <f>Hoja1!BN15</f>
+        <v>524</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6542,8 +9623,120 @@
         <f>Hoja1!AL16</f>
         <v>7</v>
       </c>
+      <c r="AM15">
+        <f>Hoja1!AM16</f>
+        <v>7</v>
+      </c>
+      <c r="AN15">
+        <f>Hoja1!AN16</f>
+        <v>7</v>
+      </c>
+      <c r="AO15">
+        <f>Hoja1!AO16</f>
+        <v>7</v>
+      </c>
+      <c r="AP15">
+        <f>Hoja1!AP16</f>
+        <v>7</v>
+      </c>
+      <c r="AQ15">
+        <f>Hoja1!AQ16</f>
+        <v>7</v>
+      </c>
+      <c r="AR15">
+        <f>Hoja1!AR16</f>
+        <v>7</v>
+      </c>
+      <c r="AS15">
+        <f>Hoja1!AS16</f>
+        <v>7</v>
+      </c>
+      <c r="AT15">
+        <f>Hoja1!AT16</f>
+        <v>7</v>
+      </c>
+      <c r="AU15">
+        <f>Hoja1!AU16</f>
+        <v>7</v>
+      </c>
+      <c r="AV15">
+        <f>Hoja1!AV16</f>
+        <v>7</v>
+      </c>
+      <c r="AW15">
+        <f>Hoja1!AW16</f>
+        <v>7</v>
+      </c>
+      <c r="AX15">
+        <f>Hoja1!AX16</f>
+        <v>7</v>
+      </c>
+      <c r="AY15">
+        <f>Hoja1!AY16</f>
+        <v>7</v>
+      </c>
+      <c r="AZ15">
+        <f>Hoja1!AZ16</f>
+        <v>7</v>
+      </c>
+      <c r="BA15">
+        <f>Hoja1!BA16</f>
+        <v>7</v>
+      </c>
+      <c r="BB15">
+        <f>Hoja1!BB16</f>
+        <v>7</v>
+      </c>
+      <c r="BC15">
+        <f>Hoja1!BC16</f>
+        <v>7</v>
+      </c>
+      <c r="BD15">
+        <f>Hoja1!BD16</f>
+        <v>7</v>
+      </c>
+      <c r="BE15">
+        <f>Hoja1!BE16</f>
+        <v>7</v>
+      </c>
+      <c r="BF15">
+        <f>Hoja1!BF16</f>
+        <v>7</v>
+      </c>
+      <c r="BG15">
+        <f>Hoja1!BG16</f>
+        <v>7</v>
+      </c>
+      <c r="BH15">
+        <f>Hoja1!BH16</f>
+        <v>7</v>
+      </c>
+      <c r="BI15">
+        <f>Hoja1!BI16</f>
+        <v>7</v>
+      </c>
+      <c r="BJ15">
+        <f>Hoja1!BJ16</f>
+        <v>7</v>
+      </c>
+      <c r="BK15">
+        <f>Hoja1!BK16</f>
+        <v>7</v>
+      </c>
+      <c r="BL15">
+        <f>Hoja1!BL16</f>
+        <v>7</v>
+      </c>
+      <c r="BM15">
+        <f>Hoja1!BM16</f>
+        <v>7</v>
+      </c>
+      <c r="BN15">
+        <f>Hoja1!BN16</f>
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -6692,6 +9885,118 @@
       <c r="AL16">
         <f>Hoja1!AL17</f>
         <v>221</v>
+      </c>
+      <c r="AM16">
+        <f>Hoja1!AM17</f>
+        <v>240</v>
+      </c>
+      <c r="AN16">
+        <f>Hoja1!AN17</f>
+        <v>266</v>
+      </c>
+      <c r="AO16">
+        <f>Hoja1!AO17</f>
+        <v>286</v>
+      </c>
+      <c r="AP16">
+        <f>Hoja1!AP17</f>
+        <v>331</v>
+      </c>
+      <c r="AQ16">
+        <f>Hoja1!AQ17</f>
+        <v>377</v>
+      </c>
+      <c r="AR16">
+        <f>Hoja1!AR17</f>
+        <v>396</v>
+      </c>
+      <c r="AS16">
+        <f>Hoja1!AS17</f>
+        <v>415</v>
+      </c>
+      <c r="AT16">
+        <f>Hoja1!AT17</f>
+        <v>429</v>
+      </c>
+      <c r="AU16">
+        <f>Hoja1!AU17</f>
+        <v>444</v>
+      </c>
+      <c r="AV16">
+        <f>Hoja1!AV17</f>
+        <v>467</v>
+      </c>
+      <c r="AW16">
+        <f>Hoja1!AW17</f>
+        <v>501</v>
+      </c>
+      <c r="AX16">
+        <f>Hoja1!AX17</f>
+        <v>522</v>
+      </c>
+      <c r="AY16">
+        <f>Hoja1!AY17</f>
+        <v>553</v>
+      </c>
+      <c r="AZ16">
+        <f>Hoja1!AZ17</f>
+        <v>566</v>
+      </c>
+      <c r="BA16">
+        <f>Hoja1!BA17</f>
+        <v>593</v>
+      </c>
+      <c r="BB16">
+        <f>Hoja1!BB17</f>
+        <v>605</v>
+      </c>
+      <c r="BC16">
+        <f>Hoja1!BC17</f>
+        <v>615</v>
+      </c>
+      <c r="BD16">
+        <f>Hoja1!BD17</f>
+        <v>624</v>
+      </c>
+      <c r="BE16">
+        <f>Hoja1!BE17</f>
+        <v>655</v>
+      </c>
+      <c r="BF16">
+        <f>Hoja1!BF17</f>
+        <v>668</v>
+      </c>
+      <c r="BG16">
+        <f>Hoja1!BG17</f>
+        <v>671</v>
+      </c>
+      <c r="BH16">
+        <f>Hoja1!BH17</f>
+        <v>693</v>
+      </c>
+      <c r="BI16">
+        <f>Hoja1!BI17</f>
+        <v>714</v>
+      </c>
+      <c r="BJ16">
+        <f>Hoja1!BJ17</f>
+        <v>725</v>
+      </c>
+      <c r="BK16">
+        <f>Hoja1!BK17</f>
+        <v>726</v>
+      </c>
+      <c r="BL16">
+        <f>Hoja1!BL17</f>
+        <v>752</v>
+      </c>
+      <c r="BM16">
+        <f>Hoja1!BM17</f>
+        <v>777</v>
+      </c>
+      <c r="BN16">
+        <f>Hoja1!BN17</f>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -6701,10 +10006,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL17"/>
+  <dimension ref="A1:BN17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AM7" sqref="AM7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BC23" sqref="BC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6712,7 +10017,7 @@
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>Hoja1!A1</f>
         <v>region_title</v>
@@ -6865,8 +10170,120 @@
         <f>Hoja1!AL1</f>
         <v>43927</v>
       </c>
+      <c r="AM1" s="2">
+        <f>Hoja1!AM1</f>
+        <v>43928</v>
+      </c>
+      <c r="AN1" s="2">
+        <f>Hoja1!AN1</f>
+        <v>43929</v>
+      </c>
+      <c r="AO1" s="2">
+        <f>Hoja1!AO1</f>
+        <v>43930</v>
+      </c>
+      <c r="AP1" s="2">
+        <f>Hoja1!AP1</f>
+        <v>43931</v>
+      </c>
+      <c r="AQ1" s="2">
+        <f>Hoja1!AQ1</f>
+        <v>43932</v>
+      </c>
+      <c r="AR1" s="2">
+        <f>Hoja1!AR1</f>
+        <v>43933</v>
+      </c>
+      <c r="AS1" s="2">
+        <f>Hoja1!AS1</f>
+        <v>43934</v>
+      </c>
+      <c r="AT1" s="2">
+        <f>Hoja1!AT1</f>
+        <v>43935</v>
+      </c>
+      <c r="AU1" s="2">
+        <f>Hoja1!AU1</f>
+        <v>43936</v>
+      </c>
+      <c r="AV1" s="2">
+        <f>Hoja1!AV1</f>
+        <v>43937</v>
+      </c>
+      <c r="AW1" s="2">
+        <f>Hoja1!AW1</f>
+        <v>43938</v>
+      </c>
+      <c r="AX1" s="2">
+        <f>Hoja1!AX1</f>
+        <v>43939</v>
+      </c>
+      <c r="AY1" s="2">
+        <f>Hoja1!AY1</f>
+        <v>43940</v>
+      </c>
+      <c r="AZ1" s="2">
+        <f>Hoja1!AZ1</f>
+        <v>43941</v>
+      </c>
+      <c r="BA1" s="2">
+        <f>Hoja1!BA1</f>
+        <v>43942</v>
+      </c>
+      <c r="BB1" s="2">
+        <f>Hoja1!BB1</f>
+        <v>43943</v>
+      </c>
+      <c r="BC1" s="2">
+        <f>Hoja1!BC1</f>
+        <v>43944</v>
+      </c>
+      <c r="BD1" s="2">
+        <f>Hoja1!BD1</f>
+        <v>43945</v>
+      </c>
+      <c r="BE1" s="2">
+        <f>Hoja1!BE1</f>
+        <v>43946</v>
+      </c>
+      <c r="BF1" s="2">
+        <f>Hoja1!BF1</f>
+        <v>43947</v>
+      </c>
+      <c r="BG1" s="2">
+        <f>Hoja1!BG1</f>
+        <v>43948</v>
+      </c>
+      <c r="BH1" s="2">
+        <f>Hoja1!BH1</f>
+        <v>43949</v>
+      </c>
+      <c r="BI1" s="2">
+        <f>Hoja1!BI1</f>
+        <v>43950</v>
+      </c>
+      <c r="BJ1" s="2">
+        <f>Hoja1!BJ1</f>
+        <v>43951</v>
+      </c>
+      <c r="BK1" s="2">
+        <f>Hoja1!BK1</f>
+        <v>43952</v>
+      </c>
+      <c r="BL1" s="2">
+        <f>Hoja1!BL1</f>
+        <v>43953</v>
+      </c>
+      <c r="BM1" s="2">
+        <f>Hoja1!BM1</f>
+        <v>43954</v>
+      </c>
+      <c r="BN1" s="2">
+        <f>Hoja1!BN1</f>
+        <v>43955</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>Hoja1!A2</f>
         <v>Arica y Parinacota</v>
@@ -7019,8 +10436,120 @@
         <f>Hoja1!AL2</f>
         <v>41</v>
       </c>
+      <c r="AM2">
+        <f>Hoja1!AM2</f>
+        <v>53</v>
+      </c>
+      <c r="AN2">
+        <f>Hoja1!AN2</f>
+        <v>63</v>
+      </c>
+      <c r="AO2">
+        <f>Hoja1!AO2</f>
+        <v>75</v>
+      </c>
+      <c r="AP2">
+        <f>Hoja1!AP2</f>
+        <v>87</v>
+      </c>
+      <c r="AQ2">
+        <f>Hoja1!AQ2</f>
+        <v>107</v>
+      </c>
+      <c r="AR2">
+        <f>Hoja1!AR2</f>
+        <v>115</v>
+      </c>
+      <c r="AS2">
+        <f>Hoja1!AS2</f>
+        <v>115</v>
+      </c>
+      <c r="AT2">
+        <f>Hoja1!AT2</f>
+        <v>120</v>
+      </c>
+      <c r="AU2">
+        <f>Hoja1!AU2</f>
+        <v>124</v>
+      </c>
+      <c r="AV2">
+        <f>Hoja1!AV2</f>
+        <v>129</v>
+      </c>
+      <c r="AW2">
+        <f>Hoja1!AW2</f>
+        <v>134</v>
+      </c>
+      <c r="AX2">
+        <f>Hoja1!AX2</f>
+        <v>142</v>
+      </c>
+      <c r="AY2">
+        <f>Hoja1!AY2</f>
+        <v>145</v>
+      </c>
+      <c r="AZ2">
+        <f>Hoja1!AZ2</f>
+        <v>161</v>
+      </c>
+      <c r="BA2">
+        <f>Hoja1!BA2</f>
+        <v>170</v>
+      </c>
+      <c r="BB2">
+        <f>Hoja1!BB2</f>
+        <v>180</v>
+      </c>
+      <c r="BC2">
+        <f>Hoja1!BC2</f>
+        <v>210</v>
+      </c>
+      <c r="BD2">
+        <f>Hoja1!BD2</f>
+        <v>239</v>
+      </c>
+      <c r="BE2">
+        <f>Hoja1!BE2</f>
+        <v>245</v>
+      </c>
+      <c r="BF2">
+        <f>Hoja1!BF2</f>
+        <v>252</v>
+      </c>
+      <c r="BG2">
+        <f>Hoja1!BG2</f>
+        <v>265</v>
+      </c>
+      <c r="BH2">
+        <f>Hoja1!BH2</f>
+        <v>268</v>
+      </c>
+      <c r="BI2">
+        <f>Hoja1!BI2</f>
+        <v>272</v>
+      </c>
+      <c r="BJ2">
+        <f>Hoja1!BJ2</f>
+        <v>279</v>
+      </c>
+      <c r="BK2">
+        <f>Hoja1!BK2</f>
+        <v>297</v>
+      </c>
+      <c r="BL2">
+        <f>Hoja1!BL2</f>
+        <v>307</v>
+      </c>
+      <c r="BM2">
+        <f>Hoja1!BM2</f>
+        <v>308</v>
+      </c>
+      <c r="BN2">
+        <f>Hoja1!BN2</f>
+        <v>308</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>Hoja1!A3</f>
         <v>Tarapacá</v>
@@ -7173,8 +10702,120 @@
         <f>Hoja1!AL3</f>
         <v>21</v>
       </c>
+      <c r="AM3">
+        <f>Hoja1!AM3</f>
+        <v>23</v>
+      </c>
+      <c r="AN3">
+        <f>Hoja1!AN3</f>
+        <v>26</v>
+      </c>
+      <c r="AO3">
+        <f>Hoja1!AO3</f>
+        <v>29</v>
+      </c>
+      <c r="AP3">
+        <f>Hoja1!AP3</f>
+        <v>35</v>
+      </c>
+      <c r="AQ3">
+        <f>Hoja1!AQ3</f>
+        <v>38</v>
+      </c>
+      <c r="AR3">
+        <f>Hoja1!AR3</f>
+        <v>46</v>
+      </c>
+      <c r="AS3">
+        <f>Hoja1!AS3</f>
+        <v>52</v>
+      </c>
+      <c r="AT3">
+        <f>Hoja1!AT3</f>
+        <v>62</v>
+      </c>
+      <c r="AU3">
+        <f>Hoja1!AU3</f>
+        <v>62</v>
+      </c>
+      <c r="AV3">
+        <f>Hoja1!AV3</f>
+        <v>66</v>
+      </c>
+      <c r="AW3">
+        <f>Hoja1!AW3</f>
+        <v>73</v>
+      </c>
+      <c r="AX3">
+        <f>Hoja1!AX3</f>
+        <v>81</v>
+      </c>
+      <c r="AY3">
+        <f>Hoja1!AY3</f>
+        <v>90</v>
+      </c>
+      <c r="AZ3">
+        <f>Hoja1!AZ3</f>
+        <v>93</v>
+      </c>
+      <c r="BA3">
+        <f>Hoja1!BA3</f>
+        <v>104</v>
+      </c>
+      <c r="BB3">
+        <f>Hoja1!BB3</f>
+        <v>114</v>
+      </c>
+      <c r="BC3">
+        <f>Hoja1!BC3</f>
+        <v>128</v>
+      </c>
+      <c r="BD3">
+        <f>Hoja1!BD3</f>
+        <v>134</v>
+      </c>
+      <c r="BE3">
+        <f>Hoja1!BE3</f>
+        <v>143</v>
+      </c>
+      <c r="BF3">
+        <f>Hoja1!BF3</f>
+        <v>156</v>
+      </c>
+      <c r="BG3">
+        <f>Hoja1!BG3</f>
+        <v>164</v>
+      </c>
+      <c r="BH3">
+        <f>Hoja1!BH3</f>
+        <v>169</v>
+      </c>
+      <c r="BI3">
+        <f>Hoja1!BI3</f>
+        <v>183</v>
+      </c>
+      <c r="BJ3">
+        <f>Hoja1!BJ3</f>
+        <v>198</v>
+      </c>
+      <c r="BK3">
+        <f>Hoja1!BK3</f>
+        <v>200</v>
+      </c>
+      <c r="BL3">
+        <f>Hoja1!BL3</f>
+        <v>212</v>
+      </c>
+      <c r="BM3">
+        <f>Hoja1!BM3</f>
+        <v>272</v>
+      </c>
+      <c r="BN3">
+        <f>Hoja1!BN3</f>
+        <v>295</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>Hoja1!A4</f>
         <v>Antofagasta</v>
@@ -7327,8 +10968,120 @@
         <f>Hoja1!AL4</f>
         <v>68</v>
       </c>
+      <c r="AM4">
+        <f>Hoja1!AM4</f>
+        <v>69</v>
+      </c>
+      <c r="AN4">
+        <f>Hoja1!AN4</f>
+        <v>77</v>
+      </c>
+      <c r="AO4">
+        <f>Hoja1!AO4</f>
+        <v>92</v>
+      </c>
+      <c r="AP4">
+        <f>Hoja1!AP4</f>
+        <v>110</v>
+      </c>
+      <c r="AQ4">
+        <f>Hoja1!AQ4</f>
+        <v>117</v>
+      </c>
+      <c r="AR4">
+        <f>Hoja1!AR4</f>
+        <v>138</v>
+      </c>
+      <c r="AS4">
+        <f>Hoja1!AS4</f>
+        <v>149</v>
+      </c>
+      <c r="AT4">
+        <f>Hoja1!AT4</f>
+        <v>155</v>
+      </c>
+      <c r="AU4">
+        <f>Hoja1!AU4</f>
+        <v>176</v>
+      </c>
+      <c r="AV4">
+        <f>Hoja1!AV4</f>
+        <v>192</v>
+      </c>
+      <c r="AW4">
+        <f>Hoja1!AW4</f>
+        <v>211</v>
+      </c>
+      <c r="AX4">
+        <f>Hoja1!AX4</f>
+        <v>226</v>
+      </c>
+      <c r="AY4">
+        <f>Hoja1!AY4</f>
+        <v>249</v>
+      </c>
+      <c r="AZ4">
+        <f>Hoja1!AZ4</f>
+        <v>263</v>
+      </c>
+      <c r="BA4">
+        <f>Hoja1!BA4</f>
+        <v>291</v>
+      </c>
+      <c r="BB4">
+        <f>Hoja1!BB4</f>
+        <v>326</v>
+      </c>
+      <c r="BC4">
+        <f>Hoja1!BC4</f>
+        <v>340</v>
+      </c>
+      <c r="BD4">
+        <f>Hoja1!BD4</f>
+        <v>366</v>
+      </c>
+      <c r="BE4">
+        <f>Hoja1!BE4</f>
+        <v>391</v>
+      </c>
+      <c r="BF4">
+        <f>Hoja1!BF4</f>
+        <v>443</v>
+      </c>
+      <c r="BG4">
+        <f>Hoja1!BG4</f>
+        <v>457</v>
+      </c>
+      <c r="BH4">
+        <f>Hoja1!BH4</f>
+        <v>481</v>
+      </c>
+      <c r="BI4">
+        <f>Hoja1!BI4</f>
+        <v>514</v>
+      </c>
+      <c r="BJ4">
+        <f>Hoja1!BJ4</f>
+        <v>546</v>
+      </c>
+      <c r="BK4">
+        <f>Hoja1!BK4</f>
+        <v>589</v>
+      </c>
+      <c r="BL4">
+        <f>Hoja1!BL4</f>
+        <v>679</v>
+      </c>
+      <c r="BM4">
+        <f>Hoja1!BM4</f>
+        <v>740</v>
+      </c>
+      <c r="BN4">
+        <f>Hoja1!BN4</f>
+        <v>760</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>Hoja1!A5</f>
         <v>Atacama</v>
@@ -7481,8 +11234,120 @@
         <f>Hoja1!AL5</f>
         <v>5</v>
       </c>
+      <c r="AM5">
+        <f>Hoja1!AM5</f>
+        <v>6</v>
+      </c>
+      <c r="AN5">
+        <f>Hoja1!AN5</f>
+        <v>8</v>
+      </c>
+      <c r="AO5">
+        <f>Hoja1!AO5</f>
+        <v>10</v>
+      </c>
+      <c r="AP5">
+        <f>Hoja1!AP5</f>
+        <v>13</v>
+      </c>
+      <c r="AQ5">
+        <f>Hoja1!AQ5</f>
+        <v>13</v>
+      </c>
+      <c r="AR5">
+        <f>Hoja1!AR5</f>
+        <v>13</v>
+      </c>
+      <c r="AS5">
+        <f>Hoja1!AS5</f>
+        <v>13</v>
+      </c>
+      <c r="AT5">
+        <f>Hoja1!AT5</f>
+        <v>13</v>
+      </c>
+      <c r="AU5">
+        <f>Hoja1!AU5</f>
+        <v>13</v>
+      </c>
+      <c r="AV5">
+        <f>Hoja1!AV5</f>
+        <v>13</v>
+      </c>
+      <c r="AW5">
+        <f>Hoja1!AW5</f>
+        <v>13</v>
+      </c>
+      <c r="AX5">
+        <f>Hoja1!AX5</f>
+        <v>13</v>
+      </c>
+      <c r="AY5">
+        <f>Hoja1!AY5</f>
+        <v>13</v>
+      </c>
+      <c r="AZ5">
+        <f>Hoja1!AZ5</f>
+        <v>13</v>
+      </c>
+      <c r="BA5">
+        <f>Hoja1!BA5</f>
+        <v>13</v>
+      </c>
+      <c r="BB5">
+        <f>Hoja1!BB5</f>
+        <v>13</v>
+      </c>
+      <c r="BC5">
+        <f>Hoja1!BC5</f>
+        <v>18</v>
+      </c>
+      <c r="BD5">
+        <f>Hoja1!BD5</f>
+        <v>21</v>
+      </c>
+      <c r="BE5">
+        <f>Hoja1!BE5</f>
+        <v>24</v>
+      </c>
+      <c r="BF5">
+        <f>Hoja1!BF5</f>
+        <v>29</v>
+      </c>
+      <c r="BG5">
+        <f>Hoja1!BG5</f>
+        <v>35</v>
+      </c>
+      <c r="BH5">
+        <f>Hoja1!BH5</f>
+        <v>35</v>
+      </c>
+      <c r="BI5">
+        <f>Hoja1!BI5</f>
+        <v>42</v>
+      </c>
+      <c r="BJ5">
+        <f>Hoja1!BJ5</f>
+        <v>43</v>
+      </c>
+      <c r="BK5">
+        <f>Hoja1!BK5</f>
+        <v>43</v>
+      </c>
+      <c r="BL5">
+        <f>Hoja1!BL5</f>
+        <v>59</v>
+      </c>
+      <c r="BM5">
+        <f>Hoja1!BM5</f>
+        <v>67</v>
+      </c>
+      <c r="BN5">
+        <f>Hoja1!BN5</f>
+        <v>70</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>Hoja1!A6</f>
         <v>Coquimbo</v>
@@ -7635,8 +11500,120 @@
         <f>Hoja1!AL6</f>
         <v>51</v>
       </c>
+      <c r="AM6">
+        <f>Hoja1!AM6</f>
+        <v>52</v>
+      </c>
+      <c r="AN6">
+        <f>Hoja1!AN6</f>
+        <v>56</v>
+      </c>
+      <c r="AO6">
+        <f>Hoja1!AO6</f>
+        <v>61</v>
+      </c>
+      <c r="AP6">
+        <f>Hoja1!AP6</f>
+        <v>61</v>
+      </c>
+      <c r="AQ6">
+        <f>Hoja1!AQ6</f>
+        <v>64</v>
+      </c>
+      <c r="AR6">
+        <f>Hoja1!AR6</f>
+        <v>66</v>
+      </c>
+      <c r="AS6">
+        <f>Hoja1!AS6</f>
+        <v>66</v>
+      </c>
+      <c r="AT6">
+        <f>Hoja1!AT6</f>
+        <v>66</v>
+      </c>
+      <c r="AU6">
+        <f>Hoja1!AU6</f>
+        <v>66</v>
+      </c>
+      <c r="AV6">
+        <f>Hoja1!AV6</f>
+        <v>68</v>
+      </c>
+      <c r="AW6">
+        <f>Hoja1!AW6</f>
+        <v>68</v>
+      </c>
+      <c r="AX6">
+        <f>Hoja1!AX6</f>
+        <v>68</v>
+      </c>
+      <c r="AY6">
+        <f>Hoja1!AY6</f>
+        <v>68</v>
+      </c>
+      <c r="AZ6">
+        <f>Hoja1!AZ6</f>
+        <v>69</v>
+      </c>
+      <c r="BA6">
+        <f>Hoja1!BA6</f>
+        <v>69</v>
+      </c>
+      <c r="BB6">
+        <f>Hoja1!BB6</f>
+        <v>70</v>
+      </c>
+      <c r="BC6">
+        <f>Hoja1!BC6</f>
+        <v>70</v>
+      </c>
+      <c r="BD6">
+        <f>Hoja1!BD6</f>
+        <v>72</v>
+      </c>
+      <c r="BE6">
+        <f>Hoja1!BE6</f>
+        <v>73</v>
+      </c>
+      <c r="BF6">
+        <f>Hoja1!BF6</f>
+        <v>73</v>
+      </c>
+      <c r="BG6">
+        <f>Hoja1!BG6</f>
+        <v>74</v>
+      </c>
+      <c r="BH6">
+        <f>Hoja1!BH6</f>
+        <v>74</v>
+      </c>
+      <c r="BI6">
+        <f>Hoja1!BI6</f>
+        <v>76</v>
+      </c>
+      <c r="BJ6">
+        <f>Hoja1!BJ6</f>
+        <v>76</v>
+      </c>
+      <c r="BK6">
+        <f>Hoja1!BK6</f>
+        <v>77</v>
+      </c>
+      <c r="BL6">
+        <f>Hoja1!BL6</f>
+        <v>78</v>
+      </c>
+      <c r="BM6">
+        <f>Hoja1!BM6</f>
+        <v>88</v>
+      </c>
+      <c r="BN6">
+        <f>Hoja1!BN6</f>
+        <v>91</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>Hoja1!A7</f>
         <v>Valparaíso</v>
@@ -7789,8 +11766,120 @@
         <f>Hoja1!AL7</f>
         <v>198</v>
       </c>
+      <c r="AM7">
+        <f>Hoja1!AM7</f>
+        <v>214</v>
+      </c>
+      <c r="AN7">
+        <f>Hoja1!AN7</f>
+        <v>225</v>
+      </c>
+      <c r="AO7">
+        <f>Hoja1!AO7</f>
+        <v>230</v>
+      </c>
+      <c r="AP7">
+        <f>Hoja1!AP7</f>
+        <v>241</v>
+      </c>
+      <c r="AQ7">
+        <f>Hoja1!AQ7</f>
+        <v>248</v>
+      </c>
+      <c r="AR7">
+        <f>Hoja1!AR7</f>
+        <v>254</v>
+      </c>
+      <c r="AS7">
+        <f>Hoja1!AS7</f>
+        <v>273</v>
+      </c>
+      <c r="AT7">
+        <f>Hoja1!AT7</f>
+        <v>285</v>
+      </c>
+      <c r="AU7">
+        <f>Hoja1!AU7</f>
+        <v>299</v>
+      </c>
+      <c r="AV7">
+        <f>Hoja1!AV7</f>
+        <v>330</v>
+      </c>
+      <c r="AW7">
+        <f>Hoja1!AW7</f>
+        <v>345</v>
+      </c>
+      <c r="AX7">
+        <f>Hoja1!AX7</f>
+        <v>359</v>
+      </c>
+      <c r="AY7">
+        <f>Hoja1!AY7</f>
+        <v>381</v>
+      </c>
+      <c r="AZ7">
+        <f>Hoja1!AZ7</f>
+        <v>388</v>
+      </c>
+      <c r="BA7">
+        <f>Hoja1!BA7</f>
+        <v>403</v>
+      </c>
+      <c r="BB7">
+        <f>Hoja1!BB7</f>
+        <v>421</v>
+      </c>
+      <c r="BC7">
+        <f>Hoja1!BC7</f>
+        <v>429</v>
+      </c>
+      <c r="BD7">
+        <f>Hoja1!BD7</f>
+        <v>436</v>
+      </c>
+      <c r="BE7">
+        <f>Hoja1!BE7</f>
+        <v>454</v>
+      </c>
+      <c r="BF7">
+        <f>Hoja1!BF7</f>
+        <v>460</v>
+      </c>
+      <c r="BG7">
+        <f>Hoja1!BG7</f>
+        <v>485</v>
+      </c>
+      <c r="BH7">
+        <f>Hoja1!BH7</f>
+        <v>493</v>
+      </c>
+      <c r="BI7">
+        <f>Hoja1!BI7</f>
+        <v>526</v>
+      </c>
+      <c r="BJ7">
+        <f>Hoja1!BJ7</f>
+        <v>559</v>
+      </c>
+      <c r="BK7">
+        <f>Hoja1!BK7</f>
+        <v>568</v>
+      </c>
+      <c r="BL7">
+        <f>Hoja1!BL7</f>
+        <v>614</v>
+      </c>
+      <c r="BM7">
+        <f>Hoja1!BM7</f>
+        <v>638</v>
+      </c>
+      <c r="BN7">
+        <f>Hoja1!BN7</f>
+        <v>656</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>Hoja1!A8</f>
         <v>Metropolitana</v>
@@ -7943,8 +12032,120 @@
         <f>Hoja1!AL8</f>
         <v>2244</v>
       </c>
+      <c r="AM8">
+        <f>Hoja1!AM8</f>
+        <v>2350</v>
+      </c>
+      <c r="AN8">
+        <f>Hoja1!AN8</f>
+        <v>2548</v>
+      </c>
+      <c r="AO8">
+        <f>Hoja1!AO8</f>
+        <v>2832</v>
+      </c>
+      <c r="AP8">
+        <f>Hoja1!AP8</f>
+        <v>3193</v>
+      </c>
+      <c r="AQ8">
+        <f>Hoja1!AQ8</f>
+        <v>3448</v>
+      </c>
+      <c r="AR8">
+        <f>Hoja1!AR8</f>
+        <v>3599</v>
+      </c>
+      <c r="AS8">
+        <f>Hoja1!AS8</f>
+        <v>3803</v>
+      </c>
+      <c r="AT8">
+        <f>Hoja1!AT8</f>
+        <v>4086</v>
+      </c>
+      <c r="AU8">
+        <f>Hoja1!AU8</f>
+        <v>4334</v>
+      </c>
+      <c r="AV8">
+        <f>Hoja1!AV8</f>
+        <v>4682</v>
+      </c>
+      <c r="AW8">
+        <f>Hoja1!AW8</f>
+        <v>4915</v>
+      </c>
+      <c r="AX8">
+        <f>Hoja1!AX8</f>
+        <v>5192</v>
+      </c>
+      <c r="AY8">
+        <f>Hoja1!AY8</f>
+        <v>5381</v>
+      </c>
+      <c r="AZ8">
+        <f>Hoja1!AZ8</f>
+        <v>5643</v>
+      </c>
+      <c r="BA8">
+        <f>Hoja1!BA8</f>
+        <v>5788</v>
+      </c>
+      <c r="BB8">
+        <f>Hoja1!BB8</f>
+        <v>6083</v>
+      </c>
+      <c r="BC8">
+        <f>Hoja1!BC8</f>
+        <v>6434</v>
+      </c>
+      <c r="BD8">
+        <f>Hoja1!BD8</f>
+        <v>6761</v>
+      </c>
+      <c r="BE8">
+        <f>Hoja1!BE8</f>
+        <v>7165</v>
+      </c>
+      <c r="BF8">
+        <f>Hoja1!BF8</f>
+        <v>7496</v>
+      </c>
+      <c r="BG8">
+        <f>Hoja1!BG8</f>
+        <v>7858</v>
+      </c>
+      <c r="BH8">
+        <f>Hoja1!BH8</f>
+        <v>8300</v>
+      </c>
+      <c r="BI8">
+        <f>Hoja1!BI8</f>
+        <v>8889</v>
+      </c>
+      <c r="BJ8">
+        <f>Hoja1!BJ8</f>
+        <v>9625</v>
+      </c>
+      <c r="BK8">
+        <f>Hoja1!BK8</f>
+        <v>10516</v>
+      </c>
+      <c r="BL8">
+        <f>Hoja1!BL8</f>
+        <v>11661</v>
+      </c>
+      <c r="BM8">
+        <f>Hoja1!BM8</f>
+        <v>12656</v>
+      </c>
+      <c r="BN8">
+        <f>Hoja1!BN8</f>
+        <v>13528</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>Hoja1!A9</f>
         <v>O'Higgins</v>
@@ -8097,8 +12298,120 @@
         <f>Hoja1!AL9</f>
         <v>42</v>
       </c>
+      <c r="AM9">
+        <f>Hoja1!AM9</f>
+        <v>42</v>
+      </c>
+      <c r="AN9">
+        <f>Hoja1!AN9</f>
+        <v>43</v>
+      </c>
+      <c r="AO9">
+        <f>Hoja1!AO9</f>
+        <v>44</v>
+      </c>
+      <c r="AP9">
+        <f>Hoja1!AP9</f>
+        <v>44</v>
+      </c>
+      <c r="AQ9">
+        <f>Hoja1!AQ9</f>
+        <v>45</v>
+      </c>
+      <c r="AR9">
+        <f>Hoja1!AR9</f>
+        <v>46</v>
+      </c>
+      <c r="AS9">
+        <f>Hoja1!AS9</f>
+        <v>48</v>
+      </c>
+      <c r="AT9">
+        <f>Hoja1!AT9</f>
+        <v>53</v>
+      </c>
+      <c r="AU9">
+        <f>Hoja1!AU9</f>
+        <v>54</v>
+      </c>
+      <c r="AV9">
+        <f>Hoja1!AV9</f>
+        <v>54</v>
+      </c>
+      <c r="AW9">
+        <f>Hoja1!AW9</f>
+        <v>55</v>
+      </c>
+      <c r="AX9">
+        <f>Hoja1!AX9</f>
+        <v>55</v>
+      </c>
+      <c r="AY9">
+        <f>Hoja1!AY9</f>
+        <v>55</v>
+      </c>
+      <c r="AZ9">
+        <f>Hoja1!AZ9</f>
+        <v>56</v>
+      </c>
+      <c r="BA9">
+        <f>Hoja1!BA9</f>
+        <v>57</v>
+      </c>
+      <c r="BB9">
+        <f>Hoja1!BB9</f>
+        <v>59</v>
+      </c>
+      <c r="BC9">
+        <f>Hoja1!BC9</f>
+        <v>76</v>
+      </c>
+      <c r="BD9">
+        <f>Hoja1!BD9</f>
+        <v>81</v>
+      </c>
+      <c r="BE9">
+        <f>Hoja1!BE9</f>
+        <v>85</v>
+      </c>
+      <c r="BF9">
+        <f>Hoja1!BF9</f>
+        <v>92</v>
+      </c>
+      <c r="BG9">
+        <f>Hoja1!BG9</f>
+        <v>94</v>
+      </c>
+      <c r="BH9">
+        <f>Hoja1!BH9</f>
+        <v>97</v>
+      </c>
+      <c r="BI9">
+        <f>Hoja1!BI9</f>
+        <v>104</v>
+      </c>
+      <c r="BJ9">
+        <f>Hoja1!BJ9</f>
+        <v>108</v>
+      </c>
+      <c r="BK9">
+        <f>Hoja1!BK9</f>
+        <v>109</v>
+      </c>
+      <c r="BL9">
+        <f>Hoja1!BL9</f>
+        <v>120</v>
+      </c>
+      <c r="BM9">
+        <f>Hoja1!BM9</f>
+        <v>125</v>
+      </c>
+      <c r="BN9">
+        <f>Hoja1!BN9</f>
+        <v>131</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>Hoja1!A10</f>
         <v>Maule</v>
@@ -8251,8 +12564,120 @@
         <f>Hoja1!AL10</f>
         <v>108</v>
       </c>
+      <c r="AM10">
+        <f>Hoja1!AM10</f>
+        <v>108</v>
+      </c>
+      <c r="AN10">
+        <f>Hoja1!AN10</f>
+        <v>119</v>
+      </c>
+      <c r="AO10">
+        <f>Hoja1!AO10</f>
+        <v>128</v>
+      </c>
+      <c r="AP10">
+        <f>Hoja1!AP10</f>
+        <v>131</v>
+      </c>
+      <c r="AQ10">
+        <f>Hoja1!AQ10</f>
+        <v>134</v>
+      </c>
+      <c r="AR10">
+        <f>Hoja1!AR10</f>
+        <v>138</v>
+      </c>
+      <c r="AS10">
+        <f>Hoja1!AS10</f>
+        <v>141</v>
+      </c>
+      <c r="AT10">
+        <f>Hoja1!AT10</f>
+        <v>142</v>
+      </c>
+      <c r="AU10">
+        <f>Hoja1!AU10</f>
+        <v>152</v>
+      </c>
+      <c r="AV10">
+        <f>Hoja1!AV10</f>
+        <v>167</v>
+      </c>
+      <c r="AW10">
+        <f>Hoja1!AW10</f>
+        <v>223</v>
+      </c>
+      <c r="AX10">
+        <f>Hoja1!AX10</f>
+        <v>276</v>
+      </c>
+      <c r="AY10">
+        <f>Hoja1!AY10</f>
+        <v>302</v>
+      </c>
+      <c r="AZ10">
+        <f>Hoja1!AZ10</f>
+        <v>304</v>
+      </c>
+      <c r="BA10">
+        <f>Hoja1!BA10</f>
+        <v>316</v>
+      </c>
+      <c r="BB10">
+        <f>Hoja1!BB10</f>
+        <v>328</v>
+      </c>
+      <c r="BC10">
+        <f>Hoja1!BC10</f>
+        <v>333</v>
+      </c>
+      <c r="BD10">
+        <f>Hoja1!BD10</f>
+        <v>349</v>
+      </c>
+      <c r="BE10">
+        <f>Hoja1!BE10</f>
+        <v>350</v>
+      </c>
+      <c r="BF10">
+        <f>Hoja1!BF10</f>
+        <v>354</v>
+      </c>
+      <c r="BG10">
+        <f>Hoja1!BG10</f>
+        <v>363</v>
+      </c>
+      <c r="BH10">
+        <f>Hoja1!BH10</f>
+        <v>384</v>
+      </c>
+      <c r="BI10">
+        <f>Hoja1!BI10</f>
+        <v>392</v>
+      </c>
+      <c r="BJ10">
+        <f>Hoja1!BJ10</f>
+        <v>393</v>
+      </c>
+      <c r="BK10">
+        <f>Hoja1!BK10</f>
+        <v>394</v>
+      </c>
+      <c r="BL10">
+        <f>Hoja1!BL10</f>
+        <v>396</v>
+      </c>
+      <c r="BM10">
+        <f>Hoja1!BM10</f>
+        <v>397</v>
+      </c>
+      <c r="BN10">
+        <f>Hoja1!BN10</f>
+        <v>399</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>Hoja1!A11</f>
         <v>Ñuble</v>
@@ -8405,8 +12830,120 @@
         <f>Hoja1!AL11</f>
         <v>474</v>
       </c>
+      <c r="AM11">
+        <f>Hoja1!AM11</f>
+        <v>522</v>
+      </c>
+      <c r="AN11">
+        <f>Hoja1!AN11</f>
+        <v>561</v>
+      </c>
+      <c r="AO11">
+        <f>Hoja1!AO11</f>
+        <v>571</v>
+      </c>
+      <c r="AP11">
+        <f>Hoja1!AP11</f>
+        <v>589</v>
+      </c>
+      <c r="AQ11">
+        <f>Hoja1!AQ11</f>
+        <v>606</v>
+      </c>
+      <c r="AR11">
+        <f>Hoja1!AR11</f>
+        <v>613</v>
+      </c>
+      <c r="AS11">
+        <f>Hoja1!AS11</f>
+        <v>618</v>
+      </c>
+      <c r="AT11">
+        <f>Hoja1!AT11</f>
+        <v>622</v>
+      </c>
+      <c r="AU11">
+        <f>Hoja1!AU11</f>
+        <v>634</v>
+      </c>
+      <c r="AV11">
+        <f>Hoja1!AV11</f>
+        <v>639</v>
+      </c>
+      <c r="AW11">
+        <f>Hoja1!AW11</f>
+        <v>656</v>
+      </c>
+      <c r="AX11">
+        <f>Hoja1!AX11</f>
+        <v>667</v>
+      </c>
+      <c r="AY11">
+        <f>Hoja1!AY11</f>
+        <v>678</v>
+      </c>
+      <c r="AZ11">
+        <f>Hoja1!AZ11</f>
+        <v>687</v>
+      </c>
+      <c r="BA11">
+        <f>Hoja1!BA11</f>
+        <v>694</v>
+      </c>
+      <c r="BB11">
+        <f>Hoja1!BB11</f>
+        <v>703</v>
+      </c>
+      <c r="BC11">
+        <f>Hoja1!BC11</f>
+        <v>708</v>
+      </c>
+      <c r="BD11">
+        <f>Hoja1!BD11</f>
+        <v>715</v>
+      </c>
+      <c r="BE11">
+        <f>Hoja1!BE11</f>
+        <v>725</v>
+      </c>
+      <c r="BF11">
+        <f>Hoja1!BF11</f>
+        <v>731</v>
+      </c>
+      <c r="BG11">
+        <f>Hoja1!BG11</f>
+        <v>741</v>
+      </c>
+      <c r="BH11">
+        <f>Hoja1!BH11</f>
+        <v>747</v>
+      </c>
+      <c r="BI11">
+        <f>Hoja1!BI11</f>
+        <v>761</v>
+      </c>
+      <c r="BJ11">
+        <f>Hoja1!BJ11</f>
+        <v>768</v>
+      </c>
+      <c r="BK11">
+        <f>Hoja1!BK11</f>
+        <v>768</v>
+      </c>
+      <c r="BL11">
+        <f>Hoja1!BL11</f>
+        <v>776</v>
+      </c>
+      <c r="BM11">
+        <f>Hoja1!BM11</f>
+        <v>786</v>
+      </c>
+      <c r="BN11">
+        <f>Hoja1!BN11</f>
+        <v>787</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>Hoja1!A12</f>
         <v>Biobío</v>
@@ -8559,8 +13096,120 @@
         <f>Hoja1!AL12</f>
         <v>383</v>
       </c>
+      <c r="AM12">
+        <f>Hoja1!AM12</f>
+        <v>410</v>
+      </c>
+      <c r="AN12">
+        <f>Hoja1!AN12</f>
+        <v>439</v>
+      </c>
+      <c r="AO12">
+        <f>Hoja1!AO12</f>
+        <v>460</v>
+      </c>
+      <c r="AP12">
+        <f>Hoja1!AP12</f>
+        <v>474</v>
+      </c>
+      <c r="AQ12">
+        <f>Hoja1!AQ12</f>
+        <v>490</v>
+      </c>
+      <c r="AR12">
+        <f>Hoja1!AR12</f>
+        <v>500</v>
+      </c>
+      <c r="AS12">
+        <f>Hoja1!AS12</f>
+        <v>512</v>
+      </c>
+      <c r="AT12">
+        <f>Hoja1!AT12</f>
+        <v>528</v>
+      </c>
+      <c r="AU12">
+        <f>Hoja1!AU12</f>
+        <v>542</v>
+      </c>
+      <c r="AV12">
+        <f>Hoja1!AV12</f>
+        <v>559</v>
+      </c>
+      <c r="AW12">
+        <f>Hoja1!AW12</f>
+        <v>578</v>
+      </c>
+      <c r="AX12">
+        <f>Hoja1!AX12</f>
+        <v>606</v>
+      </c>
+      <c r="AY12">
+        <f>Hoja1!AY12</f>
+        <v>616</v>
+      </c>
+      <c r="AZ12">
+        <f>Hoja1!AZ12</f>
+        <v>626</v>
+      </c>
+      <c r="BA12">
+        <f>Hoja1!BA12</f>
+        <v>636</v>
+      </c>
+      <c r="BB12">
+        <f>Hoja1!BB12</f>
+        <v>658</v>
+      </c>
+      <c r="BC12">
+        <f>Hoja1!BC12</f>
+        <v>675</v>
+      </c>
+      <c r="BD12">
+        <f>Hoja1!BD12</f>
+        <v>683</v>
+      </c>
+      <c r="BE12">
+        <f>Hoja1!BE12</f>
+        <v>696</v>
+      </c>
+      <c r="BF12">
+        <f>Hoja1!BF12</f>
+        <v>703</v>
+      </c>
+      <c r="BG12">
+        <f>Hoja1!BG12</f>
+        <v>706</v>
+      </c>
+      <c r="BH12">
+        <f>Hoja1!BH12</f>
+        <v>709</v>
+      </c>
+      <c r="BI12">
+        <f>Hoja1!BI12</f>
+        <v>719</v>
+      </c>
+      <c r="BJ12">
+        <f>Hoja1!BJ12</f>
+        <v>727</v>
+      </c>
+      <c r="BK12">
+        <f>Hoja1!BK12</f>
+        <v>729</v>
+      </c>
+      <c r="BL12">
+        <f>Hoja1!BL12</f>
+        <v>751</v>
+      </c>
+      <c r="BM12">
+        <f>Hoja1!BM12</f>
+        <v>759</v>
+      </c>
+      <c r="BN12">
+        <f>Hoja1!BN12</f>
+        <v>762</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>Hoja1!A13</f>
         <v>Araucanía</v>
@@ -8713,8 +13362,120 @@
         <f>Hoja1!AL13</f>
         <v>562</v>
       </c>
+      <c r="AM13">
+        <f>Hoja1!AM13</f>
+        <v>612</v>
+      </c>
+      <c r="AN13">
+        <f>Hoja1!AN13</f>
+        <v>669</v>
+      </c>
+      <c r="AO13">
+        <f>Hoja1!AO13</f>
+        <v>689</v>
+      </c>
+      <c r="AP13">
+        <f>Hoja1!AP13</f>
+        <v>712</v>
+      </c>
+      <c r="AQ13">
+        <f>Hoja1!AQ13</f>
+        <v>739</v>
+      </c>
+      <c r="AR13">
+        <f>Hoja1!AR13</f>
+        <v>775</v>
+      </c>
+      <c r="AS13">
+        <f>Hoja1!AS13</f>
+        <v>795</v>
+      </c>
+      <c r="AT13">
+        <f>Hoja1!AT13</f>
+        <v>816</v>
+      </c>
+      <c r="AU13">
+        <f>Hoja1!AU13</f>
+        <v>826</v>
+      </c>
+      <c r="AV13">
+        <f>Hoja1!AV13</f>
+        <v>882</v>
+      </c>
+      <c r="AW13">
+        <f>Hoja1!AW13</f>
+        <v>907</v>
+      </c>
+      <c r="AX13">
+        <f>Hoja1!AX13</f>
+        <v>944</v>
+      </c>
+      <c r="AY13">
+        <f>Hoja1!AY13</f>
+        <v>972</v>
+      </c>
+      <c r="AZ13">
+        <f>Hoja1!AZ13</f>
+        <v>1045</v>
+      </c>
+      <c r="BA13">
+        <f>Hoja1!BA13</f>
+        <v>1092</v>
+      </c>
+      <c r="BB13">
+        <f>Hoja1!BB13</f>
+        <v>1113</v>
+      </c>
+      <c r="BC13">
+        <f>Hoja1!BC13</f>
+        <v>1142</v>
+      </c>
+      <c r="BD13">
+        <f>Hoja1!BD13</f>
+        <v>1184</v>
+      </c>
+      <c r="BE13">
+        <f>Hoja1!BE13</f>
+        <v>1203</v>
+      </c>
+      <c r="BF13">
+        <f>Hoja1!BF13</f>
+        <v>1216</v>
+      </c>
+      <c r="BG13">
+        <f>Hoja1!BG13</f>
+        <v>1236</v>
+      </c>
+      <c r="BH13">
+        <f>Hoja1!BH13</f>
+        <v>1251</v>
+      </c>
+      <c r="BI13">
+        <f>Hoja1!BI13</f>
+        <v>1273</v>
+      </c>
+      <c r="BJ13">
+        <f>Hoja1!BJ13</f>
+        <v>1293</v>
+      </c>
+      <c r="BK13">
+        <f>Hoja1!BK13</f>
+        <v>1295</v>
+      </c>
+      <c r="BL13">
+        <f>Hoja1!BL13</f>
+        <v>1314</v>
+      </c>
+      <c r="BM13">
+        <f>Hoja1!BM13</f>
+        <v>1328</v>
+      </c>
+      <c r="BN13">
+        <f>Hoja1!BN13</f>
+        <v>1331</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>Hoja1!A14</f>
         <v>Los Ríos</v>
@@ -8867,8 +13628,120 @@
         <f>Hoja1!AL14</f>
         <v>104</v>
       </c>
+      <c r="AM14">
+        <f>Hoja1!AM14</f>
+        <v>109</v>
+      </c>
+      <c r="AN14">
+        <f>Hoja1!AN14</f>
+        <v>114</v>
+      </c>
+      <c r="AO14">
+        <f>Hoja1!AO14</f>
+        <v>118</v>
+      </c>
+      <c r="AP14">
+        <f>Hoja1!AP14</f>
+        <v>124</v>
+      </c>
+      <c r="AQ14">
+        <f>Hoja1!AQ14</f>
+        <v>130</v>
+      </c>
+      <c r="AR14">
+        <f>Hoja1!AR14</f>
+        <v>135</v>
+      </c>
+      <c r="AS14">
+        <f>Hoja1!AS14</f>
+        <v>138</v>
+      </c>
+      <c r="AT14">
+        <f>Hoja1!AT14</f>
+        <v>148</v>
+      </c>
+      <c r="AU14">
+        <f>Hoja1!AU14</f>
+        <v>150</v>
+      </c>
+      <c r="AV14">
+        <f>Hoja1!AV14</f>
+        <v>153</v>
+      </c>
+      <c r="AW14">
+        <f>Hoja1!AW14</f>
+        <v>154</v>
+      </c>
+      <c r="AX14">
+        <f>Hoja1!AX14</f>
+        <v>156</v>
+      </c>
+      <c r="AY14">
+        <f>Hoja1!AY14</f>
+        <v>157</v>
+      </c>
+      <c r="AZ14">
+        <f>Hoja1!AZ14</f>
+        <v>162</v>
+      </c>
+      <c r="BA14">
+        <f>Hoja1!BA14</f>
+        <v>167</v>
+      </c>
+      <c r="BB14">
+        <f>Hoja1!BB14</f>
+        <v>171</v>
+      </c>
+      <c r="BC14">
+        <f>Hoja1!BC14</f>
+        <v>173</v>
+      </c>
+      <c r="BD14">
+        <f>Hoja1!BD14</f>
+        <v>174</v>
+      </c>
+      <c r="BE14">
+        <f>Hoja1!BE14</f>
+        <v>177</v>
+      </c>
+      <c r="BF14">
+        <f>Hoja1!BF14</f>
+        <v>178</v>
+      </c>
+      <c r="BG14">
+        <f>Hoja1!BG14</f>
+        <v>180</v>
+      </c>
+      <c r="BH14">
+        <f>Hoja1!BH14</f>
+        <v>180</v>
+      </c>
+      <c r="BI14">
+        <f>Hoja1!BI14</f>
+        <v>182</v>
+      </c>
+      <c r="BJ14">
+        <f>Hoja1!BJ14</f>
+        <v>189</v>
+      </c>
+      <c r="BK14">
+        <f>Hoja1!BK14</f>
+        <v>189</v>
+      </c>
+      <c r="BL14">
+        <f>Hoja1!BL14</f>
+        <v>196</v>
+      </c>
+      <c r="BM14">
+        <f>Hoja1!BM14</f>
+        <v>198</v>
+      </c>
+      <c r="BN14">
+        <f>Hoja1!BN14</f>
+        <v>199</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>Hoja1!A15</f>
         <v>Los Lagos</v>
@@ -9021,8 +13894,120 @@
         <f>Hoja1!AL15</f>
         <v>286</v>
       </c>
+      <c r="AM15">
+        <f>Hoja1!AM15</f>
+        <v>299</v>
+      </c>
+      <c r="AN15">
+        <f>Hoja1!AN15</f>
+        <v>325</v>
+      </c>
+      <c r="AO15">
+        <f>Hoja1!AO15</f>
+        <v>340</v>
+      </c>
+      <c r="AP15">
+        <f>Hoja1!AP15</f>
+        <v>349</v>
+      </c>
+      <c r="AQ15">
+        <f>Hoja1!AQ15</f>
+        <v>364</v>
+      </c>
+      <c r="AR15">
+        <f>Hoja1!AR15</f>
+        <v>372</v>
+      </c>
+      <c r="AS15">
+        <f>Hoja1!AS15</f>
+        <v>380</v>
+      </c>
+      <c r="AT15">
+        <f>Hoja1!AT15</f>
+        <v>385</v>
+      </c>
+      <c r="AU15">
+        <f>Hoja1!AU15</f>
+        <v>390</v>
+      </c>
+      <c r="AV15">
+        <f>Hoja1!AV15</f>
+        <v>399</v>
+      </c>
+      <c r="AW15">
+        <f>Hoja1!AW15</f>
+        <v>412</v>
+      </c>
+      <c r="AX15">
+        <f>Hoja1!AX15</f>
+        <v>416</v>
+      </c>
+      <c r="AY15">
+        <f>Hoja1!AY15</f>
+        <v>421</v>
+      </c>
+      <c r="AZ15">
+        <f>Hoja1!AZ15</f>
+        <v>424</v>
+      </c>
+      <c r="BA15">
+        <f>Hoja1!BA15</f>
+        <v>432</v>
+      </c>
+      <c r="BB15">
+        <f>Hoja1!BB15</f>
+        <v>445</v>
+      </c>
+      <c r="BC15">
+        <f>Hoja1!BC15</f>
+        <v>454</v>
+      </c>
+      <c r="BD15">
+        <f>Hoja1!BD15</f>
+        <v>460</v>
+      </c>
+      <c r="BE15">
+        <f>Hoja1!BE15</f>
+        <v>465</v>
+      </c>
+      <c r="BF15">
+        <f>Hoja1!BF15</f>
+        <v>473</v>
+      </c>
+      <c r="BG15">
+        <f>Hoja1!BG15</f>
+        <v>477</v>
+      </c>
+      <c r="BH15">
+        <f>Hoja1!BH15</f>
+        <v>477</v>
+      </c>
+      <c r="BI15">
+        <f>Hoja1!BI15</f>
+        <v>481</v>
+      </c>
+      <c r="BJ15">
+        <f>Hoja1!BJ15</f>
+        <v>487</v>
+      </c>
+      <c r="BK15">
+        <f>Hoja1!BK15</f>
+        <v>501</v>
+      </c>
+      <c r="BL15">
+        <f>Hoja1!BL15</f>
+        <v>513</v>
+      </c>
+      <c r="BM15">
+        <f>Hoja1!BM15</f>
+        <v>517</v>
+      </c>
+      <c r="BN15">
+        <f>Hoja1!BN15</f>
+        <v>524</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>Hoja1!A16</f>
         <v>Aysén</v>
@@ -9175,8 +14160,120 @@
         <f>Hoja1!AL16</f>
         <v>7</v>
       </c>
+      <c r="AM16">
+        <f>Hoja1!AM16</f>
+        <v>7</v>
+      </c>
+      <c r="AN16">
+        <f>Hoja1!AN16</f>
+        <v>7</v>
+      </c>
+      <c r="AO16">
+        <f>Hoja1!AO16</f>
+        <v>7</v>
+      </c>
+      <c r="AP16">
+        <f>Hoja1!AP16</f>
+        <v>7</v>
+      </c>
+      <c r="AQ16">
+        <f>Hoja1!AQ16</f>
+        <v>7</v>
+      </c>
+      <c r="AR16">
+        <f>Hoja1!AR16</f>
+        <v>7</v>
+      </c>
+      <c r="AS16">
+        <f>Hoja1!AS16</f>
+        <v>7</v>
+      </c>
+      <c r="AT16">
+        <f>Hoja1!AT16</f>
+        <v>7</v>
+      </c>
+      <c r="AU16">
+        <f>Hoja1!AU16</f>
+        <v>7</v>
+      </c>
+      <c r="AV16">
+        <f>Hoja1!AV16</f>
+        <v>7</v>
+      </c>
+      <c r="AW16">
+        <f>Hoja1!AW16</f>
+        <v>7</v>
+      </c>
+      <c r="AX16">
+        <f>Hoja1!AX16</f>
+        <v>7</v>
+      </c>
+      <c r="AY16">
+        <f>Hoja1!AY16</f>
+        <v>7</v>
+      </c>
+      <c r="AZ16">
+        <f>Hoja1!AZ16</f>
+        <v>7</v>
+      </c>
+      <c r="BA16">
+        <f>Hoja1!BA16</f>
+        <v>7</v>
+      </c>
+      <c r="BB16">
+        <f>Hoja1!BB16</f>
+        <v>7</v>
+      </c>
+      <c r="BC16">
+        <f>Hoja1!BC16</f>
+        <v>7</v>
+      </c>
+      <c r="BD16">
+        <f>Hoja1!BD16</f>
+        <v>7</v>
+      </c>
+      <c r="BE16">
+        <f>Hoja1!BE16</f>
+        <v>7</v>
+      </c>
+      <c r="BF16">
+        <f>Hoja1!BF16</f>
+        <v>7</v>
+      </c>
+      <c r="BG16">
+        <f>Hoja1!BG16</f>
+        <v>7</v>
+      </c>
+      <c r="BH16">
+        <f>Hoja1!BH16</f>
+        <v>7</v>
+      </c>
+      <c r="BI16">
+        <f>Hoja1!BI16</f>
+        <v>7</v>
+      </c>
+      <c r="BJ16">
+        <f>Hoja1!BJ16</f>
+        <v>7</v>
+      </c>
+      <c r="BK16">
+        <f>Hoja1!BK16</f>
+        <v>7</v>
+      </c>
+      <c r="BL16">
+        <f>Hoja1!BL16</f>
+        <v>7</v>
+      </c>
+      <c r="BM16">
+        <f>Hoja1!BM16</f>
+        <v>7</v>
+      </c>
+      <c r="BN16">
+        <f>Hoja1!BN16</f>
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>Hoja1!A17</f>
         <v>Magallanes</v>
@@ -9328,6 +14425,118 @@
       <c r="AL17">
         <f>Hoja1!AL17</f>
         <v>221</v>
+      </c>
+      <c r="AM17">
+        <f>Hoja1!AM17</f>
+        <v>240</v>
+      </c>
+      <c r="AN17">
+        <f>Hoja1!AN17</f>
+        <v>266</v>
+      </c>
+      <c r="AO17">
+        <f>Hoja1!AO17</f>
+        <v>286</v>
+      </c>
+      <c r="AP17">
+        <f>Hoja1!AP17</f>
+        <v>331</v>
+      </c>
+      <c r="AQ17">
+        <f>Hoja1!AQ17</f>
+        <v>377</v>
+      </c>
+      <c r="AR17">
+        <f>Hoja1!AR17</f>
+        <v>396</v>
+      </c>
+      <c r="AS17">
+        <f>Hoja1!AS17</f>
+        <v>415</v>
+      </c>
+      <c r="AT17">
+        <f>Hoja1!AT17</f>
+        <v>429</v>
+      </c>
+      <c r="AU17">
+        <f>Hoja1!AU17</f>
+        <v>444</v>
+      </c>
+      <c r="AV17">
+        <f>Hoja1!AV17</f>
+        <v>467</v>
+      </c>
+      <c r="AW17">
+        <f>Hoja1!AW17</f>
+        <v>501</v>
+      </c>
+      <c r="AX17">
+        <f>Hoja1!AX17</f>
+        <v>522</v>
+      </c>
+      <c r="AY17">
+        <f>Hoja1!AY17</f>
+        <v>553</v>
+      </c>
+      <c r="AZ17">
+        <f>Hoja1!AZ17</f>
+        <v>566</v>
+      </c>
+      <c r="BA17">
+        <f>Hoja1!BA17</f>
+        <v>593</v>
+      </c>
+      <c r="BB17">
+        <f>Hoja1!BB17</f>
+        <v>605</v>
+      </c>
+      <c r="BC17">
+        <f>Hoja1!BC17</f>
+        <v>615</v>
+      </c>
+      <c r="BD17">
+        <f>Hoja1!BD17</f>
+        <v>624</v>
+      </c>
+      <c r="BE17">
+        <f>Hoja1!BE17</f>
+        <v>655</v>
+      </c>
+      <c r="BF17">
+        <f>Hoja1!BF17</f>
+        <v>668</v>
+      </c>
+      <c r="BG17">
+        <f>Hoja1!BG17</f>
+        <v>671</v>
+      </c>
+      <c r="BH17">
+        <f>Hoja1!BH17</f>
+        <v>693</v>
+      </c>
+      <c r="BI17">
+        <f>Hoja1!BI17</f>
+        <v>714</v>
+      </c>
+      <c r="BJ17">
+        <f>Hoja1!BJ17</f>
+        <v>725</v>
+      </c>
+      <c r="BK17">
+        <f>Hoja1!BK17</f>
+        <v>726</v>
+      </c>
+      <c r="BL17">
+        <f>Hoja1!BL17</f>
+        <v>752</v>
+      </c>
+      <c r="BM17">
+        <f>Hoja1!BM17</f>
+        <v>777</v>
+      </c>
+      <c r="BN17">
+        <f>Hoja1!BN17</f>
+        <v>795</v>
       </c>
     </row>
   </sheetData>

--- a/data/Infectados Covid Chile.xlsx
+++ b/data/Infectados Covid Chile.xlsx
@@ -2162,11 +2162,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN18"/>
+  <dimension ref="A1:BO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BN22" sqref="BN22"/>
+      <pane xSplit="2" topLeftCell="BM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BN18" sqref="BN18:BO18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2177,7 +2177,7 @@
     <col min="4" max="24" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -2376,8 +2376,11 @@
       <c r="BN1" s="2">
         <v>43955</v>
       </c>
+      <c r="BO1" s="2">
+        <v>43956</v>
+      </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2576,8 +2579,11 @@
       <c r="BN2">
         <v>308</v>
       </c>
+      <c r="BO2">
+        <v>315</v>
+      </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2776,8 +2782,11 @@
       <c r="BN3">
         <v>295</v>
       </c>
+      <c r="BO3">
+        <v>322</v>
+      </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2976,8 +2985,11 @@
       <c r="BN4">
         <v>760</v>
       </c>
+      <c r="BO4">
+        <v>811</v>
+      </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3176,8 +3188,11 @@
       <c r="BN5">
         <v>70</v>
       </c>
+      <c r="BO5">
+        <v>78</v>
+      </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3376,8 +3391,11 @@
       <c r="BN6">
         <v>91</v>
       </c>
+      <c r="BO6">
+        <v>97</v>
+      </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3576,8 +3594,11 @@
       <c r="BN7">
         <v>656</v>
       </c>
+      <c r="BO7">
+        <v>687</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3776,8 +3797,11 @@
       <c r="BN8">
         <v>13528</v>
       </c>
+      <c r="BO8">
+        <v>14707</v>
+      </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3976,8 +4000,11 @@
       <c r="BN9">
         <v>131</v>
       </c>
+      <c r="BO9">
+        <v>136</v>
+      </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4176,8 +4203,11 @@
       <c r="BN10">
         <v>399</v>
       </c>
+      <c r="BO10">
+        <v>408</v>
+      </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4376,8 +4406,11 @@
       <c r="BN11">
         <v>787</v>
       </c>
+      <c r="BO11">
+        <v>789</v>
+      </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4576,8 +4609,11 @@
       <c r="BN12">
         <v>762</v>
       </c>
+      <c r="BO12">
+        <v>774</v>
+      </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4776,8 +4812,11 @@
       <c r="BN13">
         <v>1331</v>
       </c>
+      <c r="BO13">
+        <v>1352</v>
+      </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4976,8 +5015,11 @@
       <c r="BN14">
         <v>199</v>
       </c>
+      <c r="BO14">
+        <v>199</v>
+      </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5176,8 +5218,11 @@
       <c r="BN15">
         <v>524</v>
       </c>
+      <c r="BO15">
+        <v>525</v>
+      </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5376,8 +5421,11 @@
       <c r="BN16">
         <v>7</v>
       </c>
+      <c r="BO16">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -5576,8 +5624,11 @@
       <c r="BN17">
         <v>795</v>
       </c>
+      <c r="BO17">
+        <v>809</v>
+      </c>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:67" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
@@ -5691,7 +5742,7 @@
         <v>2139</v>
       </c>
       <c r="AE18">
-        <f t="shared" ref="AE18:BN18" si="3">SUM(AE2:AE17)</f>
+        <f t="shared" ref="AE18:BO18" si="3">SUM(AE2:AE17)</f>
         <v>2449</v>
       </c>
       <c r="AF18">
@@ -5833,6 +5884,10 @@
       <c r="BN18">
         <f t="shared" si="3"/>
         <v>20643</v>
+      </c>
+      <c r="BO18">
+        <f t="shared" si="3"/>
+        <v>22016</v>
       </c>
     </row>
   </sheetData>
@@ -5844,8 +5899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO16"/>
   <sheetViews>
-    <sheetView topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BP14" sqref="BP14"/>
+    <sheetView topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BP12" sqref="BP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6052,7 +6107,9 @@
       <c r="BN1" s="2">
         <v>43955</v>
       </c>
-      <c r="BO1" s="2"/>
+      <c r="BO1" s="2">
+        <v>43956</v>
+      </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6316,6 +6373,10 @@
         <f>Hoja1!BN2</f>
         <v>308</v>
       </c>
+      <c r="BO2">
+        <f>Hoja1!BO2</f>
+        <v>315</v>
+      </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -6578,6 +6639,10 @@
       <c r="BN3">
         <f>Hoja1!BN3</f>
         <v>295</v>
+      </c>
+      <c r="BO3">
+        <f>Hoja1!BO3</f>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.3">
@@ -6842,6 +6907,10 @@
         <f>Hoja1!BN4</f>
         <v>760</v>
       </c>
+      <c r="BO4">
+        <f>Hoja1!BO4</f>
+        <v>811</v>
+      </c>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -7105,6 +7174,10 @@
         <f>Hoja1!BN5</f>
         <v>70</v>
       </c>
+      <c r="BO5">
+        <f>Hoja1!BO5</f>
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -7368,6 +7441,10 @@
         <f>Hoja1!BN6</f>
         <v>91</v>
       </c>
+      <c r="BO6">
+        <f>Hoja1!BO6</f>
+        <v>97</v>
+      </c>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -7631,6 +7708,10 @@
         <f>Hoja1!BN7</f>
         <v>656</v>
       </c>
+      <c r="BO7">
+        <f>Hoja1!BO7</f>
+        <v>687</v>
+      </c>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -7894,6 +7975,10 @@
         <f>Hoja1!BN8</f>
         <v>13528</v>
       </c>
+      <c r="BO8">
+        <f>Hoja1!BO8</f>
+        <v>14707</v>
+      </c>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -8157,6 +8242,10 @@
         <f>Hoja1!BN9</f>
         <v>131</v>
       </c>
+      <c r="BO9">
+        <f>Hoja1!BO9</f>
+        <v>136</v>
+      </c>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -8420,6 +8509,10 @@
         <f>Hoja1!BN10</f>
         <v>399</v>
       </c>
+      <c r="BO10">
+        <f>Hoja1!BO10</f>
+        <v>408</v>
+      </c>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -8683,6 +8776,10 @@
         <f>SUM(Hoja1!BN11:BN12)</f>
         <v>1549</v>
       </c>
+      <c r="BO11">
+        <f>SUM(Hoja1!BO11:BO12)</f>
+        <v>1563</v>
+      </c>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -8946,6 +9043,10 @@
         <f>Hoja1!BN13</f>
         <v>1331</v>
       </c>
+      <c r="BO12">
+        <f>Hoja1!BO13</f>
+        <v>1352</v>
+      </c>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -9209,6 +9310,10 @@
         <f>Hoja1!BN14</f>
         <v>199</v>
       </c>
+      <c r="BO13">
+        <f>Hoja1!BO14</f>
+        <v>199</v>
+      </c>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -9472,6 +9577,10 @@
         <f>Hoja1!BN15</f>
         <v>524</v>
       </c>
+      <c r="BO14">
+        <f>Hoja1!BO15</f>
+        <v>525</v>
+      </c>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -9735,6 +9844,10 @@
         <f>Hoja1!BN16</f>
         <v>7</v>
       </c>
+      <c r="BO15">
+        <f>Hoja1!BO16</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -9997,6 +10110,10 @@
       <c r="BN16">
         <f>Hoja1!BN17</f>
         <v>795</v>
+      </c>
+      <c r="BO16">
+        <f>Hoja1!BO17</f>
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -10006,10 +10123,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN17"/>
+  <dimension ref="A1:BO17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BC23" sqref="BC23"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="BO21" sqref="BO21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10017,7 +10134,7 @@
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>Hoja1!A1</f>
         <v>region_title</v>
@@ -10282,8 +10399,12 @@
         <f>Hoja1!BN1</f>
         <v>43955</v>
       </c>
+      <c r="BO1" s="2">
+        <f>Hoja1!BO1</f>
+        <v>43956</v>
+      </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>Hoja1!A2</f>
         <v>Arica y Parinacota</v>
@@ -10548,8 +10669,12 @@
         <f>Hoja1!BN2</f>
         <v>308</v>
       </c>
+      <c r="BO2">
+        <f>Hoja1!BO2</f>
+        <v>315</v>
+      </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>Hoja1!A3</f>
         <v>Tarapacá</v>
@@ -10814,8 +10939,12 @@
         <f>Hoja1!BN3</f>
         <v>295</v>
       </c>
+      <c r="BO3">
+        <f>Hoja1!BO3</f>
+        <v>322</v>
+      </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>Hoja1!A4</f>
         <v>Antofagasta</v>
@@ -11080,8 +11209,12 @@
         <f>Hoja1!BN4</f>
         <v>760</v>
       </c>
+      <c r="BO4">
+        <f>Hoja1!BO4</f>
+        <v>811</v>
+      </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>Hoja1!A5</f>
         <v>Atacama</v>
@@ -11346,8 +11479,12 @@
         <f>Hoja1!BN5</f>
         <v>70</v>
       </c>
+      <c r="BO5">
+        <f>Hoja1!BO5</f>
+        <v>78</v>
+      </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>Hoja1!A6</f>
         <v>Coquimbo</v>
@@ -11612,8 +11749,12 @@
         <f>Hoja1!BN6</f>
         <v>91</v>
       </c>
+      <c r="BO6">
+        <f>Hoja1!BO6</f>
+        <v>97</v>
+      </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>Hoja1!A7</f>
         <v>Valparaíso</v>
@@ -11878,8 +12019,12 @@
         <f>Hoja1!BN7</f>
         <v>656</v>
       </c>
+      <c r="BO7">
+        <f>Hoja1!BO7</f>
+        <v>687</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>Hoja1!A8</f>
         <v>Metropolitana</v>
@@ -12144,8 +12289,12 @@
         <f>Hoja1!BN8</f>
         <v>13528</v>
       </c>
+      <c r="BO8">
+        <f>Hoja1!BO8</f>
+        <v>14707</v>
+      </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>Hoja1!A9</f>
         <v>O'Higgins</v>
@@ -12410,8 +12559,12 @@
         <f>Hoja1!BN9</f>
         <v>131</v>
       </c>
+      <c r="BO9">
+        <f>Hoja1!BO9</f>
+        <v>136</v>
+      </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>Hoja1!A10</f>
         <v>Maule</v>
@@ -12676,8 +12829,12 @@
         <f>Hoja1!BN10</f>
         <v>399</v>
       </c>
+      <c r="BO10">
+        <f>Hoja1!BO10</f>
+        <v>408</v>
+      </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>Hoja1!A11</f>
         <v>Ñuble</v>
@@ -12942,8 +13099,12 @@
         <f>Hoja1!BN11</f>
         <v>787</v>
       </c>
+      <c r="BO11">
+        <f>Hoja1!BO11</f>
+        <v>789</v>
+      </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>Hoja1!A12</f>
         <v>Biobío</v>
@@ -13208,8 +13369,12 @@
         <f>Hoja1!BN12</f>
         <v>762</v>
       </c>
+      <c r="BO12">
+        <f>Hoja1!BO12</f>
+        <v>774</v>
+      </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>Hoja1!A13</f>
         <v>Araucanía</v>
@@ -13474,8 +13639,12 @@
         <f>Hoja1!BN13</f>
         <v>1331</v>
       </c>
+      <c r="BO13">
+        <f>Hoja1!BO13</f>
+        <v>1352</v>
+      </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>Hoja1!A14</f>
         <v>Los Ríos</v>
@@ -13740,8 +13909,12 @@
         <f>Hoja1!BN14</f>
         <v>199</v>
       </c>
+      <c r="BO14">
+        <f>Hoja1!BO14</f>
+        <v>199</v>
+      </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>Hoja1!A15</f>
         <v>Los Lagos</v>
@@ -14006,8 +14179,12 @@
         <f>Hoja1!BN15</f>
         <v>524</v>
       </c>
+      <c r="BO15">
+        <f>Hoja1!BO15</f>
+        <v>525</v>
+      </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>Hoja1!A16</f>
         <v>Aysén</v>
@@ -14272,8 +14449,12 @@
         <f>Hoja1!BN16</f>
         <v>7</v>
       </c>
+      <c r="BO16">
+        <f>Hoja1!BO16</f>
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>Hoja1!A17</f>
         <v>Magallanes</v>
@@ -14537,6 +14718,10 @@
       <c r="BN17">
         <f>Hoja1!BN17</f>
         <v>795</v>
+      </c>
+      <c r="BO17">
+        <f>Hoja1!BO17</f>
+        <v>809</v>
       </c>
     </row>
   </sheetData>

--- a/data/Infectados Covid Chile.xlsx
+++ b/data/Infectados Covid Chile.xlsx
@@ -2162,11 +2162,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO18"/>
+  <dimension ref="A1:BR18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="BM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BN18" sqref="BN18:BO18"/>
+      <selection pane="topRight" activeCell="BR24" sqref="BR24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2177,7 +2177,7 @@
     <col min="4" max="24" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -2379,8 +2379,17 @@
       <c r="BO1" s="2">
         <v>43956</v>
       </c>
+      <c r="BP1" s="2">
+        <v>43957</v>
+      </c>
+      <c r="BQ1" s="2">
+        <v>43958</v>
+      </c>
+      <c r="BR1" s="2">
+        <v>43959</v>
+      </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2582,8 +2591,17 @@
       <c r="BO2">
         <v>315</v>
       </c>
+      <c r="BP2">
+        <v>318</v>
+      </c>
+      <c r="BQ2">
+        <v>325</v>
+      </c>
+      <c r="BR2">
+        <v>327</v>
+      </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2785,8 +2803,17 @@
       <c r="BO3">
         <v>322</v>
       </c>
+      <c r="BP3">
+        <v>339</v>
+      </c>
+      <c r="BQ3">
+        <v>417</v>
+      </c>
+      <c r="BR3">
+        <v>459</v>
+      </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2988,8 +3015,17 @@
       <c r="BO4">
         <v>811</v>
       </c>
+      <c r="BP4">
+        <v>855</v>
+      </c>
+      <c r="BQ4">
+        <v>895</v>
+      </c>
+      <c r="BR4">
+        <v>923</v>
+      </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3191,8 +3227,17 @@
       <c r="BO5">
         <v>78</v>
       </c>
+      <c r="BP5">
+        <v>80</v>
+      </c>
+      <c r="BQ5">
+        <v>87</v>
+      </c>
+      <c r="BR5">
+        <v>88</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3394,8 +3439,17 @@
       <c r="BO6">
         <v>97</v>
       </c>
+      <c r="BP6">
+        <v>97</v>
+      </c>
+      <c r="BQ6">
+        <v>100</v>
+      </c>
+      <c r="BR6">
+        <v>111</v>
+      </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3597,8 +3651,17 @@
       <c r="BO7">
         <v>687</v>
       </c>
+      <c r="BP7">
+        <v>716</v>
+      </c>
+      <c r="BQ7">
+        <v>781</v>
+      </c>
+      <c r="BR7">
+        <v>828</v>
+      </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3800,8 +3863,17 @@
       <c r="BO8">
         <v>14707</v>
       </c>
+      <c r="BP8">
+        <v>15582</v>
+      </c>
+      <c r="BQ8">
+        <v>16828</v>
+      </c>
+      <c r="BR8">
+        <v>17979</v>
+      </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4003,8 +4075,17 @@
       <c r="BO9">
         <v>136</v>
       </c>
+      <c r="BP9">
+        <v>145</v>
+      </c>
+      <c r="BQ9">
+        <v>151</v>
+      </c>
+      <c r="BR9">
+        <v>167</v>
+      </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4206,8 +4287,17 @@
       <c r="BO10">
         <v>408</v>
       </c>
+      <c r="BP10">
+        <v>408</v>
+      </c>
+      <c r="BQ10">
+        <v>414</v>
+      </c>
+      <c r="BR10">
+        <v>425</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4409,8 +4499,17 @@
       <c r="BO11">
         <v>789</v>
       </c>
+      <c r="BP11">
+        <v>791</v>
+      </c>
+      <c r="BQ11">
+        <v>793</v>
+      </c>
+      <c r="BR11">
+        <v>794</v>
+      </c>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4612,8 +4711,17 @@
       <c r="BO12">
         <v>774</v>
       </c>
+      <c r="BP12">
+        <v>789</v>
+      </c>
+      <c r="BQ12">
+        <v>814</v>
+      </c>
+      <c r="BR12">
+        <v>842</v>
+      </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4815,8 +4923,17 @@
       <c r="BO13">
         <v>1352</v>
       </c>
+      <c r="BP13">
+        <v>1362</v>
+      </c>
+      <c r="BQ13">
+        <v>1385</v>
+      </c>
+      <c r="BR13">
+        <v>1403</v>
+      </c>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -5018,8 +5135,17 @@
       <c r="BO14">
         <v>199</v>
       </c>
+      <c r="BP14">
+        <v>200</v>
+      </c>
+      <c r="BQ14">
+        <v>202</v>
+      </c>
+      <c r="BR14">
+        <v>203</v>
+      </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5221,8 +5347,17 @@
       <c r="BO15">
         <v>525</v>
       </c>
+      <c r="BP15">
+        <v>541</v>
+      </c>
+      <c r="BQ15">
+        <v>545</v>
+      </c>
+      <c r="BR15">
+        <v>548</v>
+      </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5424,8 +5559,17 @@
       <c r="BO16">
         <v>7</v>
       </c>
+      <c r="BP16">
+        <v>7</v>
+      </c>
+      <c r="BQ16">
+        <v>8</v>
+      </c>
+      <c r="BR16">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -5627,8 +5771,17 @@
       <c r="BO17">
         <v>809</v>
       </c>
+      <c r="BP17">
+        <v>818</v>
+      </c>
+      <c r="BQ17">
+        <v>836</v>
+      </c>
+      <c r="BR17">
+        <v>867</v>
+      </c>
     </row>
-    <row r="18" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
@@ -5742,7 +5895,7 @@
         <v>2139</v>
       </c>
       <c r="AE18">
-        <f t="shared" ref="AE18:BO18" si="3">SUM(AE2:AE17)</f>
+        <f t="shared" ref="AE18:BP18" si="3">SUM(AE2:AE17)</f>
         <v>2449</v>
       </c>
       <c r="AF18">
@@ -5888,6 +6041,18 @@
       <c r="BO18">
         <f t="shared" si="3"/>
         <v>22016</v>
+      </c>
+      <c r="BP18">
+        <f t="shared" si="3"/>
+        <v>23048</v>
+      </c>
+      <c r="BQ18">
+        <f t="shared" ref="BQ18:BR18" si="4">SUM(BQ2:BQ17)</f>
+        <v>24581</v>
+      </c>
+      <c r="BR18">
+        <f t="shared" si="4"/>
+        <v>25972</v>
       </c>
     </row>
   </sheetData>
@@ -5897,10 +6062,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO16"/>
+  <dimension ref="A1:BR16"/>
   <sheetViews>
     <sheetView topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BP12" sqref="BP12"/>
+      <selection activeCell="BT17" sqref="BT17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5908,7 +6073,7 @@
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -6110,8 +6275,17 @@
       <c r="BO1" s="2">
         <v>43956</v>
       </c>
+      <c r="BP1" s="2">
+        <v>43957</v>
+      </c>
+      <c r="BQ1" s="2">
+        <v>43958</v>
+      </c>
+      <c r="BR1" s="2">
+        <v>43959</v>
+      </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6377,8 +6551,20 @@
         <f>Hoja1!BO2</f>
         <v>315</v>
       </c>
+      <c r="BP2">
+        <f>Hoja1!BP2</f>
+        <v>318</v>
+      </c>
+      <c r="BQ2">
+        <f>Hoja1!BQ2</f>
+        <v>325</v>
+      </c>
+      <c r="BR2">
+        <f>Hoja1!BR2</f>
+        <v>327</v>
+      </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -6644,8 +6830,20 @@
         <f>Hoja1!BO3</f>
         <v>322</v>
       </c>
+      <c r="BP3">
+        <f>Hoja1!BP3</f>
+        <v>339</v>
+      </c>
+      <c r="BQ3">
+        <f>Hoja1!BQ3</f>
+        <v>417</v>
+      </c>
+      <c r="BR3">
+        <f>Hoja1!BR3</f>
+        <v>459</v>
+      </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6911,8 +7109,20 @@
         <f>Hoja1!BO4</f>
         <v>811</v>
       </c>
+      <c r="BP4">
+        <f>Hoja1!BP4</f>
+        <v>855</v>
+      </c>
+      <c r="BQ4">
+        <f>Hoja1!BQ4</f>
+        <v>895</v>
+      </c>
+      <c r="BR4">
+        <f>Hoja1!BR4</f>
+        <v>923</v>
+      </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7178,8 +7388,20 @@
         <f>Hoja1!BO5</f>
         <v>78</v>
       </c>
+      <c r="BP5">
+        <f>Hoja1!BP5</f>
+        <v>80</v>
+      </c>
+      <c r="BQ5">
+        <f>Hoja1!BQ5</f>
+        <v>87</v>
+      </c>
+      <c r="BR5">
+        <f>Hoja1!BR5</f>
+        <v>88</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7445,8 +7667,20 @@
         <f>Hoja1!BO6</f>
         <v>97</v>
       </c>
+      <c r="BP6">
+        <f>Hoja1!BP6</f>
+        <v>97</v>
+      </c>
+      <c r="BQ6">
+        <f>Hoja1!BQ6</f>
+        <v>100</v>
+      </c>
+      <c r="BR6">
+        <f>Hoja1!BR6</f>
+        <v>111</v>
+      </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7712,8 +7946,20 @@
         <f>Hoja1!BO7</f>
         <v>687</v>
       </c>
+      <c r="BP7">
+        <f>Hoja1!BP7</f>
+        <v>716</v>
+      </c>
+      <c r="BQ7">
+        <f>Hoja1!BQ7</f>
+        <v>781</v>
+      </c>
+      <c r="BR7">
+        <f>Hoja1!BR7</f>
+        <v>828</v>
+      </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7979,8 +8225,20 @@
         <f>Hoja1!BO8</f>
         <v>14707</v>
       </c>
+      <c r="BP8">
+        <f>Hoja1!BP8</f>
+        <v>15582</v>
+      </c>
+      <c r="BQ8">
+        <f>Hoja1!BQ8</f>
+        <v>16828</v>
+      </c>
+      <c r="BR8">
+        <f>Hoja1!BR8</f>
+        <v>17979</v>
+      </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -8246,8 +8504,20 @@
         <f>Hoja1!BO9</f>
         <v>136</v>
       </c>
+      <c r="BP9">
+        <f>Hoja1!BP9</f>
+        <v>145</v>
+      </c>
+      <c r="BQ9">
+        <f>Hoja1!BQ9</f>
+        <v>151</v>
+      </c>
+      <c r="BR9">
+        <f>Hoja1!BR9</f>
+        <v>167</v>
+      </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -8513,8 +8783,20 @@
         <f>Hoja1!BO10</f>
         <v>408</v>
       </c>
+      <c r="BP10">
+        <f>Hoja1!BP10</f>
+        <v>408</v>
+      </c>
+      <c r="BQ10">
+        <f>Hoja1!BQ10</f>
+        <v>414</v>
+      </c>
+      <c r="BR10">
+        <f>Hoja1!BR10</f>
+        <v>425</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -8780,8 +9062,20 @@
         <f>SUM(Hoja1!BO11:BO12)</f>
         <v>1563</v>
       </c>
+      <c r="BP11">
+        <f>SUM(Hoja1!BP11:BP12)</f>
+        <v>1580</v>
+      </c>
+      <c r="BQ11">
+        <f>SUM(Hoja1!BQ11:BQ12)</f>
+        <v>1607</v>
+      </c>
+      <c r="BR11">
+        <f>SUM(Hoja1!BR11:BR12)</f>
+        <v>1636</v>
+      </c>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9047,8 +9341,20 @@
         <f>Hoja1!BO13</f>
         <v>1352</v>
       </c>
+      <c r="BP12">
+        <f>Hoja1!BP13</f>
+        <v>1362</v>
+      </c>
+      <c r="BQ12">
+        <f>Hoja1!BQ13</f>
+        <v>1385</v>
+      </c>
+      <c r="BR12">
+        <f>Hoja1!BR13</f>
+        <v>1403</v>
+      </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -9314,8 +9620,20 @@
         <f>Hoja1!BO14</f>
         <v>199</v>
       </c>
+      <c r="BP13">
+        <f>Hoja1!BP14</f>
+        <v>200</v>
+      </c>
+      <c r="BQ13">
+        <f>Hoja1!BQ14</f>
+        <v>202</v>
+      </c>
+      <c r="BR13">
+        <f>Hoja1!BR14</f>
+        <v>203</v>
+      </c>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9581,8 +9899,20 @@
         <f>Hoja1!BO15</f>
         <v>525</v>
       </c>
+      <c r="BP14">
+        <f>Hoja1!BP15</f>
+        <v>541</v>
+      </c>
+      <c r="BQ14">
+        <f>Hoja1!BQ15</f>
+        <v>545</v>
+      </c>
+      <c r="BR14">
+        <f>Hoja1!BR15</f>
+        <v>548</v>
+      </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -9848,8 +10178,20 @@
         <f>Hoja1!BO16</f>
         <v>7</v>
       </c>
+      <c r="BP15">
+        <f>Hoja1!BP16</f>
+        <v>7</v>
+      </c>
+      <c r="BQ15">
+        <f>Hoja1!BQ16</f>
+        <v>8</v>
+      </c>
+      <c r="BR15">
+        <f>Hoja1!BR16</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -10114,6 +10456,18 @@
       <c r="BO16">
         <f>Hoja1!BO17</f>
         <v>809</v>
+      </c>
+      <c r="BP16">
+        <f>Hoja1!BP17</f>
+        <v>818</v>
+      </c>
+      <c r="BQ16">
+        <f>Hoja1!BQ17</f>
+        <v>836</v>
+      </c>
+      <c r="BR16">
+        <f>Hoja1!BR17</f>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -10123,10 +10477,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO17"/>
+  <dimension ref="A1:BR17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
-      <selection activeCell="BO21" sqref="BO21"/>
+      <selection activeCell="BQ24" sqref="BQ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10134,7 +10488,7 @@
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>Hoja1!A1</f>
         <v>region_title</v>
@@ -10403,8 +10757,20 @@
         <f>Hoja1!BO1</f>
         <v>43956</v>
       </c>
+      <c r="BP1" s="2">
+        <f>Hoja1!BP1</f>
+        <v>43957</v>
+      </c>
+      <c r="BQ1" s="2">
+        <f>Hoja1!BQ1</f>
+        <v>43958</v>
+      </c>
+      <c r="BR1" s="2">
+        <f>Hoja1!BR1</f>
+        <v>43959</v>
+      </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>Hoja1!A2</f>
         <v>Arica y Parinacota</v>
@@ -10673,8 +11039,20 @@
         <f>Hoja1!BO2</f>
         <v>315</v>
       </c>
+      <c r="BP2">
+        <f>Hoja1!BP2</f>
+        <v>318</v>
+      </c>
+      <c r="BQ2">
+        <f>Hoja1!BQ2</f>
+        <v>325</v>
+      </c>
+      <c r="BR2">
+        <f>Hoja1!BR2</f>
+        <v>327</v>
+      </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>Hoja1!A3</f>
         <v>Tarapacá</v>
@@ -10943,8 +11321,20 @@
         <f>Hoja1!BO3</f>
         <v>322</v>
       </c>
+      <c r="BP3">
+        <f>Hoja1!BP3</f>
+        <v>339</v>
+      </c>
+      <c r="BQ3">
+        <f>Hoja1!BQ3</f>
+        <v>417</v>
+      </c>
+      <c r="BR3">
+        <f>Hoja1!BR3</f>
+        <v>459</v>
+      </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>Hoja1!A4</f>
         <v>Antofagasta</v>
@@ -11213,8 +11603,20 @@
         <f>Hoja1!BO4</f>
         <v>811</v>
       </c>
+      <c r="BP4">
+        <f>Hoja1!BP4</f>
+        <v>855</v>
+      </c>
+      <c r="BQ4">
+        <f>Hoja1!BQ4</f>
+        <v>895</v>
+      </c>
+      <c r="BR4">
+        <f>Hoja1!BR4</f>
+        <v>923</v>
+      </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>Hoja1!A5</f>
         <v>Atacama</v>
@@ -11483,8 +11885,20 @@
         <f>Hoja1!BO5</f>
         <v>78</v>
       </c>
+      <c r="BP5">
+        <f>Hoja1!BP5</f>
+        <v>80</v>
+      </c>
+      <c r="BQ5">
+        <f>Hoja1!BQ5</f>
+        <v>87</v>
+      </c>
+      <c r="BR5">
+        <f>Hoja1!BR5</f>
+        <v>88</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>Hoja1!A6</f>
         <v>Coquimbo</v>
@@ -11753,8 +12167,20 @@
         <f>Hoja1!BO6</f>
         <v>97</v>
       </c>
+      <c r="BP6">
+        <f>Hoja1!BP6</f>
+        <v>97</v>
+      </c>
+      <c r="BQ6">
+        <f>Hoja1!BQ6</f>
+        <v>100</v>
+      </c>
+      <c r="BR6">
+        <f>Hoja1!BR6</f>
+        <v>111</v>
+      </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>Hoja1!A7</f>
         <v>Valparaíso</v>
@@ -12023,8 +12449,20 @@
         <f>Hoja1!BO7</f>
         <v>687</v>
       </c>
+      <c r="BP7">
+        <f>Hoja1!BP7</f>
+        <v>716</v>
+      </c>
+      <c r="BQ7">
+        <f>Hoja1!BQ7</f>
+        <v>781</v>
+      </c>
+      <c r="BR7">
+        <f>Hoja1!BR7</f>
+        <v>828</v>
+      </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>Hoja1!A8</f>
         <v>Metropolitana</v>
@@ -12293,8 +12731,20 @@
         <f>Hoja1!BO8</f>
         <v>14707</v>
       </c>
+      <c r="BP8">
+        <f>Hoja1!BP8</f>
+        <v>15582</v>
+      </c>
+      <c r="BQ8">
+        <f>Hoja1!BQ8</f>
+        <v>16828</v>
+      </c>
+      <c r="BR8">
+        <f>Hoja1!BR8</f>
+        <v>17979</v>
+      </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>Hoja1!A9</f>
         <v>O'Higgins</v>
@@ -12563,8 +13013,20 @@
         <f>Hoja1!BO9</f>
         <v>136</v>
       </c>
+      <c r="BP9">
+        <f>Hoja1!BP9</f>
+        <v>145</v>
+      </c>
+      <c r="BQ9">
+        <f>Hoja1!BQ9</f>
+        <v>151</v>
+      </c>
+      <c r="BR9">
+        <f>Hoja1!BR9</f>
+        <v>167</v>
+      </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>Hoja1!A10</f>
         <v>Maule</v>
@@ -12833,8 +13295,20 @@
         <f>Hoja1!BO10</f>
         <v>408</v>
       </c>
+      <c r="BP10">
+        <f>Hoja1!BP10</f>
+        <v>408</v>
+      </c>
+      <c r="BQ10">
+        <f>Hoja1!BQ10</f>
+        <v>414</v>
+      </c>
+      <c r="BR10">
+        <f>Hoja1!BR10</f>
+        <v>425</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>Hoja1!A11</f>
         <v>Ñuble</v>
@@ -13103,8 +13577,20 @@
         <f>Hoja1!BO11</f>
         <v>789</v>
       </c>
+      <c r="BP11">
+        <f>Hoja1!BP11</f>
+        <v>791</v>
+      </c>
+      <c r="BQ11">
+        <f>Hoja1!BQ11</f>
+        <v>793</v>
+      </c>
+      <c r="BR11">
+        <f>Hoja1!BR11</f>
+        <v>794</v>
+      </c>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>Hoja1!A12</f>
         <v>Biobío</v>
@@ -13373,8 +13859,20 @@
         <f>Hoja1!BO12</f>
         <v>774</v>
       </c>
+      <c r="BP12">
+        <f>Hoja1!BP12</f>
+        <v>789</v>
+      </c>
+      <c r="BQ12">
+        <f>Hoja1!BQ12</f>
+        <v>814</v>
+      </c>
+      <c r="BR12">
+        <f>Hoja1!BR12</f>
+        <v>842</v>
+      </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>Hoja1!A13</f>
         <v>Araucanía</v>
@@ -13643,8 +14141,20 @@
         <f>Hoja1!BO13</f>
         <v>1352</v>
       </c>
+      <c r="BP13">
+        <f>Hoja1!BP13</f>
+        <v>1362</v>
+      </c>
+      <c r="BQ13">
+        <f>Hoja1!BQ13</f>
+        <v>1385</v>
+      </c>
+      <c r="BR13">
+        <f>Hoja1!BR13</f>
+        <v>1403</v>
+      </c>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>Hoja1!A14</f>
         <v>Los Ríos</v>
@@ -13913,8 +14423,20 @@
         <f>Hoja1!BO14</f>
         <v>199</v>
       </c>
+      <c r="BP14">
+        <f>Hoja1!BP14</f>
+        <v>200</v>
+      </c>
+      <c r="BQ14">
+        <f>Hoja1!BQ14</f>
+        <v>202</v>
+      </c>
+      <c r="BR14">
+        <f>Hoja1!BR14</f>
+        <v>203</v>
+      </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>Hoja1!A15</f>
         <v>Los Lagos</v>
@@ -14183,8 +14705,20 @@
         <f>Hoja1!BO15</f>
         <v>525</v>
       </c>
+      <c r="BP15">
+        <f>Hoja1!BP15</f>
+        <v>541</v>
+      </c>
+      <c r="BQ15">
+        <f>Hoja1!BQ15</f>
+        <v>545</v>
+      </c>
+      <c r="BR15">
+        <f>Hoja1!BR15</f>
+        <v>548</v>
+      </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>Hoja1!A16</f>
         <v>Aysén</v>
@@ -14453,8 +14987,20 @@
         <f>Hoja1!BO16</f>
         <v>7</v>
       </c>
+      <c r="BP16">
+        <f>Hoja1!BP16</f>
+        <v>7</v>
+      </c>
+      <c r="BQ16">
+        <f>Hoja1!BQ16</f>
+        <v>8</v>
+      </c>
+      <c r="BR16">
+        <f>Hoja1!BR16</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>Hoja1!A17</f>
         <v>Magallanes</v>
@@ -14722,6 +15268,18 @@
       <c r="BO17">
         <f>Hoja1!BO17</f>
         <v>809</v>
+      </c>
+      <c r="BP17">
+        <f>Hoja1!BP17</f>
+        <v>818</v>
+      </c>
+      <c r="BQ17">
+        <f>Hoja1!BQ17</f>
+        <v>836</v>
+      </c>
+      <c r="BR17">
+        <f>Hoja1!BR17</f>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
